--- a/Info/Info.xlsx
+++ b/Info/Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="7560" tabRatio="713" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="7560" tabRatio="713" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="setup" sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="630">
   <si>
     <t>Slim</t>
   </si>
@@ -182,9 +182,6 @@
     <t>BES_A1__C</t>
   </si>
   <si>
-    <t>BES.INDIV_CA</t>
-  </si>
-  <si>
     <t>BES_A2__C</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t>BES_B1__C</t>
   </si>
   <si>
-    <t>BES.INDIV_CB</t>
-  </si>
-  <si>
     <t>BES_B2__C</t>
   </si>
   <si>
@@ -212,9 +206,6 @@
     <t>BES_C1__C</t>
   </si>
   <si>
-    <t>BES.INDIV_CC</t>
-  </si>
-  <si>
     <t>BES_C2__C</t>
   </si>
   <si>
@@ -245,9 +236,6 @@
     <t>REXT_A1</t>
   </si>
   <si>
-    <t>REXT.INDIV</t>
-  </si>
-  <si>
     <t>REXT_A2</t>
   </si>
   <si>
@@ -284,9 +272,6 @@
     <t>OCP_A1</t>
   </si>
   <si>
-    <t>OCP.INDIV</t>
-  </si>
-  <si>
     <t>OCP_A2</t>
   </si>
   <si>
@@ -341,9 +326,6 @@
     <t>TEMP_SP</t>
   </si>
   <si>
-    <t>TEMP.INDIV</t>
-  </si>
-  <si>
     <t>TEMP_OS</t>
   </si>
   <si>
@@ -365,9 +347,6 @@
     <t>TEMP_HOSE_A</t>
   </si>
   <si>
-    <t>TEMP_PROCESS.INDIV</t>
-  </si>
-  <si>
     <t>TEMP_HOSE_B</t>
   </si>
   <si>
@@ -386,9 +365,6 @@
     <t>PRESSURE_OS</t>
   </si>
   <si>
-    <t>PRESSURE.INDIV</t>
-  </si>
-  <si>
     <t>PRESSURE_A</t>
   </si>
   <si>
@@ -422,9 +398,6 @@
     <t>SENSOR_HOSE_A_STATUS</t>
   </si>
   <si>
-    <t>EVENT.INDIV</t>
-  </si>
-  <si>
     <t>SENSOR_HOSE_B_STATUS</t>
   </si>
   <si>
@@ -536,9 +509,6 @@
     <t>EA_Uplevel</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
     <t>PER_ENVIRONMENT_726_River Level</t>
   </si>
   <si>
@@ -794,60 +764,15 @@
     <t>BES</t>
   </si>
   <si>
-    <t>atop(textstyle(!!Current Density!!),textstyle(!!(μA/cm²)!!))</t>
-  </si>
-  <si>
-    <t>atop(R[textstyle(!!Ext!!)],textstyle(!!(!!*Omega*!!)!!))</t>
-  </si>
-  <si>
-    <t>textstyle(!!OCP!!)</t>
-  </si>
-  <si>
-    <t>atop(textstyle(!!BOD!![5]),textstyle(!!(mg/l O!![2]*!!)!!))</t>
-  </si>
-  <si>
-    <t>atop(textstyle(!!COD!!),textstyle(!!(mg/l O!![2]*!!)!!))</t>
-  </si>
-  <si>
     <t>Temperature</t>
   </si>
   <si>
-    <t>atop(textstyle(!!Temperature!!),textstyle(!!(°C)!!))</t>
-  </si>
-  <si>
-    <t>atop(textstyle(!!Control!!),textstyle(!!Temp (°C)!!))</t>
-  </si>
-  <si>
-    <t>atop(textstyle(!!Heating!!),textstyle(!!Control!!))</t>
-  </si>
-  <si>
-    <t>textstyle(!!pH!!)</t>
-  </si>
-  <si>
-    <t>atop(textstyle(!!Conductance!!),textstyle(!!(μS/cm@25°C)!!))</t>
-  </si>
-  <si>
-    <t>atop(textstyle(!!Pressure (mbar)!!),textstyle(!!Enclosure Tilt (°)!!))</t>
-  </si>
-  <si>
     <t>Dissolved Oxygen</t>
   </si>
   <si>
-    <t>atop(textstyle(!!Dissolved!!),textstyle(!!Oxygen (mg/l)!!))</t>
-  </si>
-  <si>
     <t>Levels</t>
   </si>
   <si>
-    <t>atop(textstyle(!!River Level (m)!!),textstyle(!!&amp; Rainfall (mm)!!))</t>
-  </si>
-  <si>
-    <t>atop(textstyle(!!Flow rate!!),textstyle(!!(ml/min)!!))</t>
-  </si>
-  <si>
-    <t>textstyle(!!Pump!!)</t>
-  </si>
-  <si>
     <t>dataset</t>
   </si>
   <si>
@@ -1566,18 +1491,6 @@
   </si>
   <si>
     <t>BES 1</t>
-  </si>
-  <si>
-    <t>BES 4 R[Ext]</t>
-  </si>
-  <si>
-    <t>BES 3 R[Ext]</t>
-  </si>
-  <si>
-    <t>BES 2 R[Ext]</t>
-  </si>
-  <si>
-    <t>BES 1 R[Ext]</t>
   </si>
   <si>
     <r>
@@ -1646,39 +1559,6 @@
     <t>∑ [BES C]</t>
   </si>
   <si>
-    <t>BES 2A R[Ext]</t>
-  </si>
-  <si>
-    <t>BES 3A R[Ext]</t>
-  </si>
-  <si>
-    <t>BES 4A R[Ext]</t>
-  </si>
-  <si>
-    <t>BES 1B R[Ext]</t>
-  </si>
-  <si>
-    <t>BES 2B R[Ext]</t>
-  </si>
-  <si>
-    <t>BES 3B R[Ext]</t>
-  </si>
-  <si>
-    <t>BES 4B R[Ext]</t>
-  </si>
-  <si>
-    <t>BES 1C R[Ext]</t>
-  </si>
-  <si>
-    <t>BES 2C R[Ext]</t>
-  </si>
-  <si>
-    <t>BES 3C R[Ext]</t>
-  </si>
-  <si>
-    <t>BES 4C R[Ext]</t>
-  </si>
-  <si>
     <t>Heated Line A Temp</t>
   </si>
   <si>
@@ -1775,9 +1655,6 @@
     <t>WWTW Nitrite (NWG)</t>
   </si>
   <si>
-    <t>WWTW N[Ammoniacal] (NWG)</t>
-  </si>
-  <si>
     <t>WWTW Oil&amp;Grease (NWG)</t>
   </si>
   <si>
@@ -1790,12 +1667,6 @@
     <t>WWTW tP (NWG)</t>
   </si>
   <si>
-    <t>WWTW S[Sett] (NWG)</t>
-  </si>
-  <si>
-    <t>WWTW S[Susp] (NWG)</t>
-  </si>
-  <si>
     <t>WWTW pH (NWG)</t>
   </si>
   <si>
@@ -1925,39 +1796,6 @@
     <t>col</t>
   </si>
   <si>
-    <t>Current Density\n(μA/cm²)</t>
-  </si>
-  <si>
-    <r>
-      <t>R[Ext]\n(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ω</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>BOD₅\n(mg/l O₂)</t>
-  </si>
-  <si>
-    <t>BES 1A R&lt;sub&gt;[Ext]&lt;/sub&gt;</t>
-  </si>
-  <si>
     <t>chart_status</t>
   </si>
   <si>
@@ -1992,6 +1830,114 @@
   </si>
   <si>
     <t>selected_chart_3</t>
+  </si>
+  <si>
+    <t>low_ave</t>
+  </si>
+  <si>
+    <t>Low Resolution (average)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>EVENT_indiv</t>
+  </si>
+  <si>
+    <t>EVENT_ave</t>
+  </si>
+  <si>
+    <t>BES 1A R&lt;sub&gt;Ext&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t>BES 2A R&lt;sub&gt;Ext&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t>BES 3A R&lt;sub&gt;Ext&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t>BES 4A R&lt;sub&gt;Ext&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t>BES 1B R&lt;sub&gt;Ext&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t>BES 2B R&lt;sub&gt;Ext&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t>BES 3B R&lt;sub&gt;Ext&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t>BES 4B R&lt;sub&gt;Ext&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t>BES 1C R&lt;sub&gt;Ext&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t>BES 2C R&lt;sub&gt;Ext&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t>BES 3C R&lt;sub&gt;Ext&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t>BES 4C R&lt;sub&gt;Ext&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t>WWTW N&lt;sub&gt;Ammoniacal&lt;/sub&gt; (NWG)</t>
+  </si>
+  <si>
+    <t>WWTW S&lt;sub&gt;Sett&lt;/sub&gt; (NWG)</t>
+  </si>
+  <si>
+    <t>WWTW S&lt;sub&gt;Susp&lt;/sub&gt; (NWG)</t>
+  </si>
+  <si>
+    <t>BES 1 R&lt;sub&gt;Ext&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t>BES 2 R&lt;sub&gt;Ext&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t>BES 3 R&lt;sub&gt;Ext&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t>BES 4 R&lt;sub&gt;Ext&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t>Current Density&lt;br&gt;(μA/cm²)</t>
+  </si>
+  <si>
+    <t>R&lt;sub&gt;Ext&lt;/sub&gt;&lt;br&gt;(Ω)</t>
+  </si>
+  <si>
+    <t>BOD₅&lt;br&gt;(mg/l O₂)</t>
+  </si>
+  <si>
+    <t>COD&lt;br&gt;(mg/l O₂)</t>
+  </si>
+  <si>
+    <t>Temperature&lt;br&gt;(°C)</t>
+  </si>
+  <si>
+    <t>Control&lt;br&gt;Temp (°C)</t>
+  </si>
+  <si>
+    <t>Heating&lt;br&gt;Control</t>
+  </si>
+  <si>
+    <t>Conductance&lt;br&gt;(μS/cm@25°C)</t>
+  </si>
+  <si>
+    <t>Pressure (mbar)&lt;br&gt;Enclosure Tilt (°)</t>
+  </si>
+  <si>
+    <t>Dissolved&lt;br&gt;Oxygen (mg/l)</t>
+  </si>
+  <si>
+    <t>River Level (m)&lt;br&gt;&amp; Rainfall (mm)</t>
+  </si>
+  <si>
+    <t>Flow rate&lt;br&gt;(ml/min)</t>
   </si>
 </sst>
 </file>
@@ -2566,23 +2512,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="B3" s="2">
         <v>43620.543946759259</v>
@@ -2590,7 +2536,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2624,28 +2570,28 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="B1" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="C1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="D1" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="E1" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="F1" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="G1" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="H1" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -2677,7 +2623,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2706,7 +2652,7 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -2732,7 +2678,7 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -2758,7 +2704,7 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -2784,7 +2730,7 @@
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2795,7 +2741,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2818,7 +2764,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2836,7 +2782,7 @@
         <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2849,10 +2795,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2866,28 +2812,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="C1" t="s">
-        <v>629</v>
+        <v>582</v>
       </c>
       <c r="D1" t="s">
-        <v>630</v>
+        <v>583</v>
       </c>
       <c r="E1" t="s">
-        <v>631</v>
+        <v>584</v>
       </c>
       <c r="F1" t="s">
-        <v>632</v>
+        <v>585</v>
       </c>
       <c r="G1" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
       <c r="H1" t="s">
-        <v>634</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2952,22 +2898,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>594</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>120</v>
+      </c>
+      <c r="H5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
         <v>43620.543946759259</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G6" s="1">
         <v>43621.543946759259</v>
       </c>
-      <c r="H5" t="s">
-        <v>635</v>
+      <c r="H6" t="s">
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -2977,10 +2940,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2995,38 +2958,38 @@
     <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="B1" t="s">
-        <v>623</v>
+        <v>580</v>
       </c>
       <c r="C1" t="s">
-        <v>624</v>
+        <v>581</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>636</v>
+        <v>589</v>
       </c>
       <c r="F1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="H1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="I1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3035,13 +2998,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>368</v>
       </c>
       <c r="E2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F2" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3053,9 +3016,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3064,13 +3027,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>369</v>
       </c>
       <c r="E3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F3" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3082,9 +3045,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3093,13 +3056,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>370</v>
       </c>
       <c r="E4" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F4" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3111,9 +3074,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3122,13 +3085,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>371</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3139,10 +3102,16 @@
       <c r="I5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
+      <c r="N5" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -3151,13 +3120,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>372</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3169,9 +3138,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -3180,13 +3149,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3198,9 +3167,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -3209,13 +3178,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E8" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
-        <v>258</v>
+        <v>621</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3227,9 +3196,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -3238,13 +3207,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>373</v>
       </c>
       <c r="E9" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="F9" t="s">
-        <v>260</v>
+        <v>622</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -3256,9 +3225,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -3267,13 +3236,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>374</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F10" t="s">
-        <v>261</v>
+        <v>623</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -3285,9 +3254,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -3296,13 +3265,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>597</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F11" t="s">
-        <v>262</v>
+        <v>624</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3314,9 +3283,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -3325,13 +3294,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F12" t="s">
-        <v>263</v>
+        <v>114</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -3343,9 +3312,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -3354,13 +3323,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F13" t="s">
-        <v>264</v>
+        <v>625</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -3372,9 +3341,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -3383,13 +3352,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>375</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
-        <v>265</v>
+        <v>626</v>
       </c>
       <c r="G14">
         <v>-50</v>
@@ -3401,9 +3370,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -3412,13 +3381,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E15" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="F15" t="s">
-        <v>267</v>
+        <v>627</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -3430,9 +3399,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -3441,13 +3410,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>377</v>
       </c>
       <c r="E16" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="F16" t="s">
-        <v>269</v>
+        <v>628</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -3460,8 +3429,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
+      <c r="A17">
+        <v>0</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -3470,13 +3439,13 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>376</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>270</v>
+        <v>629</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3489,8 +3458,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
+      <c r="A18">
+        <v>0</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -3499,13 +3468,13 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E18" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F18" t="s">
-        <v>271</v>
+        <v>92</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -3518,8 +3487,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
+      <c r="A19">
+        <v>1</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3528,13 +3497,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>368</v>
       </c>
       <c r="E19" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F19" t="s">
-        <v>254</v>
+        <v>618</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3547,8 +3516,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
+      <c r="A20">
+        <v>1</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -3557,13 +3526,13 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>369</v>
       </c>
       <c r="E20" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F20" t="s">
-        <v>254</v>
+        <v>618</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3576,8 +3545,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>28</v>
+      <c r="A21">
+        <v>1</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -3586,13 +3555,13 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>370</v>
       </c>
       <c r="E21" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F21" t="s">
-        <v>254</v>
+        <v>618</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3605,8 +3574,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>28</v>
+      <c r="A22">
+        <v>1</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -3615,13 +3584,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>371</v>
       </c>
       <c r="E22" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s">
-        <v>255</v>
+        <v>619</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3634,8 +3603,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>28</v>
+      <c r="A23">
+        <v>1</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -3644,13 +3613,13 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>372</v>
       </c>
       <c r="E23" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F23" t="s">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -3663,8 +3632,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
+      <c r="A24">
+        <v>1</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -3673,13 +3642,13 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E24" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F24" t="s">
-        <v>257</v>
+        <v>620</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3692,8 +3661,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
+      <c r="A25">
+        <v>1</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -3702,13 +3671,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E25" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F25" t="s">
-        <v>258</v>
+        <v>621</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3721,8 +3690,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>28</v>
+      <c r="A26">
+        <v>1</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -3731,13 +3700,13 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>373</v>
       </c>
       <c r="E26" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="F26" t="s">
-        <v>260</v>
+        <v>622</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3750,8 +3719,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
+      <c r="A27">
+        <v>1</v>
       </c>
       <c r="B27">
         <v>9</v>
@@ -3760,13 +3729,13 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>374</v>
       </c>
       <c r="E27" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F27" t="s">
-        <v>261</v>
+        <v>623</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3779,8 +3748,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
+      <c r="A28">
+        <v>1</v>
       </c>
       <c r="B28">
         <v>10</v>
@@ -3789,13 +3758,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>597</v>
       </c>
       <c r="E28" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F28" t="s">
-        <v>262</v>
+        <v>624</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3808,8 +3777,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29">
+        <v>1</v>
       </c>
       <c r="B29">
         <v>11</v>
@@ -3818,13 +3787,13 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F29" t="s">
-        <v>263</v>
+        <v>114</v>
       </c>
       <c r="G29">
         <v>4</v>
@@ -3837,8 +3806,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
+      <c r="A30">
+        <v>1</v>
       </c>
       <c r="B30">
         <v>12</v>
@@ -3847,13 +3816,13 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F30" t="s">
-        <v>264</v>
+        <v>625</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3866,8 +3835,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>28</v>
+      <c r="A31">
+        <v>1</v>
       </c>
       <c r="B31">
         <v>13</v>
@@ -3876,13 +3845,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>375</v>
       </c>
       <c r="E31" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F31" t="s">
-        <v>265</v>
+        <v>626</v>
       </c>
       <c r="G31">
         <v>-50</v>
@@ -3895,8 +3864,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>28</v>
+      <c r="A32">
+        <v>1</v>
       </c>
       <c r="B32">
         <v>14</v>
@@ -3905,13 +3874,13 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E32" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="F32" t="s">
-        <v>267</v>
+        <v>627</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3924,8 +3893,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>28</v>
+      <c r="A33">
+        <v>1</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -3934,13 +3903,13 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>168</v>
+        <v>377</v>
       </c>
       <c r="E33" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="F33" t="s">
-        <v>269</v>
+        <v>628</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3953,8 +3922,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>28</v>
+      <c r="A34">
+        <v>1</v>
       </c>
       <c r="B34">
         <v>16</v>
@@ -3963,13 +3932,13 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>376</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F34" t="s">
-        <v>270</v>
+        <v>629</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3982,8 +3951,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>28</v>
+      <c r="A35">
+        <v>1</v>
       </c>
       <c r="B35">
         <v>17</v>
@@ -3992,13 +3961,13 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E35" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F35" t="s">
-        <v>271</v>
+        <v>92</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -4011,8 +3980,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>30</v>
+      <c r="A36">
+        <v>2</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4021,13 +3990,13 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>368</v>
       </c>
       <c r="E36" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F36" t="s">
-        <v>254</v>
+        <v>618</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -4040,8 +4009,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>30</v>
+      <c r="A37">
+        <v>2</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -4050,13 +4019,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>369</v>
       </c>
       <c r="E37" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F37" t="s">
-        <v>254</v>
+        <v>618</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -4069,8 +4038,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>30</v>
+      <c r="A38">
+        <v>2</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -4079,13 +4048,13 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>370</v>
       </c>
       <c r="E38" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F38" t="s">
-        <v>254</v>
+        <v>618</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -4098,8 +4067,8 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>30</v>
+      <c r="A39">
+        <v>2</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -4108,13 +4077,13 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>371</v>
       </c>
       <c r="E39" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F39" t="s">
-        <v>255</v>
+        <v>619</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4127,8 +4096,8 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>30</v>
+      <c r="A40">
+        <v>2</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -4137,13 +4106,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>372</v>
       </c>
       <c r="E40" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F40" t="s">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -4156,8 +4125,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>30</v>
+      <c r="A41">
+        <v>2</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -4166,13 +4135,13 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E41" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F41" t="s">
-        <v>257</v>
+        <v>620</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -4185,8 +4154,8 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>30</v>
+      <c r="A42">
+        <v>2</v>
       </c>
       <c r="B42">
         <v>7</v>
@@ -4195,13 +4164,13 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E42" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F42" t="s">
-        <v>258</v>
+        <v>621</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4214,8 +4183,8 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>30</v>
+      <c r="A43">
+        <v>2</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -4224,13 +4193,13 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>373</v>
       </c>
       <c r="E43" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="F43" t="s">
-        <v>260</v>
+        <v>622</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4243,8 +4212,8 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>30</v>
+      <c r="A44">
+        <v>2</v>
       </c>
       <c r="B44">
         <v>9</v>
@@ -4253,13 +4222,13 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>374</v>
       </c>
       <c r="E44" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F44" t="s">
-        <v>261</v>
+        <v>623</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4272,8 +4241,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>30</v>
+      <c r="A45">
+        <v>2</v>
       </c>
       <c r="B45">
         <v>10</v>
@@ -4282,13 +4251,13 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>597</v>
       </c>
       <c r="E45" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F45" t="s">
-        <v>262</v>
+        <v>624</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4301,8 +4270,8 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>30</v>
+      <c r="A46">
+        <v>2</v>
       </c>
       <c r="B46">
         <v>11</v>
@@ -4311,13 +4280,13 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F46" t="s">
-        <v>263</v>
+        <v>114</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -4330,8 +4299,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>30</v>
+      <c r="A47">
+        <v>2</v>
       </c>
       <c r="B47">
         <v>12</v>
@@ -4340,13 +4309,13 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F47" t="s">
-        <v>264</v>
+        <v>625</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4359,8 +4328,8 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>30</v>
+      <c r="A48">
+        <v>2</v>
       </c>
       <c r="B48">
         <v>13</v>
@@ -4369,13 +4338,13 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>375</v>
       </c>
       <c r="E48" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F48" t="s">
-        <v>265</v>
+        <v>626</v>
       </c>
       <c r="G48">
         <v>-50</v>
@@ -4388,8 +4357,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>30</v>
+      <c r="A49">
+        <v>2</v>
       </c>
       <c r="B49">
         <v>14</v>
@@ -4398,13 +4367,13 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E49" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="F49" t="s">
-        <v>267</v>
+        <v>627</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4417,8 +4386,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>30</v>
+      <c r="A50">
+        <v>2</v>
       </c>
       <c r="B50">
         <v>15</v>
@@ -4427,13 +4396,13 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>168</v>
+        <v>377</v>
       </c>
       <c r="E50" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="F50" t="s">
-        <v>269</v>
+        <v>628</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4446,8 +4415,8 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>30</v>
+      <c r="A51">
+        <v>2</v>
       </c>
       <c r="B51">
         <v>16</v>
@@ -4456,13 +4425,13 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>97</v>
+        <v>376</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F51" t="s">
-        <v>270</v>
+        <v>629</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4475,8 +4444,8 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>30</v>
+      <c r="A52">
+        <v>2</v>
       </c>
       <c r="B52">
         <v>17</v>
@@ -4485,13 +4454,13 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E52" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F52" t="s">
-        <v>271</v>
+        <v>92</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4500,6 +4469,441 @@
         <v>1</v>
       </c>
       <c r="I52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>380</v>
+      </c>
+      <c r="E53" t="s">
+        <v>243</v>
+      </c>
+      <c r="F53" t="s">
+        <v>618</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>40</v>
+      </c>
+      <c r="I53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>381</v>
+      </c>
+      <c r="E54" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" t="s">
+        <v>619</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>400</v>
+      </c>
+      <c r="I54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>382</v>
+      </c>
+      <c r="E55" t="s">
+        <v>141</v>
+      </c>
+      <c r="F55" t="s">
+        <v>141</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56" t="s">
+        <v>165</v>
+      </c>
+      <c r="F56" t="s">
+        <v>620</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>300</v>
+      </c>
+      <c r="I56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" t="s">
+        <v>170</v>
+      </c>
+      <c r="F57" t="s">
+        <v>621</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>600</v>
+      </c>
+      <c r="I57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>383</v>
+      </c>
+      <c r="E58" t="s">
+        <v>244</v>
+      </c>
+      <c r="F58" t="s">
+        <v>622</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>60</v>
+      </c>
+      <c r="I58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>384</v>
+      </c>
+      <c r="E59" t="s">
+        <v>148</v>
+      </c>
+      <c r="F59" t="s">
+        <v>623</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>150</v>
+      </c>
+      <c r="I59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>598</v>
+      </c>
+      <c r="E60" t="s">
+        <v>152</v>
+      </c>
+      <c r="F60" t="s">
+        <v>624</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" t="s">
+        <v>114</v>
+      </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
+      <c r="H61">
+        <v>10</v>
+      </c>
+      <c r="I61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>116</v>
+      </c>
+      <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
+        <v>625</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>2500</v>
+      </c>
+      <c r="I62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>385</v>
+      </c>
+      <c r="E63" t="s">
+        <v>150</v>
+      </c>
+      <c r="F63" t="s">
+        <v>626</v>
+      </c>
+      <c r="G63">
+        <v>-50</v>
+      </c>
+      <c r="H63">
+        <v>50</v>
+      </c>
+      <c r="I63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64" t="s">
+        <v>245</v>
+      </c>
+      <c r="F64" t="s">
+        <v>627</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>8</v>
+      </c>
+      <c r="I64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>13</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>377</v>
+      </c>
+      <c r="E65" t="s">
+        <v>246</v>
+      </c>
+      <c r="F65" t="s">
+        <v>628</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>14</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>376</v>
+      </c>
+      <c r="E66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" t="s">
+        <v>629</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>30</v>
+      </c>
+      <c r="I66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>15</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>145</v>
+      </c>
+      <c r="E67" t="s">
+        <v>145</v>
+      </c>
+      <c r="F67" t="s">
+        <v>92</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
         <v>3</v>
       </c>
     </row>
@@ -4513,8 +4917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T153"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="Q154" sqref="Q154"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4538,84 +4942,84 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="B1" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="C1" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="D1" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="E1" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="F1" t="s">
         <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>614</v>
+        <v>571</v>
       </c>
       <c r="H1" t="s">
-        <v>617</v>
+        <v>574</v>
       </c>
       <c r="I1" t="s">
-        <v>615</v>
+        <v>572</v>
       </c>
       <c r="J1" t="s">
-        <v>616</v>
+        <v>573</v>
       </c>
       <c r="K1" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="L1" t="s">
-        <v>621</v>
+        <v>578</v>
       </c>
       <c r="M1" t="s">
-        <v>620</v>
+        <v>577</v>
       </c>
       <c r="N1" t="s">
-        <v>622</v>
+        <v>579</v>
       </c>
       <c r="O1" t="s">
-        <v>618</v>
+        <v>575</v>
       </c>
       <c r="P1" t="s">
-        <v>619</v>
+        <v>576</v>
       </c>
       <c r="Q1" t="s">
-        <v>637</v>
+        <v>590</v>
       </c>
       <c r="R1" t="s">
-        <v>638</v>
+        <v>591</v>
       </c>
       <c r="S1" t="s">
-        <v>639</v>
+        <v>592</v>
       </c>
       <c r="T1" t="s">
-        <v>640</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="F2" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -4647,22 +5051,22 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
       <c r="F3" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -4694,22 +5098,22 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="F4" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -4741,22 +5145,22 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>520</v>
+        <v>491</v>
       </c>
       <c r="F5" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -4788,22 +5192,22 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="F6" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -4835,22 +5239,22 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
       <c r="F7" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -4882,22 +5286,22 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="F8" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -4929,22 +5333,22 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B9" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="C9" t="s">
         <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E9" t="s">
-        <v>524</v>
+        <v>495</v>
       </c>
       <c r="F9" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -4976,22 +5380,22 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B10" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>525</v>
+        <v>496</v>
       </c>
       <c r="F10" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -5023,22 +5427,22 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B11" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="F11" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -5070,22 +5474,22 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B12" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="C12" t="s">
         <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
       <c r="F12" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -5117,22 +5521,22 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="C13" t="s">
         <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="F13" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -5164,22 +5568,22 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B14" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="C14" t="s">
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="F14" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -5211,22 +5615,22 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B15" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
       <c r="F15" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -5258,22 +5662,22 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B16" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E16" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="F16" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -5305,22 +5709,22 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B17" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E17" t="s">
-        <v>520</v>
+        <v>491</v>
       </c>
       <c r="F17" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -5352,22 +5756,22 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B18" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="F18" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -5399,22 +5803,22 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B19" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
       <c r="F19" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -5446,22 +5850,22 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B20" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="F20" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -5493,22 +5897,22 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B21" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>524</v>
+        <v>495</v>
       </c>
       <c r="F21" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -5540,22 +5944,22 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>266</v>
+      </c>
+      <c r="B22" t="s">
         <v>291</v>
       </c>
-      <c r="B22" t="s">
-        <v>316</v>
-      </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>525</v>
+        <v>496</v>
       </c>
       <c r="F22" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -5587,22 +5991,22 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B23" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="F23" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -5634,22 +6038,22 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B24" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
       <c r="F24" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -5681,22 +6085,22 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E25" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="F25" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -5728,22 +6132,22 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="F26" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -5775,22 +6179,22 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="F27" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -5822,22 +6226,22 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E28" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="F28" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -5869,22 +6273,22 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E29" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="F29" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -5916,22 +6320,22 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="F30" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -5963,22 +6367,22 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E31" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="F31" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -6010,22 +6414,22 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E32" t="s">
-        <v>628</v>
+        <v>599</v>
       </c>
       <c r="F32" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
@@ -6057,22 +6461,22 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E33" t="s">
-        <v>532</v>
+        <v>600</v>
       </c>
       <c r="F33" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -6104,22 +6508,22 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E34" t="s">
-        <v>533</v>
+        <v>601</v>
       </c>
       <c r="F34" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -6151,22 +6555,22 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E35" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="F35" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -6198,22 +6602,22 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B36" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="F36" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -6245,22 +6649,22 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B37" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s">
-        <v>536</v>
+        <v>604</v>
       </c>
       <c r="F37" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -6292,22 +6696,22 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B38" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s">
-        <v>537</v>
+        <v>605</v>
       </c>
       <c r="F38" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -6339,22 +6743,22 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B39" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E39" t="s">
-        <v>538</v>
+        <v>606</v>
       </c>
       <c r="F39" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -6386,22 +6790,22 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B40" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>539</v>
+        <v>607</v>
       </c>
       <c r="F40" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -6433,22 +6837,22 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B41" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E41" t="s">
-        <v>540</v>
+        <v>608</v>
       </c>
       <c r="F41" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -6480,22 +6884,22 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B42" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E42" t="s">
-        <v>541</v>
+        <v>609</v>
       </c>
       <c r="F42" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -6527,22 +6931,22 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B43" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E43" t="s">
-        <v>542</v>
+        <v>610</v>
       </c>
       <c r="F43" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -6574,22 +6978,22 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B44" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E44" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="F44" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
@@ -6624,22 +7028,22 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B45" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D45" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E45" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
       <c r="F45" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="I45" t="b">
         <v>1</v>
@@ -6674,22 +7078,22 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E46" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="F46" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
@@ -6724,22 +7128,22 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B47" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E47" t="s">
-        <v>520</v>
+        <v>491</v>
       </c>
       <c r="F47" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="I47" t="b">
         <v>1</v>
@@ -6774,22 +7178,22 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B48" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E48" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="F48" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="I48" t="b">
         <v>1</v>
@@ -6824,22 +7228,22 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B49" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="C49" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E49" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
       <c r="F49" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
@@ -6874,22 +7278,22 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B50" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="C50" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="F50" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="I50" t="b">
         <v>1</v>
@@ -6924,22 +7328,22 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B51" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>524</v>
+        <v>495</v>
       </c>
       <c r="F51" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
@@ -6974,22 +7378,22 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E52" t="s">
-        <v>525</v>
+        <v>496</v>
       </c>
       <c r="F52" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="I52" t="b">
         <v>1</v>
@@ -7024,22 +7428,22 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B53" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D53" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E53" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="F53" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
@@ -7074,22 +7478,22 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B54" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D54" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E54" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
       <c r="F54" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="I54" t="b">
         <v>1</v>
@@ -7124,22 +7528,22 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B55" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="C55" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D55" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E55" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="F55" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="I55" t="b">
         <v>1</v>
@@ -7174,22 +7578,22 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B56" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D56" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E56" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="F56" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -7221,22 +7625,22 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B57" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E57" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="F57" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -7268,22 +7672,22 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B58" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D58" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E58" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="F58" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I58" t="b">
         <v>1</v>
@@ -7318,22 +7722,22 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B59" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="C59" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D59" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E59" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="F59" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
@@ -7368,22 +7772,22 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B60" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="C60" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D60" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E60" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="F60" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
@@ -7414,22 +7818,22 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B61" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D61" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E61" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="F61" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
@@ -7461,22 +7865,22 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B62" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D62" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E62" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="F62" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
@@ -7508,22 +7912,22 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B63" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="C63" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D63" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E63" t="s">
-        <v>543</v>
+        <v>503</v>
       </c>
       <c r="F63" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -7555,22 +7959,22 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B64" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="C64" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E64" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
       <c r="F64" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
@@ -7602,22 +8006,22 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B65" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="C65" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D65" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E65" t="s">
-        <v>545</v>
+        <v>505</v>
       </c>
       <c r="F65" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -7649,22 +8053,22 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B66" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="C66" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E66" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="F66" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
@@ -7696,22 +8100,22 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B67" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D67" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E67" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="F67" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
@@ -7743,22 +8147,22 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B68" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="C68" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D68" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E68" t="s">
-        <v>546</v>
+        <v>506</v>
       </c>
       <c r="F68" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
@@ -7790,22 +8194,22 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B69" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="C69" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D69" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E69" t="s">
-        <v>547</v>
+        <v>507</v>
       </c>
       <c r="F69" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -7837,22 +8241,22 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B70" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="C70" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D70" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E70" t="s">
-        <v>548</v>
+        <v>508</v>
       </c>
       <c r="F70" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
@@ -7884,22 +8288,22 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B71" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="C71" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D71" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E71" t="s">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="F71" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
@@ -7931,22 +8335,22 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B72" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="C72" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D72" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E72" t="s">
-        <v>550</v>
+        <v>510</v>
       </c>
       <c r="F72" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
@@ -7978,22 +8382,22 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B73" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="C73" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D73" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E73" t="s">
-        <v>551</v>
+        <v>511</v>
       </c>
       <c r="F73" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
@@ -8025,22 +8429,22 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B74" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="C74" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D74" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E74" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="F74" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
@@ -8072,22 +8476,22 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B75" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="C75" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D75" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E75" t="s">
-        <v>552</v>
+        <v>512</v>
       </c>
       <c r="F75" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
@@ -8119,22 +8523,22 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B76" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="C76" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D76" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E76" t="s">
-        <v>553</v>
+        <v>513</v>
       </c>
       <c r="F76" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
@@ -8166,22 +8570,22 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B77" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="C77" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D77" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E77" t="s">
-        <v>554</v>
+        <v>514</v>
       </c>
       <c r="F77" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
@@ -8213,22 +8617,22 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B78" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C78" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D78" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E78" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="F78" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
@@ -8260,22 +8664,22 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B79" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C79" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D79" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E79" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="F79" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
@@ -8307,22 +8711,22 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B80" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C80" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D80" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E80" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="F80" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
@@ -8354,22 +8758,22 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B81" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C81" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D81" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E81" t="s">
-        <v>555</v>
+        <v>515</v>
       </c>
       <c r="F81" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="I81" t="b">
         <v>1</v>
@@ -8404,22 +8808,22 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B82" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="C82" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D82" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E82" t="s">
-        <v>556</v>
+        <v>516</v>
       </c>
       <c r="F82" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="I82" t="b">
         <v>1</v>
@@ -8454,22 +8858,22 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B83" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="C83" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D83" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E83" t="s">
-        <v>557</v>
+        <v>517</v>
       </c>
       <c r="F83" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="I83" t="b">
         <v>1</v>
@@ -8504,22 +8908,22 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B84" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="C84" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D84" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E84" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="F84" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="I84" t="b">
         <v>1</v>
@@ -8557,19 +8961,19 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C85" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D85" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E85" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="F85" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
@@ -8602,19 +9006,19 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C86" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D86" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E86" t="s">
-        <v>558</v>
+        <v>518</v>
       </c>
       <c r="F86" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -8647,19 +9051,19 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C87" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D87" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E87" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="F87" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
@@ -8692,19 +9096,19 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C88" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D88" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E88" t="s">
-        <v>559</v>
+        <v>519</v>
       </c>
       <c r="F88" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
@@ -8737,19 +9141,19 @@
         <v>13</v>
       </c>
       <c r="B89" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C89" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="D89" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E89" t="s">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="F89" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
@@ -8777,19 +9181,19 @@
         <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C90" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="D90" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E90" t="s">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="F90" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
@@ -8817,19 +9221,19 @@
         <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C91" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="D91" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E91" t="s">
-        <v>562</v>
+        <v>522</v>
       </c>
       <c r="F91" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
@@ -8857,19 +9261,19 @@
         <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C92" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="D92" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E92" t="s">
-        <v>563</v>
+        <v>523</v>
       </c>
       <c r="F92" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
@@ -8897,19 +9301,19 @@
         <v>13</v>
       </c>
       <c r="B93" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C93" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="D93" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E93" t="s">
-        <v>564</v>
+        <v>524</v>
       </c>
       <c r="F93" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -8937,19 +9341,19 @@
         <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C94" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="D94" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E94" t="s">
-        <v>565</v>
+        <v>525</v>
       </c>
       <c r="F94" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
@@ -8977,19 +9381,19 @@
         <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C95" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="D95" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E95" t="s">
-        <v>566</v>
+        <v>526</v>
       </c>
       <c r="F95" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
@@ -9017,19 +9421,19 @@
         <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C96" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="D96" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E96" t="s">
-        <v>567</v>
+        <v>527</v>
       </c>
       <c r="F96" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
@@ -9057,19 +9461,19 @@
         <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C97" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="D97" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E97" t="s">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="F97" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
@@ -9097,19 +9501,19 @@
         <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C98" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="D98" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E98" t="s">
-        <v>569</v>
+        <v>529</v>
       </c>
       <c r="F98" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
@@ -9137,19 +9541,19 @@
         <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C99" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D99" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E99" t="s">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="F99" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="J99" t="b">
         <v>1</v>
@@ -9187,19 +9591,19 @@
         <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C100" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D100" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E100" t="s">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="F100" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="J100" t="b">
         <v>1</v>
@@ -9226,19 +9630,19 @@
         <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C101" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D101" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E101" t="s">
-        <v>571</v>
+        <v>531</v>
       </c>
       <c r="F101" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="J101" t="b">
         <v>1</v>
@@ -9276,19 +9680,19 @@
         <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C102" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D102" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E102" t="s">
-        <v>577</v>
+        <v>536</v>
       </c>
       <c r="F102" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="J102" t="b">
         <v>1</v>
@@ -9316,19 +9720,19 @@
         <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C103" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D103" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E103" t="s">
-        <v>573</v>
+        <v>533</v>
       </c>
       <c r="F103" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="J103" t="b">
         <v>1</v>
@@ -9356,19 +9760,19 @@
         <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C104" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D104" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E104" t="s">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="F104" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="J104" t="b">
         <v>1</v>
@@ -9396,19 +9800,19 @@
         <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C105" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D105" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E105" t="s">
-        <v>575</v>
+        <v>611</v>
       </c>
       <c r="F105" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="J105" t="b">
         <v>1</v>
@@ -9436,19 +9840,19 @@
         <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C106" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D106" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E106" t="s">
-        <v>576</v>
+        <v>535</v>
       </c>
       <c r="F106" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="J106" t="b">
         <v>1</v>
@@ -9476,19 +9880,19 @@
         <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C107" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D107" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E107" t="s">
-        <v>578</v>
+        <v>537</v>
       </c>
       <c r="F107" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="J107" t="b">
         <v>1</v>
@@ -9516,19 +9920,19 @@
         <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C108" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D108" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E108" t="s">
-        <v>579</v>
+        <v>538</v>
       </c>
       <c r="F108" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="J108" t="b">
         <v>1</v>
@@ -9556,19 +9960,19 @@
         <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C109" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D109" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E109" t="s">
-        <v>580</v>
+        <v>612</v>
       </c>
       <c r="F109" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="J109" t="b">
         <v>1</v>
@@ -9596,19 +10000,19 @@
         <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C110" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D110" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E110" t="s">
-        <v>581</v>
+        <v>613</v>
       </c>
       <c r="F110" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="J110" t="b">
         <v>1</v>
@@ -9636,19 +10040,19 @@
         <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D111" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E111" t="s">
-        <v>582</v>
+        <v>539</v>
       </c>
       <c r="F111" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J111" t="b">
         <v>1</v>
@@ -9686,19 +10090,19 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C112" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D112" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E112" t="s">
-        <v>583</v>
+        <v>540</v>
       </c>
       <c r="F112" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
@@ -9708,7 +10112,7 @@
       </c>
       <c r="L112" s="3"/>
       <c r="N112" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
@@ -9731,19 +10135,19 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C113" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D113" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E113" t="s">
-        <v>584</v>
+        <v>541</v>
       </c>
       <c r="F113" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
@@ -9753,7 +10157,7 @@
       </c>
       <c r="L113" s="3"/>
       <c r="N113" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="P113" t="b">
         <v>1</v>
@@ -9776,19 +10180,19 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C114" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D114" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E114" t="s">
-        <v>585</v>
+        <v>542</v>
       </c>
       <c r="F114" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
@@ -9798,7 +10202,7 @@
       </c>
       <c r="L114" s="3"/>
       <c r="N114" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="P114" t="b">
         <v>1</v>
@@ -9821,19 +10225,19 @@
         <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C115" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D115" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E115" t="s">
-        <v>586</v>
+        <v>543</v>
       </c>
       <c r="F115" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
@@ -9843,7 +10247,7 @@
       </c>
       <c r="L115" s="3"/>
       <c r="N115" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="P115" t="b">
         <v>1</v>
@@ -9863,22 +10267,22 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B116" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C116" t="s">
-        <v>607</v>
+        <v>564</v>
       </c>
       <c r="D116" t="s">
-        <v>607</v>
+        <v>564</v>
       </c>
       <c r="E116" t="s">
-        <v>604</v>
+        <v>561</v>
       </c>
       <c r="F116" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
@@ -9913,22 +10317,22 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B117" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C117" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="D117" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="E117" t="s">
-        <v>603</v>
+        <v>560</v>
       </c>
       <c r="F117" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
@@ -9953,22 +10357,22 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B118" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C118" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="D118" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="E118" t="s">
-        <v>602</v>
+        <v>559</v>
       </c>
       <c r="F118" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
@@ -9993,22 +10397,22 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B119" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C119" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="D119" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="E119" t="s">
-        <v>601</v>
+        <v>558</v>
       </c>
       <c r="F119" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
@@ -10033,22 +10437,22 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B120" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C120" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="D120" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="E120" t="s">
-        <v>600</v>
+        <v>557</v>
       </c>
       <c r="F120" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
@@ -10073,22 +10477,22 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B121" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C121" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="D121" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="E121" t="s">
-        <v>599</v>
+        <v>556</v>
       </c>
       <c r="F121" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
@@ -10113,22 +10517,22 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B122" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C122" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="D122" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="E122" t="s">
-        <v>587</v>
+        <v>544</v>
       </c>
       <c r="F122" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
@@ -10151,22 +10555,22 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B123" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C123" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="D123" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="E123" t="s">
-        <v>588</v>
+        <v>545</v>
       </c>
       <c r="F123" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
@@ -10189,22 +10593,22 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B124" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C124" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="D124" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="E124" t="s">
-        <v>589</v>
+        <v>546</v>
       </c>
       <c r="F124" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
@@ -10227,22 +10631,22 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B125" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C125" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="D125" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="E125" t="s">
-        <v>590</v>
+        <v>547</v>
       </c>
       <c r="F125" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
@@ -10265,22 +10669,22 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B126" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C126" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="D126" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="E126" t="s">
-        <v>591</v>
+        <v>548</v>
       </c>
       <c r="F126" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
@@ -10303,22 +10707,22 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B127" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C127" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="D127" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="E127" t="s">
-        <v>592</v>
+        <v>549</v>
       </c>
       <c r="F127" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
@@ -10341,22 +10745,22 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B128" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C128" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="D128" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="E128" t="s">
-        <v>593</v>
+        <v>550</v>
       </c>
       <c r="F128" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
@@ -10379,22 +10783,22 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B129" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C129" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="D129" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="E129" t="s">
-        <v>594</v>
+        <v>551</v>
       </c>
       <c r="F129" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
@@ -10417,22 +10821,22 @@
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B130" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C130" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="D130" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="E130" t="s">
-        <v>595</v>
+        <v>552</v>
       </c>
       <c r="F130" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
@@ -10455,22 +10859,22 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B131" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C131" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="D131" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="E131" t="s">
-        <v>596</v>
+        <v>553</v>
       </c>
       <c r="F131" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
@@ -10493,22 +10897,22 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B132" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C132" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="D132" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="E132" t="s">
-        <v>597</v>
+        <v>554</v>
       </c>
       <c r="F132" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
@@ -10531,22 +10935,22 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B133" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C133" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="D133" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="E133" t="s">
-        <v>598</v>
+        <v>555</v>
       </c>
       <c r="F133" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
@@ -10569,22 +10973,22 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B134" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C134" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="D134" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="E134" t="s">
-        <v>587</v>
+        <v>544</v>
       </c>
       <c r="F134" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
@@ -10607,22 +11011,22 @@
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B135" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C135" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="D135" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="E135" t="s">
-        <v>588</v>
+        <v>545</v>
       </c>
       <c r="F135" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
@@ -10645,22 +11049,22 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B136" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C136" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="D136" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="E136" t="s">
-        <v>589</v>
+        <v>546</v>
       </c>
       <c r="F136" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
@@ -10683,22 +11087,22 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B137" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C137" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="D137" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="E137" t="s">
-        <v>590</v>
+        <v>547</v>
       </c>
       <c r="F137" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
@@ -10721,22 +11125,22 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B138" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C138" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="D138" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="E138" t="s">
-        <v>591</v>
+        <v>548</v>
       </c>
       <c r="F138" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
@@ -10759,22 +11163,22 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B139" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C139" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="D139" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="E139" t="s">
-        <v>592</v>
+        <v>549</v>
       </c>
       <c r="F139" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
@@ -10797,22 +11201,22 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B140" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C140" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="D140" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="E140" t="s">
-        <v>593</v>
+        <v>550</v>
       </c>
       <c r="F140" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
@@ -10835,22 +11239,22 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B141" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C141" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="D141" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="E141" t="s">
-        <v>594</v>
+        <v>551</v>
       </c>
       <c r="F141" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
@@ -10873,22 +11277,22 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B142" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C142" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="D142" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="E142" t="s">
-        <v>595</v>
+        <v>552</v>
       </c>
       <c r="F142" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
@@ -10911,22 +11315,22 @@
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B143" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C143" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="D143" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="E143" t="s">
-        <v>596</v>
+        <v>553</v>
       </c>
       <c r="F143" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
@@ -10949,22 +11353,22 @@
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B144" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C144" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D144" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="E144" t="s">
-        <v>597</v>
+        <v>554</v>
       </c>
       <c r="F144" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
@@ -10987,22 +11391,22 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B145" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C145" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="D145" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="E145" t="s">
-        <v>598</v>
+        <v>555</v>
       </c>
       <c r="F145" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
@@ -11025,22 +11429,22 @@
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B146" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C146" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="D146" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="E146" t="s">
-        <v>605</v>
+        <v>562</v>
       </c>
       <c r="F146" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
@@ -11063,22 +11467,22 @@
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B147" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C147" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="D147" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="E147" t="s">
-        <v>606</v>
+        <v>563</v>
       </c>
       <c r="F147" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
@@ -11101,22 +11505,22 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B148" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C148" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="D148" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="E148" t="s">
-        <v>608</v>
+        <v>565</v>
       </c>
       <c r="F148" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
@@ -11139,22 +11543,22 @@
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B149" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C149" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="D149" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="E149" t="s">
-        <v>609</v>
+        <v>566</v>
       </c>
       <c r="F149" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
@@ -11177,22 +11581,22 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B150" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C150" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="D150" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="E150" t="s">
-        <v>610</v>
+        <v>567</v>
       </c>
       <c r="F150" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
@@ -11215,22 +11619,22 @@
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B151" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C151" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="D151" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="E151" t="s">
-        <v>611</v>
+        <v>568</v>
       </c>
       <c r="F151" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
@@ -11253,22 +11657,22 @@
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B152" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C152" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="D152" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="E152" t="s">
-        <v>612</v>
+        <v>569</v>
       </c>
       <c r="F152" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
@@ -11291,22 +11695,22 @@
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B153" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C153" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="D153" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="E153" t="s">
-        <v>613</v>
+        <v>570</v>
       </c>
       <c r="F153" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
@@ -11349,7 +11753,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11357,7 +11761,7 @@
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -11366,72 +11770,72 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="B1" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>614</v>
+        <v>571</v>
       </c>
       <c r="F1" t="s">
-        <v>617</v>
+        <v>574</v>
       </c>
       <c r="G1" t="s">
-        <v>615</v>
+        <v>572</v>
       </c>
       <c r="H1" t="s">
-        <v>616</v>
+        <v>573</v>
       </c>
       <c r="I1" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="J1" t="s">
-        <v>621</v>
+        <v>578</v>
       </c>
       <c r="K1" t="s">
-        <v>620</v>
+        <v>577</v>
       </c>
       <c r="L1" t="s">
-        <v>622</v>
+        <v>579</v>
       </c>
       <c r="M1" t="s">
-        <v>618</v>
+        <v>575</v>
       </c>
       <c r="N1" t="s">
-        <v>619</v>
+        <v>576</v>
       </c>
       <c r="O1" t="s">
-        <v>637</v>
+        <v>590</v>
       </c>
       <c r="P1" t="s">
-        <v>638</v>
+        <v>591</v>
       </c>
       <c r="Q1" t="s">
-        <v>639</v>
+        <v>592</v>
       </c>
       <c r="R1" t="s">
-        <v>640</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="D2" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -11466,16 +11870,16 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="D3" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -11510,16 +11914,16 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="D4" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -11554,16 +11958,16 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="D5" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -11598,16 +12002,16 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="D6" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -11642,16 +12046,16 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="D7" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -11686,16 +12090,16 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="D8" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -11730,16 +12134,16 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="D9" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -11774,16 +12178,16 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="D10" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -11818,16 +12222,16 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="D11" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -11862,16 +12266,16 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>515</v>
+        <v>614</v>
       </c>
       <c r="D12" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -11906,16 +12310,16 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>514</v>
+        <v>615</v>
       </c>
       <c r="D13" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -11950,16 +12354,16 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>513</v>
+        <v>616</v>
       </c>
       <c r="D14" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -11994,16 +12398,16 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>512</v>
+        <v>617</v>
       </c>
       <c r="D15" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -12038,16 +12442,16 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="D16" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -12085,16 +12489,16 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C17" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="D17" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -12132,16 +12536,16 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="D18" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -12179,16 +12583,16 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="D19" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -12226,16 +12630,16 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="D20" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -12270,16 +12674,16 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="D21" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -12314,16 +12718,16 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C22" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="D22" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -12358,16 +12762,16 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C23" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="D23" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -12402,16 +12806,16 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C24" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="D24" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -12449,16 +12853,16 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C25" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="D25" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -12493,16 +12897,16 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C26" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="D26" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
@@ -12534,16 +12938,16 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C27" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="D27" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -12575,16 +12979,16 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C28" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="D28" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
@@ -12636,31 +13040,31 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="C1" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="D1" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="E1" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="F1" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="J1" s="3"/>
     </row>
@@ -12669,10 +13073,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="C2" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="D2">
         <v>213.9999999999998</v>
@@ -12699,10 +13103,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="C3" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="D3">
         <v>255</v>
@@ -12729,10 +13133,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="C4" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="D4">
         <v>187.99999999999991</v>
@@ -12759,10 +13163,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="C5" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="D5">
         <v>43.999999999999964</v>
@@ -12789,10 +13193,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="C6" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="D6">
         <v>22.999999999999989</v>
@@ -12819,10 +13223,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="C7" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="D7">
         <v>30.999999999999901</v>
@@ -12849,10 +13253,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="C8" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="D8">
         <v>147.99999999999997</v>
@@ -12879,10 +13283,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="C9" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="D9">
         <v>226.99999999999989</v>
@@ -12909,10 +13313,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="C10" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="D10">
         <v>139.99999999999991</v>
@@ -12939,10 +13343,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="C11" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="D11">
         <v>126.99999999999987</v>
@@ -12969,10 +13373,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="C12" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="D12" s="3">
         <v>255</v>
@@ -12999,10 +13403,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="C13" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="D13" s="3">
         <v>255</v>
@@ -13029,10 +13433,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="C14" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="D14" s="3">
         <v>218.99999999999983</v>
@@ -13059,10 +13463,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="C15" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="D15" s="3">
         <v>152</v>
@@ -13089,10 +13493,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="C16" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="D16" s="3">
         <v>157.99999999999977</v>
@@ -13119,10 +13523,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="C17" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="D17" s="3">
         <v>173.99999999999986</v>
@@ -13149,10 +13553,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="C18" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="D18" s="3">
         <v>196.99999999999994</v>
@@ -13179,10 +13583,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="C19" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="D19" s="3">
         <v>246.99999999999997</v>
@@ -13209,10 +13613,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="C20" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="D20" s="3">
         <v>195.99999999999994</v>
@@ -13239,10 +13643,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="C21" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="D21" s="3">
         <v>198.99999999999997</v>
@@ -13269,10 +13673,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="C22" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="D22">
         <v>137</v>
@@ -13299,10 +13703,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="C23" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="D23">
         <v>218</v>
@@ -13329,10 +13733,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="C24" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="D24">
         <v>139</v>
@@ -13359,10 +13763,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="C25" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="D25">
         <v>27</v>
@@ -13389,10 +13793,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="C26" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="D26">
         <v>7</v>
@@ -13419,10 +13823,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="C27" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="D27">
         <v>13</v>
@@ -13449,10 +13853,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="C28" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="D28">
         <v>125</v>
@@ -13479,10 +13883,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="C29" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="D29">
         <v>213</v>
@@ -13509,10 +13913,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="C30" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="D30">
         <v>100</v>
@@ -13539,10 +13943,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="C31" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="D31">
         <v>91</v>
@@ -13571,15 +13975,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100983CA113FD3DE849936E610BB0BA65BB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="219e2d0d25f1c7dcecf6ea1ad6d45ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="75aa8e05-1f40-4a55-97cf-096775f63a7d" xmlns:ns4="c8ed7201-aa74-4219-b068-ce108ea8c5d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="719f9bc1c175b59cc8afcdde64e7182e" ns3:_="" ns4:_="">
     <xsd:import namespace="75aa8e05-1f40-4a55-97cf-096775f63a7d"/>
@@ -13788,6 +14183,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -13795,14 +14199,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{985D8399-A071-4822-87D9-C2DF6320BB4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F60B9C7-E153-401A-BDEA-AEEC941471A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13817,6 +14213,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{985D8399-A071-4822-87D9-C2DF6320BB4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Info/Info.xlsx
+++ b/Info/Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="7560" tabRatio="713" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="7560" tabRatio="713" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="setup" sheetId="9" r:id="rId1"/>
@@ -2797,8 +2797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2942,8 +2942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4917,7 +4917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>

--- a/Info/Info.xlsx
+++ b/Info/Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="7560" tabRatio="713" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="7560" tabRatio="713" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="setup" sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="609">
   <si>
     <t>Slim</t>
   </si>
@@ -836,15 +836,6 @@
     <t>Events</t>
   </si>
   <si>
-    <t>Sensor_ave</t>
-  </si>
-  <si>
-    <t>Skid_ave</t>
-  </si>
-  <si>
-    <t>SampLog_ave</t>
-  </si>
-  <si>
     <t>A1 V</t>
   </si>
   <si>
@@ -1127,39 +1118,6 @@
     <t>sCOD_2</t>
   </si>
   <si>
-    <t>BES_VA_indiv</t>
-  </si>
-  <si>
-    <t>BES_VB_indiv</t>
-  </si>
-  <si>
-    <t>BES_VC_indiv</t>
-  </si>
-  <si>
-    <t>BES_CA_indiv</t>
-  </si>
-  <si>
-    <t>BES_CB_indiv</t>
-  </si>
-  <si>
-    <t>BES_CC_indiv</t>
-  </si>
-  <si>
-    <t>REXT_indiv</t>
-  </si>
-  <si>
-    <t>OCP_indiv</t>
-  </si>
-  <si>
-    <t>TEMP_indiv</t>
-  </si>
-  <si>
-    <t>TEMP_PROCESS_indiv</t>
-  </si>
-  <si>
-    <t>PRESSURE_indiv</t>
-  </si>
-  <si>
     <t>PUMP</t>
   </si>
   <si>
@@ -1169,33 +1127,6 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>BES_V_ave</t>
-  </si>
-  <si>
-    <t>BES_C_ave</t>
-  </si>
-  <si>
-    <t>REXT_ave</t>
-  </si>
-  <si>
-    <t>OCP_ave</t>
-  </si>
-  <si>
-    <t>TEMP_ave</t>
-  </si>
-  <si>
-    <t>TEMP_PROCESS_ave</t>
-  </si>
-  <si>
-    <t>PRESSURE_ave</t>
-  </si>
-  <si>
-    <t>TEMP_EVENT_ave</t>
-  </si>
-  <si>
-    <t>TEMP_EVENT_indiv</t>
-  </si>
-  <si>
     <t>red</t>
   </si>
   <si>
@@ -1329,30 +1260,6 @@
   </si>
   <si>
     <t>C4_REXT_EV</t>
-  </si>
-  <si>
-    <t>OCP_1_EV_ave</t>
-  </si>
-  <si>
-    <t>OCP_2_EV_ave</t>
-  </si>
-  <si>
-    <t>OCP_3_EV_ave</t>
-  </si>
-  <si>
-    <t>OCP_4_EV_ave</t>
-  </si>
-  <si>
-    <t>REXT_1_EV_ave</t>
-  </si>
-  <si>
-    <t>REXT_2_EV_ave</t>
-  </si>
-  <si>
-    <t>REXT_3_EV_ave</t>
-  </si>
-  <si>
-    <t>REXT_4_EV_ave</t>
   </si>
   <si>
     <t>PUMP_SP_EV</t>
@@ -1841,12 +1748,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>EVENT_indiv</t>
-  </si>
-  <si>
-    <t>EVENT_ave</t>
-  </si>
-  <si>
     <t>BES 1A R&lt;sub&gt;Ext&lt;/sub&gt;</t>
   </si>
   <si>
@@ -1938,6 +1839,42 @@
   </si>
   <si>
     <t>Flow rate&lt;br&gt;(ml/min)</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>PRESSURE</t>
+  </si>
+  <si>
+    <t>BES_VA</t>
+  </si>
+  <si>
+    <t>BES_VB</t>
+  </si>
+  <si>
+    <t>BES_VC</t>
+  </si>
+  <si>
+    <t>BES_CA</t>
+  </si>
+  <si>
+    <t>BES_CB</t>
+  </si>
+  <si>
+    <t>BES_CC</t>
+  </si>
+  <si>
+    <t>BES_V</t>
+  </si>
+  <si>
+    <t>BES_C</t>
+  </si>
+  <si>
+    <t>EVENT</t>
   </si>
 </sst>
 </file>
@@ -1969,7 +1906,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2156,6 +2093,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2169,7 +2112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -2204,6 +2147,7 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2591,7 +2535,7 @@
         <v>255</v>
       </c>
       <c r="H1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -2623,7 +2567,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2652,7 +2596,7 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -2678,7 +2622,7 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -2704,7 +2648,7 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -2730,7 +2674,7 @@
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2782,7 +2726,7 @@
         <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2797,7 +2741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2818,22 +2762,22 @@
         <v>249</v>
       </c>
       <c r="C1" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="D1" t="s">
-        <v>583</v>
+        <v>552</v>
       </c>
       <c r="E1" t="s">
-        <v>584</v>
+        <v>553</v>
       </c>
       <c r="F1" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="G1" t="s">
-        <v>586</v>
+        <v>555</v>
       </c>
       <c r="H1" t="s">
-        <v>587</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2898,7 +2842,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>594</v>
+        <v>563</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -2907,7 +2851,7 @@
         <v>120</v>
       </c>
       <c r="H5" t="s">
-        <v>595</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2930,7 +2874,7 @@
         <v>43621.543946759259</v>
       </c>
       <c r="H6" t="s">
-        <v>588</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -2942,8 +2886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2954,7 +2898,7 @@
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="61.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2963,16 +2907,16 @@
         <v>249</v>
       </c>
       <c r="B1" t="s">
-        <v>580</v>
+        <v>549</v>
       </c>
       <c r="C1" t="s">
-        <v>581</v>
+        <v>550</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>589</v>
+        <v>558</v>
       </c>
       <c r="F1" t="s">
         <v>239</v>
@@ -2986,6 +2930,9 @@
       <c r="I1" t="s">
         <v>242</v>
       </c>
+      <c r="J1" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -2998,13 +2945,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>368</v>
+        <v>603</v>
       </c>
       <c r="E2" t="s">
         <v>243</v>
       </c>
       <c r="F2" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3015,6 +2962,9 @@
       <c r="I2">
         <v>10</v>
       </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -3027,13 +2977,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>369</v>
+        <v>604</v>
       </c>
       <c r="E3" t="s">
         <v>243</v>
       </c>
       <c r="F3" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3044,6 +2994,9 @@
       <c r="I3">
         <v>10</v>
       </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -3056,13 +3009,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>370</v>
+        <v>605</v>
       </c>
       <c r="E4" t="s">
         <v>243</v>
       </c>
       <c r="F4" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3073,6 +3026,9 @@
       <c r="I4">
         <v>10</v>
       </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -3085,28 +3041,25 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>371</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="N5" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>596</v>
+        <v>10</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -3120,22 +3073,25 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>372</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="F6" t="s">
-        <v>141</v>
+        <v>587</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -3149,23 +3105,26 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>425</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="F7" t="s">
-        <v>620</v>
+        <v>589</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="I7">
         <v>10</v>
       </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -3178,22 +3137,25 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="F8" t="s">
-        <v>621</v>
+        <v>590</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -3207,22 +3169,25 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="E9" t="s">
-        <v>244</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -3236,22 +3201,25 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>374</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F10" t="s">
-        <v>623</v>
+        <v>92</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -3265,22 +3233,25 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F11" t="s">
-        <v>624</v>
+        <v>593</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -3311,6 +3282,9 @@
       <c r="I12">
         <v>10</v>
       </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -3329,7 +3303,7 @@
         <v>118</v>
       </c>
       <c r="F13" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -3340,6 +3314,9 @@
       <c r="I13">
         <v>10</v>
       </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -3352,22 +3329,28 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>375</v>
+        <v>136</v>
       </c>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F14" t="s">
-        <v>626</v>
+        <v>586</v>
       </c>
       <c r="G14">
-        <v>-50</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>50</v>
+        <v>51101</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -3381,22 +3364,25 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="E15" t="s">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="F15" t="s">
-        <v>627</v>
+        <v>141</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -3410,25 +3396,28 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>377</v>
+        <v>196</v>
       </c>
       <c r="E16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F16" t="s">
-        <v>628</v>
+        <v>594</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -3439,25 +3428,28 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>246</v>
       </c>
       <c r="F17" t="s">
-        <v>629</v>
+        <v>595</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -3468,13 +3460,13 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>608</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>591</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -3485,8 +3477,11 @@
       <c r="I18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3497,13 +3492,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>368</v>
+        <v>603</v>
       </c>
       <c r="E19" t="s">
         <v>243</v>
       </c>
       <c r="F19" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3514,8 +3509,11 @@
       <c r="I19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3526,13 +3524,13 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>369</v>
+        <v>604</v>
       </c>
       <c r="E20" t="s">
         <v>243</v>
       </c>
       <c r="F20" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3543,8 +3541,11 @@
       <c r="I20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3555,13 +3556,13 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>370</v>
+        <v>605</v>
       </c>
       <c r="E21" t="s">
         <v>243</v>
       </c>
       <c r="F21" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3572,8 +3573,11 @@
       <c r="I21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3584,25 +3588,28 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>371</v>
+        <v>170</v>
       </c>
       <c r="E22" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="F22" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3613,25 +3620,28 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>372</v>
+        <v>165</v>
       </c>
       <c r="E23" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="F23" t="s">
-        <v>141</v>
+        <v>587</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="I23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3642,25 +3652,28 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>165</v>
+        <v>425</v>
       </c>
       <c r="E24" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="F24" t="s">
-        <v>620</v>
+        <v>589</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="I24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3671,25 +3684,28 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="E25" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="F25" t="s">
-        <v>621</v>
+        <v>590</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="I25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3700,25 +3716,28 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="E26" t="s">
-        <v>244</v>
+        <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3729,25 +3748,28 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>374</v>
+        <v>145</v>
       </c>
       <c r="E27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F27" t="s">
-        <v>623</v>
+        <v>92</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3758,25 +3780,28 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>624</v>
+        <v>593</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3804,8 +3829,11 @@
       <c r="I29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3822,7 +3850,7 @@
         <v>118</v>
       </c>
       <c r="F30" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3833,8 +3861,11 @@
       <c r="I30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3845,25 +3876,28 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>375</v>
+        <v>136</v>
       </c>
       <c r="E31" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F31" t="s">
-        <v>626</v>
+        <v>586</v>
       </c>
       <c r="G31">
-        <v>-50</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>50</v>
+        <v>51101</v>
       </c>
       <c r="I31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -3874,25 +3908,28 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="E32" t="s">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="F32" t="s">
-        <v>627</v>
+        <v>141</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3903,25 +3940,28 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>377</v>
+        <v>196</v>
       </c>
       <c r="E33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F33" t="s">
-        <v>628</v>
+        <v>594</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -3932,25 +3972,28 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>246</v>
       </c>
       <c r="F34" t="s">
-        <v>629</v>
+        <v>595</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -3961,13 +4004,13 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>608</v>
       </c>
       <c r="E35" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F35" t="s">
-        <v>92</v>
+        <v>591</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3978,8 +4021,11 @@
       <c r="I35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -3990,13 +4036,13 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>368</v>
+        <v>603</v>
       </c>
       <c r="E36" t="s">
         <v>243</v>
       </c>
       <c r="F36" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -4007,8 +4053,11 @@
       <c r="I36">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -4019,13 +4068,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>369</v>
+        <v>604</v>
       </c>
       <c r="E37" t="s">
         <v>243</v>
       </c>
       <c r="F37" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -4036,8 +4085,11 @@
       <c r="I37">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -4048,13 +4100,13 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>370</v>
+        <v>605</v>
       </c>
       <c r="E38" t="s">
         <v>243</v>
       </c>
       <c r="F38" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -4065,8 +4117,11 @@
       <c r="I38">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -4077,25 +4132,28 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>371</v>
+        <v>170</v>
       </c>
       <c r="E39" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="F39" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -4106,25 +4164,28 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>372</v>
+        <v>165</v>
       </c>
       <c r="E40" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="F40" t="s">
-        <v>141</v>
+        <v>587</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="I40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -4135,25 +4196,28 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>165</v>
+        <v>425</v>
       </c>
       <c r="E41" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="F41" t="s">
-        <v>620</v>
+        <v>589</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="I41">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -4164,25 +4228,28 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="E42" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="F42" t="s">
-        <v>621</v>
+        <v>590</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="I42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -4193,25 +4260,28 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="E43" t="s">
-        <v>244</v>
+        <v>92</v>
       </c>
       <c r="F43" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -4222,25 +4292,28 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>374</v>
+        <v>145</v>
       </c>
       <c r="E44" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F44" t="s">
-        <v>623</v>
+        <v>92</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -4251,25 +4324,28 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F45" t="s">
-        <v>624</v>
+        <v>593</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -4297,8 +4373,11 @@
       <c r="I46">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -4315,7 +4394,7 @@
         <v>118</v>
       </c>
       <c r="F47" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4326,8 +4405,11 @@
       <c r="I47">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -4338,25 +4420,28 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>375</v>
+        <v>136</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F48" t="s">
-        <v>626</v>
+        <v>586</v>
       </c>
       <c r="G48">
-        <v>-50</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>50</v>
+        <v>51101</v>
       </c>
       <c r="I48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -4367,25 +4452,28 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="E49" t="s">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="F49" t="s">
-        <v>627</v>
+        <v>141</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
@@ -4396,25 +4484,28 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>377</v>
+        <v>196</v>
       </c>
       <c r="E50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F50" t="s">
-        <v>628</v>
+        <v>594</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I50">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -4425,25 +4516,28 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="E51" t="s">
-        <v>92</v>
+        <v>246</v>
       </c>
       <c r="F51" t="s">
-        <v>629</v>
+        <v>595</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -4454,13 +4548,13 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>608</v>
       </c>
       <c r="E52" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F52" t="s">
-        <v>92</v>
+        <v>591</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4471,8 +4565,11 @@
       <c r="I52">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -4483,13 +4580,13 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>380</v>
+        <v>607</v>
       </c>
       <c r="E53" t="s">
         <v>243</v>
       </c>
       <c r="F53" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4500,8 +4597,11 @@
       <c r="I53">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -4512,25 +4612,28 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>381</v>
+        <v>170</v>
       </c>
       <c r="E54" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="F54" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I54">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -4541,25 +4644,28 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>382</v>
+        <v>165</v>
       </c>
       <c r="E55" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="F55" t="s">
-        <v>141</v>
+        <v>587</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="I55">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -4570,25 +4676,28 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>165</v>
+        <v>425</v>
       </c>
       <c r="E56" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="F56" t="s">
-        <v>620</v>
+        <v>589</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="I56">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -4599,25 +4708,28 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="E57" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="F57" t="s">
-        <v>621</v>
+        <v>590</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="I57">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -4628,25 +4740,28 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="E58" t="s">
-        <v>244</v>
+        <v>92</v>
       </c>
       <c r="F58" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I58">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -4657,25 +4772,28 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>384</v>
+        <v>145</v>
       </c>
       <c r="E59" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F59" t="s">
-        <v>623</v>
+        <v>92</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -4686,25 +4804,28 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E60" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F60" t="s">
-        <v>624</v>
+        <v>593</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -4732,8 +4853,11 @@
       <c r="I61">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -4750,7 +4874,7 @@
         <v>118</v>
       </c>
       <c r="F62" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -4761,8 +4885,11 @@
       <c r="I62">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -4773,25 +4900,28 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>385</v>
+        <v>136</v>
       </c>
       <c r="E63" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F63" t="s">
-        <v>626</v>
+        <v>586</v>
       </c>
       <c r="G63">
-        <v>-50</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>50</v>
+        <v>51101</v>
       </c>
       <c r="I63">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -4802,25 +4932,28 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="E64" t="s">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="F64" t="s">
-        <v>627</v>
+        <v>141</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -4831,25 +4964,28 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>377</v>
+        <v>196</v>
       </c>
       <c r="E65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F65" t="s">
-        <v>628</v>
+        <v>594</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I65">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -4860,25 +4996,28 @@
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="E66" t="s">
-        <v>92</v>
+        <v>246</v>
       </c>
       <c r="F66" t="s">
-        <v>629</v>
+        <v>595</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -4889,13 +5028,13 @@
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>145</v>
+        <v>608</v>
       </c>
       <c r="E67" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F67" t="s">
-        <v>92</v>
+        <v>591</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -4905,6 +5044,9 @@
       </c>
       <c r="I67">
         <v>3</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4917,8 +5059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T153"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4960,46 +5102,46 @@
         <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>571</v>
+        <v>540</v>
       </c>
       <c r="H1" t="s">
-        <v>574</v>
+        <v>543</v>
       </c>
       <c r="I1" t="s">
-        <v>572</v>
+        <v>541</v>
       </c>
       <c r="J1" t="s">
-        <v>573</v>
+        <v>542</v>
       </c>
       <c r="K1" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="L1" t="s">
-        <v>578</v>
+        <v>547</v>
       </c>
       <c r="M1" t="s">
-        <v>577</v>
+        <v>546</v>
       </c>
       <c r="N1" t="s">
-        <v>579</v>
+        <v>548</v>
       </c>
       <c r="O1" t="s">
-        <v>575</v>
+        <v>544</v>
       </c>
       <c r="P1" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
       <c r="Q1" t="s">
-        <v>590</v>
+        <v>559</v>
       </c>
       <c r="R1" t="s">
-        <v>591</v>
+        <v>560</v>
       </c>
       <c r="S1" t="s">
-        <v>592</v>
+        <v>561</v>
       </c>
       <c r="T1" t="s">
-        <v>593</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -5007,7 +5149,7 @@
         <v>266</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
@@ -5016,13 +5158,22 @@
         <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>488</v>
+        <v>457</v>
       </c>
       <c r="F2" t="s">
-        <v>365</v>
+        <v>600</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
       </c>
       <c r="K2" s="3">
         <v>0</v>
@@ -5054,7 +5205,7 @@
         <v>266</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -5063,13 +5214,22 @@
         <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>489</v>
+        <v>458</v>
       </c>
       <c r="F3" t="s">
-        <v>365</v>
+        <v>600</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
       </c>
       <c r="K3" s="3">
         <v>3</v>
@@ -5101,7 +5261,7 @@
         <v>266</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -5110,13 +5270,22 @@
         <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="F4" t="s">
-        <v>365</v>
+        <v>600</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
       </c>
       <c r="K4" s="3">
         <v>5</v>
@@ -5148,7 +5317,7 @@
         <v>266</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -5157,13 +5326,22 @@
         <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="F5" t="s">
-        <v>365</v>
+        <v>600</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
       </c>
       <c r="K5" s="3">
         <v>6</v>
@@ -5195,7 +5373,7 @@
         <v>266</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
@@ -5204,13 +5382,22 @@
         <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="F6" t="s">
-        <v>366</v>
+        <v>601</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
@@ -5242,7 +5429,7 @@
         <v>266</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
@@ -5251,13 +5438,22 @@
         <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="F7" t="s">
-        <v>366</v>
+        <v>601</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
       </c>
       <c r="K7" s="3">
         <v>3</v>
@@ -5289,7 +5485,7 @@
         <v>266</v>
       </c>
       <c r="B8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
@@ -5298,13 +5494,22 @@
         <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="F8" t="s">
-        <v>366</v>
+        <v>601</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>5</v>
@@ -5336,7 +5541,7 @@
         <v>266</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
         <v>43</v>
@@ -5345,13 +5550,22 @@
         <v>128</v>
       </c>
       <c r="E9" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="F9" t="s">
-        <v>366</v>
+        <v>601</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>6</v>
@@ -5383,7 +5597,7 @@
         <v>266</v>
       </c>
       <c r="B10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
@@ -5392,13 +5606,22 @@
         <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="F10" t="s">
-        <v>367</v>
+        <v>602</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -5430,7 +5653,7 @@
         <v>266</v>
       </c>
       <c r="B11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
@@ -5439,13 +5662,22 @@
         <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="F11" t="s">
-        <v>367</v>
+        <v>602</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
       </c>
       <c r="K11" s="3">
         <v>3</v>
@@ -5477,7 +5709,7 @@
         <v>266</v>
       </c>
       <c r="B12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C12" t="s">
         <v>47</v>
@@ -5486,13 +5718,22 @@
         <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="F12" t="s">
-        <v>367</v>
+        <v>602</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>5</v>
@@ -5524,7 +5765,7 @@
         <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C13" t="s">
         <v>48</v>
@@ -5533,13 +5774,22 @@
         <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="F13" t="s">
-        <v>367</v>
+        <v>602</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
       </c>
       <c r="K13" s="3">
         <v>6</v>
@@ -5571,7 +5821,7 @@
         <v>266</v>
       </c>
       <c r="B14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
         <v>49</v>
@@ -5580,13 +5830,22 @@
         <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>488</v>
+        <v>457</v>
       </c>
       <c r="F14" t="s">
-        <v>368</v>
+        <v>603</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -5618,7 +5877,7 @@
         <v>266</v>
       </c>
       <c r="B15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
@@ -5627,13 +5886,22 @@
         <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>489</v>
+        <v>458</v>
       </c>
       <c r="F15" t="s">
-        <v>368</v>
+        <v>603</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>3</v>
@@ -5665,7 +5933,7 @@
         <v>266</v>
       </c>
       <c r="B16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C16" t="s">
         <v>51</v>
@@ -5674,13 +5942,22 @@
         <v>131</v>
       </c>
       <c r="E16" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="F16" t="s">
-        <v>368</v>
+        <v>603</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
       </c>
       <c r="K16" s="3">
         <v>5</v>
@@ -5712,7 +5989,7 @@
         <v>266</v>
       </c>
       <c r="B17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C17" t="s">
         <v>52</v>
@@ -5721,13 +5998,22 @@
         <v>132</v>
       </c>
       <c r="E17" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="F17" t="s">
-        <v>368</v>
+        <v>603</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>6</v>
@@ -5759,7 +6045,7 @@
         <v>266</v>
       </c>
       <c r="B18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C18" t="s">
         <v>53</v>
@@ -5768,13 +6054,22 @@
         <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="F18" t="s">
-        <v>369</v>
+        <v>604</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -5806,7 +6101,7 @@
         <v>266</v>
       </c>
       <c r="B19" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C19" t="s">
         <v>54</v>
@@ -5815,13 +6110,22 @@
         <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="F19" t="s">
-        <v>369</v>
+        <v>604</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
       </c>
       <c r="K19" s="3">
         <v>3</v>
@@ -5853,7 +6157,7 @@
         <v>266</v>
       </c>
       <c r="B20" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C20" t="s">
         <v>55</v>
@@ -5862,13 +6166,22 @@
         <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="F20" t="s">
-        <v>369</v>
+        <v>604</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>5</v>
@@ -5900,7 +6213,7 @@
         <v>266</v>
       </c>
       <c r="B21" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C21" t="s">
         <v>56</v>
@@ -5909,13 +6222,22 @@
         <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="F21" t="s">
-        <v>369</v>
+        <v>604</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
       </c>
       <c r="K21" s="3">
         <v>6</v>
@@ -5947,7 +6269,7 @@
         <v>266</v>
       </c>
       <c r="B22" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C22" t="s">
         <v>57</v>
@@ -5956,13 +6278,22 @@
         <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="F22" t="s">
-        <v>370</v>
+        <v>605</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -5994,7 +6325,7 @@
         <v>266</v>
       </c>
       <c r="B23" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C23" t="s">
         <v>58</v>
@@ -6003,13 +6334,22 @@
         <v>130</v>
       </c>
       <c r="E23" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="F23" t="s">
-        <v>370</v>
+        <v>605</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>3</v>
@@ -6041,7 +6381,7 @@
         <v>266</v>
       </c>
       <c r="B24" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C24" t="s">
         <v>59</v>
@@ -6050,13 +6390,22 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="F24" t="s">
-        <v>370</v>
+        <v>605</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>5</v>
@@ -6088,7 +6437,7 @@
         <v>266</v>
       </c>
       <c r="B25" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
@@ -6097,13 +6446,22 @@
         <v>132</v>
       </c>
       <c r="E25" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="F25" t="s">
-        <v>370</v>
+        <v>605</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
       </c>
       <c r="K25" s="3">
         <v>6</v>
@@ -6135,7 +6493,7 @@
         <v>266</v>
       </c>
       <c r="B26" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C26" t="s">
         <v>61</v>
@@ -6144,19 +6502,28 @@
         <v>133</v>
       </c>
       <c r="E26" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="F26" t="s">
-        <v>365</v>
+        <v>600</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
       <c r="K26" s="3">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="L26" s="3">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="N26" t="s">
         <v>35</v>
@@ -6182,7 +6549,7 @@
         <v>266</v>
       </c>
       <c r="B27" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C27" t="s">
         <v>62</v>
@@ -6191,19 +6558,28 @@
         <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="F27" t="s">
-        <v>366</v>
+        <v>601</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
       <c r="K27" s="3">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="L27" s="3">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="N27" t="s">
         <v>35</v>
@@ -6229,7 +6605,7 @@
         <v>266</v>
       </c>
       <c r="B28" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
@@ -6238,19 +6614,28 @@
         <v>133</v>
       </c>
       <c r="E28" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="F28" t="s">
-        <v>367</v>
+        <v>602</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
       <c r="K28" s="3">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="L28" s="3">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="N28" t="s">
         <v>35</v>
@@ -6276,7 +6661,7 @@
         <v>266</v>
       </c>
       <c r="B29" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C29" t="s">
         <v>64</v>
@@ -6285,19 +6670,28 @@
         <v>134</v>
       </c>
       <c r="E29" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="F29" t="s">
-        <v>368</v>
+        <v>603</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
       <c r="K29" s="3">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="L29" s="3">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="N29" t="s">
         <v>35</v>
@@ -6323,7 +6717,7 @@
         <v>266</v>
       </c>
       <c r="B30" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C30" t="s">
         <v>65</v>
@@ -6332,19 +6726,28 @@
         <v>134</v>
       </c>
       <c r="E30" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="F30" t="s">
-        <v>369</v>
+        <v>604</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
       <c r="K30" s="3">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="L30" s="3">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="N30" t="s">
         <v>35</v>
@@ -6370,7 +6773,7 @@
         <v>266</v>
       </c>
       <c r="B31" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
@@ -6379,19 +6782,28 @@
         <v>134</v>
       </c>
       <c r="E31" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="F31" t="s">
-        <v>370</v>
+        <v>605</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
       <c r="K31" s="3">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="L31" s="3">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="N31" t="s">
         <v>35</v>
@@ -6417,7 +6829,7 @@
         <v>266</v>
       </c>
       <c r="B32" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C32" t="s">
         <v>67</v>
@@ -6426,13 +6838,22 @@
         <v>135</v>
       </c>
       <c r="E32" t="s">
-        <v>599</v>
+        <v>566</v>
       </c>
       <c r="F32" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -6456,7 +6877,7 @@
         <v>1</v>
       </c>
       <c r="T32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -6464,7 +6885,7 @@
         <v>266</v>
       </c>
       <c r="B33" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
@@ -6473,13 +6894,22 @@
         <v>137</v>
       </c>
       <c r="E33" t="s">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="F33" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>3</v>
@@ -6503,7 +6933,7 @@
         <v>1</v>
       </c>
       <c r="T33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -6511,7 +6941,7 @@
         <v>266</v>
       </c>
       <c r="B34" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C34" t="s">
         <v>69</v>
@@ -6520,13 +6950,22 @@
         <v>138</v>
       </c>
       <c r="E34" t="s">
-        <v>601</v>
+        <v>568</v>
       </c>
       <c r="F34" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
       </c>
       <c r="K34" s="3">
         <v>5</v>
@@ -6550,7 +6989,7 @@
         <v>1</v>
       </c>
       <c r="T34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -6558,7 +6997,7 @@
         <v>266</v>
       </c>
       <c r="B35" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C35" t="s">
         <v>70</v>
@@ -6567,13 +7006,22 @@
         <v>139</v>
       </c>
       <c r="E35" t="s">
-        <v>602</v>
+        <v>569</v>
       </c>
       <c r="F35" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>6</v>
@@ -6597,7 +7045,7 @@
         <v>1</v>
       </c>
       <c r="T35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -6605,7 +7053,7 @@
         <v>266</v>
       </c>
       <c r="B36" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C36" t="s">
         <v>71</v>
@@ -6614,13 +7062,22 @@
         <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>603</v>
+        <v>570</v>
       </c>
       <c r="F36" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
       </c>
       <c r="K36" s="3">
         <v>10</v>
@@ -6644,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="T36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -6652,7 +7109,7 @@
         <v>266</v>
       </c>
       <c r="B37" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C37" t="s">
         <v>72</v>
@@ -6661,13 +7118,22 @@
         <v>137</v>
       </c>
       <c r="E37" t="s">
-        <v>604</v>
+        <v>571</v>
       </c>
       <c r="F37" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
       </c>
       <c r="K37" s="3">
         <v>13</v>
@@ -6691,7 +7157,7 @@
         <v>1</v>
       </c>
       <c r="T37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -6699,7 +7165,7 @@
         <v>266</v>
       </c>
       <c r="B38" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C38" t="s">
         <v>73</v>
@@ -6708,13 +7174,22 @@
         <v>138</v>
       </c>
       <c r="E38" t="s">
-        <v>605</v>
+        <v>572</v>
       </c>
       <c r="F38" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
       </c>
       <c r="K38" s="3">
         <v>15</v>
@@ -6738,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -6746,7 +7221,7 @@
         <v>266</v>
       </c>
       <c r="B39" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C39" t="s">
         <v>74</v>
@@ -6755,13 +7230,22 @@
         <v>139</v>
       </c>
       <c r="E39" t="s">
-        <v>606</v>
+        <v>573</v>
       </c>
       <c r="F39" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
       </c>
       <c r="K39" s="3">
         <v>16</v>
@@ -6785,7 +7269,7 @@
         <v>1</v>
       </c>
       <c r="T39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -6793,7 +7277,7 @@
         <v>266</v>
       </c>
       <c r="B40" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C40" t="s">
         <v>75</v>
@@ -6802,13 +7286,22 @@
         <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>607</v>
+        <v>574</v>
       </c>
       <c r="F40" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
       </c>
       <c r="K40" s="3">
         <v>20</v>
@@ -6832,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="T40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -6840,7 +7333,7 @@
         <v>266</v>
       </c>
       <c r="B41" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C41" t="s">
         <v>76</v>
@@ -6849,13 +7342,22 @@
         <v>137</v>
       </c>
       <c r="E41" t="s">
-        <v>608</v>
+        <v>575</v>
       </c>
       <c r="F41" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>23</v>
@@ -6879,7 +7381,7 @@
         <v>1</v>
       </c>
       <c r="T41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -6887,7 +7389,7 @@
         <v>266</v>
       </c>
       <c r="B42" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C42" t="s">
         <v>77</v>
@@ -6896,13 +7398,22 @@
         <v>138</v>
       </c>
       <c r="E42" t="s">
-        <v>609</v>
+        <v>576</v>
       </c>
       <c r="F42" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
       </c>
       <c r="K42" s="3">
         <v>25</v>
@@ -6926,7 +7437,7 @@
         <v>1</v>
       </c>
       <c r="T42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -6934,7 +7445,7 @@
         <v>266</v>
       </c>
       <c r="B43" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C43" t="s">
         <v>78</v>
@@ -6943,13 +7454,22 @@
         <v>139</v>
       </c>
       <c r="E43" t="s">
-        <v>610</v>
+        <v>577</v>
       </c>
       <c r="F43" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>26</v>
@@ -6973,7 +7493,7 @@
         <v>1</v>
       </c>
       <c r="T43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -6981,22 +7501,31 @@
         <v>266</v>
       </c>
       <c r="B44" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C44" t="s">
         <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="E44" t="s">
-        <v>488</v>
+        <v>457</v>
       </c>
       <c r="F44" t="s">
-        <v>372</v>
+        <v>141</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -7031,22 +7560,31 @@
         <v>266</v>
       </c>
       <c r="B45" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C45" t="s">
         <v>80</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="E45" t="s">
-        <v>489</v>
+        <v>458</v>
       </c>
       <c r="F45" t="s">
-        <v>372</v>
+        <v>141</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
       </c>
       <c r="I45" t="b">
         <v>1</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>3</v>
@@ -7081,22 +7619,31 @@
         <v>266</v>
       </c>
       <c r="B46" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C46" t="s">
         <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="E46" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="F46" t="s">
-        <v>372</v>
+        <v>141</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>5</v>
@@ -7131,22 +7678,31 @@
         <v>266</v>
       </c>
       <c r="B47" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C47" t="s">
         <v>82</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="E47" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="F47" t="s">
-        <v>372</v>
+        <v>141</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
       </c>
       <c r="I47" t="b">
         <v>1</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>6</v>
@@ -7181,22 +7737,31 @@
         <v>266</v>
       </c>
       <c r="B48" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C48" t="s">
         <v>83</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="F48" t="s">
-        <v>372</v>
+        <v>141</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
       </c>
       <c r="I48" t="b">
         <v>1</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>10</v>
@@ -7231,22 +7796,31 @@
         <v>266</v>
       </c>
       <c r="B49" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C49" t="s">
         <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="E49" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="F49" t="s">
-        <v>372</v>
+        <v>141</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>13</v>
@@ -7281,22 +7855,31 @@
         <v>266</v>
       </c>
       <c r="B50" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C50" t="s">
         <v>85</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="E50" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="F50" t="s">
-        <v>372</v>
+        <v>141</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
       </c>
       <c r="I50" t="b">
         <v>1</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
       </c>
       <c r="K50" s="3">
         <v>15</v>
@@ -7331,22 +7914,31 @@
         <v>266</v>
       </c>
       <c r="B51" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C51" t="s">
         <v>86</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="E51" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="F51" t="s">
-        <v>372</v>
+        <v>141</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
       </c>
       <c r="K51" s="3">
         <v>16</v>
@@ -7381,22 +7973,31 @@
         <v>266</v>
       </c>
       <c r="B52" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C52" t="s">
         <v>87</v>
       </c>
       <c r="D52" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="E52" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="F52" t="s">
-        <v>372</v>
+        <v>141</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
       </c>
       <c r="I52" t="b">
         <v>1</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>20</v>
@@ -7431,22 +8032,31 @@
         <v>266</v>
       </c>
       <c r="B53" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C53" t="s">
         <v>88</v>
       </c>
       <c r="D53" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="E53" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="F53" t="s">
-        <v>372</v>
+        <v>141</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
       </c>
       <c r="K53" s="3">
         <v>23</v>
@@ -7481,22 +8091,31 @@
         <v>266</v>
       </c>
       <c r="B54" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C54" t="s">
         <v>89</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="E54" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="F54" t="s">
-        <v>372</v>
+        <v>141</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
       </c>
       <c r="I54" t="b">
         <v>1</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>25</v>
@@ -7531,22 +8150,31 @@
         <v>266</v>
       </c>
       <c r="B55" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C55" t="s">
         <v>90</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="F55" t="s">
-        <v>372</v>
+        <v>141</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
       </c>
       <c r="I55" t="b">
         <v>1</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
       </c>
       <c r="K55" s="3">
         <v>26</v>
@@ -7581,7 +8209,7 @@
         <v>266</v>
       </c>
       <c r="B56" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C56" t="s">
         <v>91</v>
@@ -7590,13 +8218,22 @@
         <v>91</v>
       </c>
       <c r="E56" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="F56" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
       </c>
       <c r="K56" s="3">
         <v>9</v>
@@ -7628,7 +8265,7 @@
         <v>266</v>
       </c>
       <c r="B57" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C57" t="s">
         <v>93</v>
@@ -7637,13 +8274,22 @@
         <v>93</v>
       </c>
       <c r="E57" t="s">
-        <v>482</v>
+        <v>451</v>
       </c>
       <c r="F57" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>8</v>
@@ -7675,7 +8321,7 @@
         <v>266</v>
       </c>
       <c r="B58" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C58" t="s">
         <v>94</v>
@@ -7684,13 +8330,22 @@
         <v>94</v>
       </c>
       <c r="E58" t="s">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="F58" t="s">
         <v>145</v>
       </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
       <c r="I58" t="b">
         <v>1</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>1</v>
@@ -7725,7 +8380,7 @@
         <v>266</v>
       </c>
       <c r="B59" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C59" t="s">
         <v>95</v>
@@ -7734,13 +8389,22 @@
         <v>95</v>
       </c>
       <c r="E59" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="F59" t="s">
         <v>145</v>
       </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
       <c r="I59" t="b">
         <v>1</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>2</v>
@@ -7775,7 +8439,7 @@
         <v>266</v>
       </c>
       <c r="B60" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C60" t="s">
         <v>96</v>
@@ -7784,13 +8448,22 @@
         <v>96</v>
       </c>
       <c r="E60" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="F60" t="s">
         <v>145</v>
       </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
       <c r="I60" t="b">
         <v>1</v>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -7821,7 +8494,7 @@
         <v>266</v>
       </c>
       <c r="B61" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C61" t="s">
         <v>97</v>
@@ -7830,13 +8503,22 @@
         <v>97</v>
       </c>
       <c r="E61" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="F61" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>9</v>
@@ -7868,7 +8550,7 @@
         <v>266</v>
       </c>
       <c r="B62" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C62" t="s">
         <v>98</v>
@@ -7877,13 +8559,22 @@
         <v>98</v>
       </c>
       <c r="E62" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="F62" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>8</v>
@@ -7915,7 +8606,7 @@
         <v>266</v>
       </c>
       <c r="B63" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C63" t="s">
         <v>99</v>
@@ -7924,13 +8615,22 @@
         <v>146</v>
       </c>
       <c r="E63" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="F63" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
       </c>
       <c r="K63" s="3">
         <v>1</v>
@@ -7954,7 +8654,7 @@
         <v>1</v>
       </c>
       <c r="T63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -7962,7 +8662,7 @@
         <v>266</v>
       </c>
       <c r="B64" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C64" t="s">
         <v>100</v>
@@ -7971,13 +8671,22 @@
         <v>146</v>
       </c>
       <c r="E64" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="F64" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
       </c>
       <c r="K64" s="3">
         <v>2</v>
@@ -8001,7 +8710,7 @@
         <v>1</v>
       </c>
       <c r="T64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
@@ -8009,7 +8718,7 @@
         <v>266</v>
       </c>
       <c r="B65" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C65" t="s">
         <v>101</v>
@@ -8018,13 +8727,22 @@
         <v>146</v>
       </c>
       <c r="E65" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="F65" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
       </c>
       <c r="K65" s="3">
         <v>4</v>
@@ -8048,7 +8766,7 @@
         <v>1</v>
       </c>
       <c r="T65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -8056,7 +8774,7 @@
         <v>266</v>
       </c>
       <c r="B66" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C66" t="s">
         <v>102</v>
@@ -8065,13 +8783,22 @@
         <v>102</v>
       </c>
       <c r="E66" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="F66" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
       </c>
       <c r="K66" s="3">
         <v>7</v>
@@ -8103,7 +8830,7 @@
         <v>266</v>
       </c>
       <c r="B67" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C67" t="s">
         <v>103</v>
@@ -8112,13 +8839,22 @@
         <v>103</v>
       </c>
       <c r="E67" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F67" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
       </c>
       <c r="K67" s="3">
         <v>5</v>
@@ -8150,7 +8886,7 @@
         <v>266</v>
       </c>
       <c r="B68" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C68" t="s">
         <v>104</v>
@@ -8159,13 +8895,22 @@
         <v>149</v>
       </c>
       <c r="E68" t="s">
-        <v>506</v>
+        <v>475</v>
       </c>
       <c r="F68" t="s">
-        <v>374</v>
+        <v>148</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
       </c>
       <c r="K68" s="3">
         <v>1</v>
@@ -8189,7 +8934,7 @@
         <v>1</v>
       </c>
       <c r="T68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -8197,7 +8942,7 @@
         <v>266</v>
       </c>
       <c r="B69" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C69" t="s">
         <v>105</v>
@@ -8206,13 +8951,22 @@
         <v>149</v>
       </c>
       <c r="E69" t="s">
-        <v>507</v>
+        <v>476</v>
       </c>
       <c r="F69" t="s">
-        <v>374</v>
+        <v>148</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
       </c>
       <c r="K69" s="3">
         <v>2</v>
@@ -8236,7 +8990,7 @@
         <v>1</v>
       </c>
       <c r="T69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -8244,7 +8998,7 @@
         <v>266</v>
       </c>
       <c r="B70" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C70" t="s">
         <v>106</v>
@@ -8253,13 +9007,22 @@
         <v>149</v>
       </c>
       <c r="E70" t="s">
-        <v>508</v>
+        <v>477</v>
       </c>
       <c r="F70" t="s">
-        <v>374</v>
+        <v>148</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>4</v>
@@ -8283,7 +9046,7 @@
         <v>1</v>
       </c>
       <c r="T70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
@@ -8291,7 +9054,7 @@
         <v>266</v>
       </c>
       <c r="B71" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C71" t="s">
         <v>107</v>
@@ -8300,13 +9063,22 @@
         <v>147</v>
       </c>
       <c r="E71" t="s">
-        <v>509</v>
+        <v>478</v>
       </c>
       <c r="F71" t="s">
-        <v>374</v>
+        <v>148</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
       </c>
       <c r="K71" s="3">
         <v>0</v>
@@ -8330,7 +9102,7 @@
         <v>1</v>
       </c>
       <c r="T71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
@@ -8338,7 +9110,7 @@
         <v>266</v>
       </c>
       <c r="B72" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C72" t="s">
         <v>108</v>
@@ -8347,13 +9119,22 @@
         <v>147</v>
       </c>
       <c r="E72" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="F72" t="s">
-        <v>374</v>
+        <v>148</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
       </c>
       <c r="K72" s="3">
         <v>3</v>
@@ -8377,7 +9158,7 @@
         <v>1</v>
       </c>
       <c r="T72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
@@ -8385,7 +9166,7 @@
         <v>266</v>
       </c>
       <c r="B73" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C73" t="s">
         <v>109</v>
@@ -8394,13 +9175,22 @@
         <v>147</v>
       </c>
       <c r="E73" t="s">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="F73" t="s">
-        <v>374</v>
+        <v>148</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
       </c>
       <c r="K73" s="3">
         <v>5</v>
@@ -8424,7 +9214,7 @@
         <v>1</v>
       </c>
       <c r="T73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
@@ -8432,7 +9222,7 @@
         <v>266</v>
       </c>
       <c r="B74" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C74" t="s">
         <v>110</v>
@@ -8441,13 +9231,22 @@
         <v>110</v>
       </c>
       <c r="E74" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="F74" t="s">
-        <v>375</v>
+        <v>599</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
       </c>
       <c r="K74" s="3">
         <v>8</v>
@@ -8479,7 +9278,7 @@
         <v>266</v>
       </c>
       <c r="B75" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C75" t="s">
         <v>111</v>
@@ -8488,13 +9287,22 @@
         <v>151</v>
       </c>
       <c r="E75" t="s">
-        <v>512</v>
+        <v>481</v>
       </c>
       <c r="F75" t="s">
-        <v>375</v>
+        <v>599</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
       </c>
       <c r="K75" s="3">
         <v>1</v>
@@ -8518,7 +9326,7 @@
         <v>1</v>
       </c>
       <c r="T75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
@@ -8526,7 +9334,7 @@
         <v>266</v>
       </c>
       <c r="B76" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C76" t="s">
         <v>112</v>
@@ -8535,13 +9343,22 @@
         <v>151</v>
       </c>
       <c r="E76" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="F76" t="s">
-        <v>375</v>
+        <v>599</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>2</v>
@@ -8565,7 +9382,7 @@
         <v>1</v>
       </c>
       <c r="T76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
@@ -8573,7 +9390,7 @@
         <v>266</v>
       </c>
       <c r="B77" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C77" t="s">
         <v>113</v>
@@ -8582,13 +9399,22 @@
         <v>151</v>
       </c>
       <c r="E77" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="F77" t="s">
-        <v>375</v>
+        <v>599</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
       </c>
       <c r="K77" s="3">
         <v>4</v>
@@ -8612,7 +9438,7 @@
         <v>1</v>
       </c>
       <c r="T77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
@@ -8629,13 +9455,22 @@
         <v>115</v>
       </c>
       <c r="E78" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="F78" t="s">
         <v>114</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
       </c>
       <c r="K78" s="3">
         <v>8</v>
@@ -8676,13 +9511,22 @@
         <v>117</v>
       </c>
       <c r="E79" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="F79" t="s">
         <v>116</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
+        <v>0</v>
       </c>
       <c r="K79" s="3">
         <v>8</v>
@@ -8723,13 +9567,22 @@
         <v>120</v>
       </c>
       <c r="E80" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="F80" t="s">
-        <v>375</v>
+        <v>599</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
       </c>
       <c r="K80" s="3">
         <v>9</v>
@@ -8761,22 +9614,31 @@
         <v>266</v>
       </c>
       <c r="B81" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C81" t="s">
         <v>121</v>
       </c>
       <c r="D81" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="E81" t="s">
-        <v>515</v>
+        <v>484</v>
       </c>
       <c r="F81" t="s">
-        <v>387</v>
+        <v>152</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
       </c>
       <c r="I81" t="b">
         <v>1</v>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>1</v>
@@ -8811,22 +9673,31 @@
         <v>266</v>
       </c>
       <c r="B82" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C82" t="s">
         <v>122</v>
       </c>
       <c r="D82" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="E82" t="s">
-        <v>516</v>
+        <v>485</v>
       </c>
       <c r="F82" t="s">
-        <v>387</v>
+        <v>152</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
       </c>
       <c r="I82" t="b">
         <v>1</v>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
       </c>
       <c r="K82" s="3">
         <v>2</v>
@@ -8861,22 +9732,31 @@
         <v>266</v>
       </c>
       <c r="B83" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C83" t="s">
         <v>123</v>
       </c>
       <c r="D83" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E83" t="s">
-        <v>517</v>
+        <v>486</v>
       </c>
       <c r="F83" t="s">
-        <v>387</v>
+        <v>152</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
       </c>
       <c r="I83" t="b">
         <v>1</v>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>4</v>
@@ -8911,7 +9791,7 @@
         <v>266</v>
       </c>
       <c r="B84" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C84" t="s">
         <v>124</v>
@@ -8920,13 +9800,22 @@
         <v>124</v>
       </c>
       <c r="E84" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="F84" t="s">
-        <v>387</v>
+        <v>152</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
       </c>
       <c r="I84" t="b">
         <v>1</v>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
       </c>
       <c r="K84" s="3">
         <v>7</v>
@@ -8970,13 +9859,22 @@
         <v>191</v>
       </c>
       <c r="E85" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="F85" t="s">
         <v>114</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
+        <v>0</v>
       </c>
       <c r="K85" s="3">
         <v>0</v>
@@ -9015,13 +9913,22 @@
         <v>199</v>
       </c>
       <c r="E86" t="s">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="F86" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" t="b">
+        <v>0</v>
       </c>
       <c r="K86" s="3">
         <v>0</v>
@@ -9034,16 +9941,16 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
@@ -9060,13 +9967,22 @@
         <v>195</v>
       </c>
       <c r="E87" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="F87" t="s">
         <v>196</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" t="b">
+        <v>0</v>
       </c>
       <c r="K87" s="3">
         <v>0</v>
@@ -9105,13 +10021,22 @@
         <v>199</v>
       </c>
       <c r="E88" t="s">
-        <v>519</v>
+        <v>488</v>
       </c>
       <c r="F88" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" t="b">
+        <v>0</v>
       </c>
       <c r="K88" s="3">
         <v>0</v>
@@ -9124,16 +10049,16 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
@@ -9144,19 +10069,28 @@
         <v>200</v>
       </c>
       <c r="C89" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D89" t="s">
         <v>203</v>
       </c>
       <c r="E89" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="F89" t="s">
         <v>165</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
+        <v>0</v>
       </c>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -9164,16 +10098,16 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
@@ -9184,19 +10118,28 @@
         <v>200</v>
       </c>
       <c r="C90" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D90" t="s">
         <v>203</v>
       </c>
       <c r="E90" t="s">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="F90" t="s">
         <v>165</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" t="b">
+        <v>0</v>
       </c>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
@@ -9204,16 +10147,16 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
@@ -9224,19 +10167,28 @@
         <v>200</v>
       </c>
       <c r="C91" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D91" t="s">
         <v>203</v>
       </c>
       <c r="E91" t="s">
-        <v>522</v>
+        <v>491</v>
       </c>
       <c r="F91" t="s">
         <v>165</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" t="b">
+        <v>0</v>
       </c>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
@@ -9244,16 +10196,16 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
@@ -9264,19 +10216,28 @@
         <v>200</v>
       </c>
       <c r="C92" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D92" t="s">
         <v>203</v>
       </c>
       <c r="E92" t="s">
-        <v>523</v>
+        <v>492</v>
       </c>
       <c r="F92" t="s">
         <v>165</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
       </c>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
@@ -9284,16 +10245,16 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
@@ -9304,19 +10265,28 @@
         <v>200</v>
       </c>
       <c r="C93" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D93" t="s">
         <v>203</v>
       </c>
       <c r="E93" t="s">
-        <v>524</v>
+        <v>493</v>
       </c>
       <c r="F93" t="s">
         <v>165</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
       </c>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -9324,16 +10294,16 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
@@ -9344,19 +10314,28 @@
         <v>200</v>
       </c>
       <c r="C94" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D94" t="s">
         <v>203</v>
       </c>
       <c r="E94" t="s">
-        <v>525</v>
+        <v>494</v>
       </c>
       <c r="F94" t="s">
         <v>165</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" t="b">
+        <v>0</v>
       </c>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
@@ -9364,16 +10343,16 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
@@ -9384,19 +10363,28 @@
         <v>201</v>
       </c>
       <c r="C95" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D95" t="s">
         <v>204</v>
       </c>
       <c r="E95" t="s">
-        <v>526</v>
+        <v>495</v>
       </c>
       <c r="F95" t="s">
         <v>170</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" t="b">
+        <v>0</v>
       </c>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -9404,16 +10392,16 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
@@ -9424,19 +10412,28 @@
         <v>201</v>
       </c>
       <c r="C96" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D96" t="s">
         <v>204</v>
       </c>
       <c r="E96" t="s">
-        <v>527</v>
+        <v>496</v>
       </c>
       <c r="F96" t="s">
         <v>170</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" t="b">
+        <v>0</v>
       </c>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
@@ -9444,16 +10441,16 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
@@ -9464,19 +10461,28 @@
         <v>202</v>
       </c>
       <c r="C97" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D97" t="s">
         <v>205</v>
       </c>
       <c r="E97" t="s">
-        <v>528</v>
+        <v>497</v>
       </c>
       <c r="F97" t="s">
         <v>170</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" t="b">
+        <v>0</v>
       </c>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
@@ -9484,16 +10490,16 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
@@ -9504,19 +10510,28 @@
         <v>202</v>
       </c>
       <c r="C98" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D98" t="s">
         <v>205</v>
       </c>
       <c r="E98" t="s">
-        <v>529</v>
+        <v>498</v>
       </c>
       <c r="F98" t="s">
         <v>170</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" t="b">
+        <v>0</v>
       </c>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
@@ -9524,16 +10539,16 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
@@ -9550,10 +10565,19 @@
         <v>164</v>
       </c>
       <c r="E99" t="s">
-        <v>530</v>
+        <v>499</v>
       </c>
       <c r="F99" t="s">
         <v>165</v>
+      </c>
+      <c r="G99" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="b">
+        <v>0</v>
       </c>
       <c r="J99" t="b">
         <v>1</v>
@@ -9600,10 +10624,19 @@
         <v>167</v>
       </c>
       <c r="E100" t="s">
-        <v>532</v>
+        <v>501</v>
       </c>
       <c r="F100" t="s">
-        <v>454</v>
+        <v>423</v>
+      </c>
+      <c r="G100" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="b">
+        <v>0</v>
       </c>
       <c r="J100" t="b">
         <v>1</v>
@@ -9639,10 +10672,19 @@
         <v>169</v>
       </c>
       <c r="E101" t="s">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="F101" t="s">
         <v>170</v>
+      </c>
+      <c r="G101" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="b">
+        <v>0</v>
       </c>
       <c r="J101" t="b">
         <v>1</v>
@@ -9689,10 +10731,19 @@
         <v>172</v>
       </c>
       <c r="E102" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
       <c r="F102" t="s">
-        <v>454</v>
+        <v>423</v>
+      </c>
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="b">
+        <v>0</v>
       </c>
       <c r="J102" t="b">
         <v>1</v>
@@ -9729,10 +10780,19 @@
         <v>174</v>
       </c>
       <c r="E103" t="s">
-        <v>533</v>
+        <v>502</v>
       </c>
       <c r="F103" t="s">
-        <v>454</v>
+        <v>423</v>
+      </c>
+      <c r="G103" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="b">
+        <v>0</v>
       </c>
       <c r="J103" t="b">
         <v>1</v>
@@ -9769,10 +10829,19 @@
         <v>176</v>
       </c>
       <c r="E104" t="s">
-        <v>534</v>
+        <v>503</v>
       </c>
       <c r="F104" t="s">
-        <v>454</v>
+        <v>423</v>
+      </c>
+      <c r="G104" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" t="b">
+        <v>0</v>
       </c>
       <c r="J104" t="b">
         <v>1</v>
@@ -9809,10 +10878,19 @@
         <v>178</v>
       </c>
       <c r="E105" t="s">
-        <v>611</v>
+        <v>578</v>
       </c>
       <c r="F105" t="s">
-        <v>454</v>
+        <v>423</v>
+      </c>
+      <c r="G105" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="b">
+        <v>0</v>
       </c>
       <c r="J105" t="b">
         <v>1</v>
@@ -9849,10 +10927,19 @@
         <v>180</v>
       </c>
       <c r="E106" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="F106" t="s">
-        <v>454</v>
+        <v>423</v>
+      </c>
+      <c r="G106" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="b">
+        <v>0</v>
       </c>
       <c r="J106" t="b">
         <v>1</v>
@@ -9889,10 +10976,19 @@
         <v>182</v>
       </c>
       <c r="E107" t="s">
-        <v>537</v>
+        <v>506</v>
       </c>
       <c r="F107" t="s">
-        <v>454</v>
+        <v>423</v>
+      </c>
+      <c r="G107" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="b">
+        <v>0</v>
       </c>
       <c r="J107" t="b">
         <v>1</v>
@@ -9929,10 +11025,19 @@
         <v>184</v>
       </c>
       <c r="E108" t="s">
-        <v>538</v>
+        <v>507</v>
       </c>
       <c r="F108" t="s">
-        <v>454</v>
+        <v>423</v>
+      </c>
+      <c r="G108" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="b">
+        <v>0</v>
       </c>
       <c r="J108" t="b">
         <v>1</v>
@@ -9969,10 +11074,19 @@
         <v>186</v>
       </c>
       <c r="E109" t="s">
-        <v>612</v>
+        <v>579</v>
       </c>
       <c r="F109" t="s">
-        <v>454</v>
+        <v>423</v>
+      </c>
+      <c r="G109" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="b">
+        <v>0</v>
       </c>
       <c r="J109" t="b">
         <v>1</v>
@@ -10009,10 +11123,19 @@
         <v>188</v>
       </c>
       <c r="E110" t="s">
-        <v>613</v>
+        <v>580</v>
       </c>
       <c r="F110" t="s">
-        <v>454</v>
+        <v>423</v>
+      </c>
+      <c r="G110" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="b">
+        <v>0</v>
       </c>
       <c r="J110" t="b">
         <v>1</v>
@@ -10049,10 +11172,19 @@
         <v>189</v>
       </c>
       <c r="E111" t="s">
-        <v>539</v>
+        <v>508</v>
       </c>
       <c r="F111" t="s">
         <v>114</v>
+      </c>
+      <c r="G111" t="b">
+        <v>0</v>
+      </c>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="b">
+        <v>0</v>
       </c>
       <c r="J111" t="b">
         <v>1</v>
@@ -10099,13 +11231,22 @@
         <v>155</v>
       </c>
       <c r="E112" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="F112" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
+      </c>
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" t="b">
+        <v>0</v>
       </c>
       <c r="K112" s="3">
         <v>6</v>
@@ -10144,13 +11285,22 @@
         <v>158</v>
       </c>
       <c r="E113" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="F113" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
+      </c>
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113" t="b">
+        <v>0</v>
       </c>
       <c r="K113" s="3">
         <v>4</v>
@@ -10189,13 +11339,22 @@
         <v>160</v>
       </c>
       <c r="E114" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
       <c r="F114" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
+      </c>
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" t="b">
+        <v>0</v>
       </c>
       <c r="K114" s="3">
         <v>2</v>
@@ -10234,13 +11393,22 @@
         <v>162</v>
       </c>
       <c r="E115" t="s">
-        <v>543</v>
+        <v>512</v>
       </c>
       <c r="F115" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
+      </c>
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" t="b">
+        <v>0</v>
       </c>
       <c r="K115" s="3">
         <v>5</v>
@@ -10273,19 +11441,28 @@
         <v>206</v>
       </c>
       <c r="C116" t="s">
-        <v>564</v>
+        <v>533</v>
       </c>
       <c r="D116" t="s">
-        <v>564</v>
+        <v>533</v>
       </c>
       <c r="E116" t="s">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="F116" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
+      </c>
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" t="b">
+        <v>0</v>
       </c>
       <c r="K116" s="3">
         <v>9</v>
@@ -10323,19 +11500,28 @@
         <v>91</v>
       </c>
       <c r="C117" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="D117" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="E117" t="s">
-        <v>560</v>
+        <v>529</v>
       </c>
       <c r="F117" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
+      </c>
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" t="b">
+        <v>0</v>
       </c>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
@@ -10363,19 +11549,28 @@
         <v>94</v>
       </c>
       <c r="C118" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="D118" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="E118" t="s">
-        <v>559</v>
+        <v>528</v>
       </c>
       <c r="F118" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
+      </c>
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" t="b">
+        <v>0</v>
       </c>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
@@ -10403,19 +11598,28 @@
         <v>96</v>
       </c>
       <c r="C119" t="s">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="D119" t="s">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="E119" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="F119" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
+      </c>
+      <c r="H119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" t="b">
+        <v>0</v>
       </c>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
@@ -10443,19 +11647,28 @@
         <v>95</v>
       </c>
       <c r="C120" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="D120" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="E120" t="s">
-        <v>557</v>
+        <v>526</v>
       </c>
       <c r="F120" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
+      </c>
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" t="b">
+        <v>0</v>
       </c>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
@@ -10483,19 +11696,28 @@
         <v>207</v>
       </c>
       <c r="C121" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="D121" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="E121" t="s">
-        <v>556</v>
+        <v>525</v>
       </c>
       <c r="F121" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
+      </c>
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" t="b">
+        <v>0</v>
       </c>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
@@ -10523,19 +11745,28 @@
         <v>208</v>
       </c>
       <c r="C122" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="D122" t="s">
-        <v>433</v>
+        <v>386</v>
       </c>
       <c r="E122" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="F122" t="s">
-        <v>372</v>
+        <v>141</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
+      </c>
+      <c r="H122" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" t="b">
+        <v>0</v>
       </c>
       <c r="P122" t="b">
         <v>1</v>
@@ -10561,19 +11792,28 @@
         <v>209</v>
       </c>
       <c r="C123" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="D123" t="s">
-        <v>434</v>
+        <v>387</v>
       </c>
       <c r="E123" t="s">
-        <v>545</v>
+        <v>514</v>
       </c>
       <c r="F123" t="s">
-        <v>372</v>
+        <v>141</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
+      </c>
+      <c r="H123" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" t="b">
+        <v>0</v>
       </c>
       <c r="P123" t="b">
         <v>1</v>
@@ -10599,19 +11839,28 @@
         <v>210</v>
       </c>
       <c r="C124" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="D124" t="s">
-        <v>435</v>
+        <v>388</v>
       </c>
       <c r="E124" t="s">
-        <v>546</v>
+        <v>515</v>
       </c>
       <c r="F124" t="s">
-        <v>372</v>
+        <v>141</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
+      </c>
+      <c r="H124" t="b">
+        <v>0</v>
+      </c>
+      <c r="I124" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" t="b">
+        <v>0</v>
       </c>
       <c r="P124" t="b">
         <v>1</v>
@@ -10637,19 +11886,28 @@
         <v>211</v>
       </c>
       <c r="C125" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="D125" t="s">
-        <v>436</v>
+        <v>389</v>
       </c>
       <c r="E125" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="F125" t="s">
-        <v>372</v>
+        <v>141</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
+      </c>
+      <c r="H125" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" t="b">
+        <v>0</v>
       </c>
       <c r="P125" t="b">
         <v>1</v>
@@ -10675,19 +11933,28 @@
         <v>212</v>
       </c>
       <c r="C126" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="D126" t="s">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="E126" t="s">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="F126" t="s">
-        <v>372</v>
+        <v>141</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
+      </c>
+      <c r="H126" t="b">
+        <v>0</v>
+      </c>
+      <c r="I126" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" t="b">
+        <v>0</v>
       </c>
       <c r="P126" t="b">
         <v>1</v>
@@ -10713,19 +11980,28 @@
         <v>213</v>
       </c>
       <c r="C127" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="D127" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="E127" t="s">
-        <v>549</v>
+        <v>518</v>
       </c>
       <c r="F127" t="s">
-        <v>372</v>
+        <v>141</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
+      </c>
+      <c r="H127" t="b">
+        <v>0</v>
+      </c>
+      <c r="I127" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" t="b">
+        <v>0</v>
       </c>
       <c r="P127" t="b">
         <v>1</v>
@@ -10751,19 +12027,28 @@
         <v>214</v>
       </c>
       <c r="C128" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="D128" t="s">
-        <v>435</v>
+        <v>392</v>
       </c>
       <c r="E128" t="s">
-        <v>550</v>
+        <v>519</v>
       </c>
       <c r="F128" t="s">
-        <v>372</v>
+        <v>141</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
+      </c>
+      <c r="H128" t="b">
+        <v>0</v>
+      </c>
+      <c r="I128" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" t="b">
+        <v>0</v>
       </c>
       <c r="P128" t="b">
         <v>1</v>
@@ -10789,19 +12074,28 @@
         <v>215</v>
       </c>
       <c r="C129" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="D129" t="s">
-        <v>436</v>
+        <v>393</v>
       </c>
       <c r="E129" t="s">
-        <v>551</v>
+        <v>520</v>
       </c>
       <c r="F129" t="s">
-        <v>372</v>
+        <v>141</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
+      </c>
+      <c r="H129" t="b">
+        <v>0</v>
+      </c>
+      <c r="I129" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" t="b">
+        <v>0</v>
       </c>
       <c r="P129" t="b">
         <v>1</v>
@@ -10827,19 +12121,28 @@
         <v>216</v>
       </c>
       <c r="C130" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="D130" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="E130" t="s">
-        <v>552</v>
+        <v>521</v>
       </c>
       <c r="F130" t="s">
-        <v>372</v>
+        <v>141</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
+      </c>
+      <c r="H130" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" t="b">
+        <v>0</v>
       </c>
       <c r="P130" t="b">
         <v>1</v>
@@ -10865,19 +12168,28 @@
         <v>217</v>
       </c>
       <c r="C131" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="D131" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="E131" t="s">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="F131" t="s">
-        <v>372</v>
+        <v>141</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
+      </c>
+      <c r="H131" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" t="b">
+        <v>0</v>
       </c>
       <c r="P131" t="b">
         <v>1</v>
@@ -10903,19 +12215,28 @@
         <v>218</v>
       </c>
       <c r="C132" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="D132" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="E132" t="s">
-        <v>554</v>
+        <v>523</v>
       </c>
       <c r="F132" t="s">
-        <v>372</v>
+        <v>141</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
+      </c>
+      <c r="H132" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" t="b">
+        <v>0</v>
       </c>
       <c r="P132" t="b">
         <v>1</v>
@@ -10941,19 +12262,28 @@
         <v>219</v>
       </c>
       <c r="C133" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="D133" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="E133" t="s">
-        <v>555</v>
+        <v>524</v>
       </c>
       <c r="F133" t="s">
-        <v>372</v>
+        <v>141</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
+      </c>
+      <c r="H133" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" t="b">
+        <v>0</v>
       </c>
       <c r="P133" t="b">
         <v>1</v>
@@ -10979,19 +12309,28 @@
         <v>220</v>
       </c>
       <c r="C134" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="D134" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
       <c r="E134" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="F134" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
+      </c>
+      <c r="H134" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" t="b">
+        <v>0</v>
       </c>
       <c r="P134" t="b">
         <v>1</v>
@@ -11017,19 +12356,28 @@
         <v>221</v>
       </c>
       <c r="C135" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="D135" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
       <c r="E135" t="s">
-        <v>545</v>
+        <v>514</v>
       </c>
       <c r="F135" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
+      </c>
+      <c r="H135" t="b">
+        <v>0</v>
+      </c>
+      <c r="I135" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" t="b">
+        <v>0</v>
       </c>
       <c r="P135" t="b">
         <v>1</v>
@@ -11055,19 +12403,28 @@
         <v>222</v>
       </c>
       <c r="C136" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="D136" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="E136" t="s">
-        <v>546</v>
+        <v>515</v>
       </c>
       <c r="F136" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
+      </c>
+      <c r="H136" t="b">
+        <v>0</v>
+      </c>
+      <c r="I136" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" t="b">
+        <v>0</v>
       </c>
       <c r="P136" t="b">
         <v>1</v>
@@ -11093,19 +12450,28 @@
         <v>223</v>
       </c>
       <c r="C137" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="D137" t="s">
-        <v>440</v>
+        <v>401</v>
       </c>
       <c r="E137" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="F137" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
+      </c>
+      <c r="H137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I137" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" t="b">
+        <v>0</v>
       </c>
       <c r="P137" t="b">
         <v>1</v>
@@ -11131,19 +12497,28 @@
         <v>224</v>
       </c>
       <c r="C138" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="D138" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="E138" t="s">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="F138" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
+      </c>
+      <c r="H138" t="b">
+        <v>0</v>
+      </c>
+      <c r="I138" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138" t="b">
+        <v>0</v>
       </c>
       <c r="P138" t="b">
         <v>1</v>
@@ -11169,19 +12544,28 @@
         <v>225</v>
       </c>
       <c r="C139" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="D139" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="E139" t="s">
-        <v>549</v>
+        <v>518</v>
       </c>
       <c r="F139" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
+      </c>
+      <c r="H139" t="b">
+        <v>0</v>
+      </c>
+      <c r="I139" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" t="b">
+        <v>0</v>
       </c>
       <c r="P139" t="b">
         <v>1</v>
@@ -11207,19 +12591,28 @@
         <v>226</v>
       </c>
       <c r="C140" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="D140" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="E140" t="s">
-        <v>550</v>
+        <v>519</v>
       </c>
       <c r="F140" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
+      </c>
+      <c r="H140" t="b">
+        <v>0</v>
+      </c>
+      <c r="I140" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" t="b">
+        <v>0</v>
       </c>
       <c r="P140" t="b">
         <v>1</v>
@@ -11245,19 +12638,28 @@
         <v>227</v>
       </c>
       <c r="C141" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="D141" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="E141" t="s">
-        <v>551</v>
+        <v>520</v>
       </c>
       <c r="F141" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
+      </c>
+      <c r="H141" t="b">
+        <v>0</v>
+      </c>
+      <c r="I141" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" t="b">
+        <v>0</v>
       </c>
       <c r="P141" t="b">
         <v>1</v>
@@ -11283,19 +12685,28 @@
         <v>228</v>
       </c>
       <c r="C142" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="D142" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="E142" t="s">
-        <v>552</v>
+        <v>521</v>
       </c>
       <c r="F142" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
+      </c>
+      <c r="H142" t="b">
+        <v>0</v>
+      </c>
+      <c r="I142" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" t="b">
+        <v>0</v>
       </c>
       <c r="P142" t="b">
         <v>1</v>
@@ -11321,19 +12732,28 @@
         <v>229</v>
       </c>
       <c r="C143" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="D143" t="s">
-        <v>438</v>
+        <v>407</v>
       </c>
       <c r="E143" t="s">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="F143" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
+      </c>
+      <c r="H143" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" t="b">
+        <v>0</v>
       </c>
       <c r="P143" t="b">
         <v>1</v>
@@ -11359,19 +12779,28 @@
         <v>230</v>
       </c>
       <c r="C144" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="D144" t="s">
-        <v>439</v>
+        <v>408</v>
       </c>
       <c r="E144" t="s">
-        <v>554</v>
+        <v>523</v>
       </c>
       <c r="F144" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
+      </c>
+      <c r="H144" t="b">
+        <v>0</v>
+      </c>
+      <c r="I144" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" t="b">
+        <v>0</v>
       </c>
       <c r="P144" t="b">
         <v>1</v>
@@ -11397,19 +12826,28 @@
         <v>231</v>
       </c>
       <c r="C145" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="D145" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="E145" t="s">
-        <v>555</v>
+        <v>524</v>
       </c>
       <c r="F145" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
+      </c>
+      <c r="H145" t="b">
+        <v>0</v>
+      </c>
+      <c r="I145" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" t="b">
+        <v>0</v>
       </c>
       <c r="P145" t="b">
         <v>1</v>
@@ -11435,19 +12873,28 @@
         <v>97</v>
       </c>
       <c r="C146" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="D146" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="E146" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="F146" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
+      </c>
+      <c r="H146" t="b">
+        <v>0</v>
+      </c>
+      <c r="I146" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" t="b">
+        <v>0</v>
       </c>
       <c r="P146" t="b">
         <v>1</v>
@@ -11473,19 +12920,28 @@
         <v>232</v>
       </c>
       <c r="C147" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="D147" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="E147" t="s">
-        <v>563</v>
+        <v>532</v>
       </c>
       <c r="F147" t="s">
-        <v>387</v>
+        <v>152</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
+      </c>
+      <c r="H147" t="b">
+        <v>0</v>
+      </c>
+      <c r="I147" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" t="b">
+        <v>0</v>
       </c>
       <c r="P147" t="b">
         <v>1</v>
@@ -11511,19 +12967,28 @@
         <v>233</v>
       </c>
       <c r="C148" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="D148" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="E148" t="s">
-        <v>565</v>
+        <v>534</v>
       </c>
       <c r="F148" t="s">
-        <v>387</v>
+        <v>152</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
+      </c>
+      <c r="H148" t="b">
+        <v>0</v>
+      </c>
+      <c r="I148" t="b">
+        <v>0</v>
+      </c>
+      <c r="J148" t="b">
+        <v>0</v>
       </c>
       <c r="P148" t="b">
         <v>1</v>
@@ -11549,19 +13014,28 @@
         <v>234</v>
       </c>
       <c r="C149" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="D149" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="E149" t="s">
-        <v>566</v>
+        <v>535</v>
       </c>
       <c r="F149" t="s">
-        <v>387</v>
+        <v>152</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
+      </c>
+      <c r="H149" t="b">
+        <v>0</v>
+      </c>
+      <c r="I149" t="b">
+        <v>0</v>
+      </c>
+      <c r="J149" t="b">
+        <v>0</v>
       </c>
       <c r="P149" t="b">
         <v>1</v>
@@ -11587,19 +13061,28 @@
         <v>235</v>
       </c>
       <c r="C150" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="D150" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="E150" t="s">
-        <v>567</v>
+        <v>536</v>
       </c>
       <c r="F150" t="s">
-        <v>387</v>
+        <v>152</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
+      </c>
+      <c r="H150" t="b">
+        <v>0</v>
+      </c>
+      <c r="I150" t="b">
+        <v>0</v>
+      </c>
+      <c r="J150" t="b">
+        <v>0</v>
       </c>
       <c r="P150" t="b">
         <v>1</v>
@@ -11625,19 +13108,28 @@
         <v>236</v>
       </c>
       <c r="C151" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="D151" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="E151" t="s">
-        <v>568</v>
+        <v>537</v>
       </c>
       <c r="F151" t="s">
-        <v>375</v>
+        <v>599</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
+      </c>
+      <c r="H151" t="b">
+        <v>0</v>
+      </c>
+      <c r="I151" t="b">
+        <v>0</v>
+      </c>
+      <c r="J151" t="b">
+        <v>0</v>
       </c>
       <c r="P151" t="b">
         <v>1</v>
@@ -11663,19 +13155,28 @@
         <v>237</v>
       </c>
       <c r="C152" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="D152" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="E152" t="s">
-        <v>569</v>
+        <v>538</v>
       </c>
       <c r="F152" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
+      </c>
+      <c r="H152" t="b">
+        <v>0</v>
+      </c>
+      <c r="I152" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152" t="b">
+        <v>0</v>
       </c>
       <c r="P152" t="b">
         <v>1</v>
@@ -11701,19 +13202,28 @@
         <v>238</v>
       </c>
       <c r="C153" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="D153" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="E153" t="s">
-        <v>570</v>
+        <v>539</v>
       </c>
       <c r="F153" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
+      </c>
+      <c r="H153" t="b">
+        <v>0</v>
+      </c>
+      <c r="I153" t="b">
+        <v>0</v>
+      </c>
+      <c r="J153" t="b">
+        <v>0</v>
       </c>
       <c r="K153">
         <v>6</v>
@@ -11752,8 +13262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11782,66 +13292,72 @@
         <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>571</v>
+        <v>540</v>
       </c>
       <c r="F1" t="s">
-        <v>574</v>
+        <v>543</v>
       </c>
       <c r="G1" t="s">
-        <v>572</v>
+        <v>541</v>
       </c>
       <c r="H1" t="s">
-        <v>573</v>
+        <v>542</v>
       </c>
       <c r="I1" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="J1" t="s">
-        <v>578</v>
+        <v>547</v>
       </c>
       <c r="K1" t="s">
-        <v>577</v>
+        <v>546</v>
       </c>
       <c r="L1" t="s">
-        <v>579</v>
+        <v>548</v>
       </c>
       <c r="M1" t="s">
-        <v>575</v>
+        <v>544</v>
       </c>
       <c r="N1" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
       <c r="O1" t="s">
-        <v>590</v>
+        <v>559</v>
       </c>
       <c r="P1" t="s">
-        <v>591</v>
+        <v>560</v>
       </c>
       <c r="Q1" t="s">
-        <v>592</v>
+        <v>561</v>
       </c>
       <c r="R1" t="s">
-        <v>593</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
         <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>486</v>
+        <v>455</v>
       </c>
       <c r="D2" t="s">
-        <v>379</v>
+        <v>606</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -11856,13 +13372,13 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -11870,22 +13386,28 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
         <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="D3" t="s">
-        <v>379</v>
+        <v>606</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
       </c>
       <c r="I3">
         <v>4</v>
@@ -11900,13 +13422,13 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -11914,22 +13436,28 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="D4" t="s">
-        <v>379</v>
+        <v>606</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
       </c>
       <c r="I4">
         <v>7</v>
@@ -11944,13 +13472,13 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -11958,22 +13486,28 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B5" t="s">
         <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
       <c r="D5" t="s">
-        <v>379</v>
+        <v>606</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
       </c>
       <c r="I5">
         <v>10</v>
@@ -11988,13 +13522,13 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -12002,22 +13536,28 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B6" t="s">
         <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>486</v>
+        <v>455</v>
       </c>
       <c r="D6" t="s">
-        <v>380</v>
+        <v>607</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -12032,13 +13572,13 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -12046,22 +13586,28 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s">
         <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="D7" t="s">
-        <v>380</v>
+        <v>607</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
       </c>
       <c r="I7">
         <v>4</v>
@@ -12076,13 +13622,13 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -12090,22 +13636,28 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B8" t="s">
         <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="D8" t="s">
-        <v>380</v>
+        <v>607</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
       </c>
       <c r="I8">
         <v>7</v>
@@ -12120,13 +13672,13 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -12134,22 +13686,28 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B9" t="s">
         <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
       <c r="D9" t="s">
-        <v>380</v>
+        <v>607</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
       </c>
       <c r="I9">
         <v>10</v>
@@ -12164,13 +13722,13 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -12178,22 +13736,28 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B10" t="s">
         <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>487</v>
+        <v>456</v>
       </c>
       <c r="D10" t="s">
-        <v>379</v>
+        <v>606</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
       </c>
       <c r="I10">
         <v>14</v>
@@ -12208,13 +13772,13 @@
         <v>1</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>1</v>
@@ -12222,22 +13786,28 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B11" t="s">
         <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="D11" t="s">
-        <v>380</v>
+        <v>607</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
       </c>
       <c r="I11">
         <v>14</v>
@@ -12252,13 +13822,13 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>1</v>
@@ -12266,22 +13836,28 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B12" t="s">
         <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>614</v>
+        <v>581</v>
       </c>
       <c r="D12" t="s">
-        <v>381</v>
+        <v>136</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -12296,13 +13872,13 @@
         <v>1</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>1</v>
@@ -12310,22 +13886,28 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B13" t="s">
         <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="D13" t="s">
-        <v>381</v>
+        <v>136</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -12340,13 +13922,13 @@
         <v>1</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -12354,22 +13936,28 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B14" t="s">
         <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>616</v>
+        <v>583</v>
       </c>
       <c r="D14" t="s">
-        <v>381</v>
+        <v>136</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
       </c>
       <c r="I14">
         <v>7</v>
@@ -12384,13 +13972,13 @@
         <v>1</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <v>1</v>
@@ -12398,22 +13986,28 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B15" t="s">
         <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>617</v>
+        <v>584</v>
       </c>
       <c r="D15" t="s">
-        <v>381</v>
+        <v>136</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
       </c>
       <c r="I15">
         <v>10</v>
@@ -12428,13 +14022,13 @@
         <v>1</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <v>1</v>
@@ -12442,22 +14036,28 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B16" t="s">
         <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>486</v>
+        <v>455</v>
       </c>
       <c r="D16" t="s">
-        <v>382</v>
+        <v>141</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -12489,22 +14089,28 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B17" t="s">
         <v>142</v>
       </c>
       <c r="C17" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="D17" t="s">
-        <v>382</v>
+        <v>141</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -12536,22 +14142,28 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B18" t="s">
         <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="D18" t="s">
-        <v>382</v>
+        <v>141</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
       </c>
       <c r="I18">
         <v>7</v>
@@ -12583,22 +14195,28 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B19" t="s">
         <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
       <c r="D19" t="s">
-        <v>382</v>
+        <v>141</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
       </c>
       <c r="I19">
         <v>10</v>
@@ -12630,22 +14248,28 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B20" t="s">
         <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="D20" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
       </c>
       <c r="I20">
         <v>14</v>
@@ -12660,13 +14284,13 @@
         <v>1</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <v>1</v>
@@ -12674,22 +14298,28 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B21" t="s">
         <v>147</v>
       </c>
       <c r="C21" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="D21" t="s">
-        <v>384</v>
+        <v>148</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
       </c>
       <c r="I21">
         <v>12</v>
@@ -12704,13 +14334,13 @@
         <v>1</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>1</v>
@@ -12718,22 +14348,28 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B22" t="s">
         <v>149</v>
       </c>
       <c r="C22" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="D22" t="s">
-        <v>384</v>
+        <v>148</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
       </c>
       <c r="I22">
         <v>14</v>
@@ -12748,13 +14384,13 @@
         <v>1</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
         <v>1</v>
@@ -12762,22 +14398,28 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B23" t="s">
         <v>151</v>
       </c>
       <c r="C23" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="D23" t="s">
-        <v>385</v>
+        <v>599</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
       </c>
       <c r="I23">
         <v>14</v>
@@ -12792,13 +14434,13 @@
         <v>1</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23">
         <v>1</v>
@@ -12806,22 +14448,28 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B24" t="s">
         <v>153</v>
       </c>
       <c r="C24" t="s">
-        <v>465</v>
+        <v>434</v>
       </c>
       <c r="D24" t="s">
-        <v>386</v>
+        <v>152</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
       </c>
       <c r="I24">
         <v>14</v>
@@ -12839,36 +14487,42 @@
         <v>1</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>199</v>
       </c>
       <c r="C25" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
       <c r="D25" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -12897,17 +14551,26 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>270</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
         <v>203</v>
       </c>
       <c r="C26" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="D26" t="s">
         <v>165</v>
       </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
@@ -12938,17 +14601,26 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>270</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
         <v>204</v>
       </c>
       <c r="C27" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="D27" t="s">
         <v>170</v>
       </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
@@ -12979,16 +14651,25 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>270</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
         <v>205</v>
       </c>
       <c r="C28" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
       <c r="D28" t="s">
         <v>170</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
@@ -13026,10 +14707,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13043,28 +14724,28 @@
         <v>248</v>
       </c>
       <c r="B1" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="C1" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="D1" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="E1" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="F1" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="J1" s="3"/>
     </row>
@@ -13073,10 +14754,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="C2" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="D2">
         <v>213.9999999999998</v>
@@ -13103,10 +14784,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="C3" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="D3">
         <v>255</v>
@@ -13133,10 +14814,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="C4" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="D4">
         <v>187.99999999999991</v>
@@ -13163,10 +14844,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="C5" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="D5">
         <v>43.999999999999964</v>
@@ -13193,10 +14874,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="C6" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="D6">
         <v>22.999999999999989</v>
@@ -13223,10 +14904,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="C7" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="D7">
         <v>30.999999999999901</v>
@@ -13253,10 +14934,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="C8" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="D8">
         <v>147.99999999999997</v>
@@ -13283,10 +14964,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="C9" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="D9">
         <v>226.99999999999989</v>
@@ -13313,10 +14994,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="C10" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="D10">
         <v>139.99999999999991</v>
@@ -13343,10 +15024,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="C11" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="D11">
         <v>126.99999999999987</v>
@@ -13373,10 +15054,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="C12" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="D12" s="3">
         <v>255</v>
@@ -13403,10 +15084,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="C13" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="D13" s="3">
         <v>255</v>
@@ -13433,10 +15114,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="C14" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="D14" s="3">
         <v>218.99999999999983</v>
@@ -13463,10 +15144,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="C15" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="D15" s="3">
         <v>152</v>
@@ -13493,10 +15174,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="C16" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="D16" s="3">
         <v>157.99999999999977</v>
@@ -13523,10 +15204,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="C17" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="D17" s="3">
         <v>173.99999999999986</v>
@@ -13553,10 +15234,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="C18" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="D18" s="3">
         <v>196.99999999999994</v>
@@ -13583,10 +15264,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="C19" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="D19" s="3">
         <v>246.99999999999997</v>
@@ -13613,10 +15294,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="C20" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="D20" s="3">
         <v>195.99999999999994</v>
@@ -13643,10 +15324,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="C21" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="D21" s="3">
         <v>198.99999999999997</v>
@@ -13673,10 +15354,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="C22" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="D22">
         <v>137</v>
@@ -13703,10 +15384,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="C23" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="D23">
         <v>218</v>
@@ -13733,10 +15414,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="C24" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="D24">
         <v>139</v>
@@ -13763,10 +15444,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="C25" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="D25">
         <v>27</v>
@@ -13793,10 +15474,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="C26" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="D26">
         <v>7</v>
@@ -13823,10 +15504,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="C27" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="D27">
         <v>13</v>
@@ -13853,10 +15534,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="C28" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="D28">
         <v>125</v>
@@ -13883,10 +15564,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="C29" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="D29">
         <v>213</v>
@@ -13913,10 +15594,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="C30" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="D30">
         <v>100</v>
@@ -13943,10 +15624,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="C31" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="D31">
         <v>91</v>
@@ -13967,6 +15648,36 @@
         <v>91</v>
       </c>
       <c r="J31" s="33"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>597</v>
+      </c>
+      <c r="C32" t="s">
+        <v>384</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>170</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14184,18 +15895,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14218,26 +15929,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24F429AA-8564-4E9A-81C4-E2167E53561A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c8ed7201-aa74-4219-b068-ce108ea8c5d8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="75aa8e05-1f40-4a55-97cf-096775f63a7d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{985D8399-A071-4822-87D9-C2DF6320BB4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24F429AA-8564-4E9A-81C4-E2167E53561A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c8ed7201-aa74-4219-b068-ce108ea8c5d8"/>
-    <ds:schemaRef ds:uri="75aa8e05-1f40-4a55-97cf-096775f63a7d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Info/Info.xlsx
+++ b/Info/Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="7560" tabRatio="713" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="7560" tabRatio="713" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="setup" sheetId="9" r:id="rId1"/>
@@ -1826,9 +1826,6 @@
     <t>Heating&lt;br&gt;Control</t>
   </si>
   <si>
-    <t>Conductance&lt;br&gt;(μS/cm@25°C)</t>
-  </si>
-  <si>
     <t>Pressure (mbar)&lt;br&gt;Enclosure Tilt (°)</t>
   </si>
   <si>
@@ -1875,6 +1872,9 @@
   </si>
   <si>
     <t>EVENT</t>
+  </si>
+  <si>
+    <t>Conductance&lt;br&gt;(μS/cm @25°C)</t>
   </si>
 </sst>
 </file>
@@ -2156,6 +2156,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7E0D"/>
       <color rgb="FF5B5B5B"/>
       <color rgb="FF643C34"/>
       <color rgb="FFD55BAF"/>
@@ -2165,7 +2166,6 @@
       <color rgb="FF1B631D"/>
       <color rgb="FFC7C7C7"/>
       <color rgb="FFC49C94"/>
-      <color rgb="FFF7B6D2"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2886,8 +2886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2931,7 +2931,7 @@
         <v>242</v>
       </c>
       <c r="J1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2945,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E2" t="s">
         <v>243</v>
@@ -2977,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E3" t="s">
         <v>243</v>
@@ -3009,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E4" t="s">
         <v>243</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I6">
         <v>10</v>
@@ -3175,7 +3175,7 @@
         <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -3233,13 +3233,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E11" t="s">
         <v>150</v>
       </c>
       <c r="F11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G11">
         <v>-50</v>
@@ -3303,7 +3303,7 @@
         <v>118</v>
       </c>
       <c r="F13" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>245</v>
       </c>
       <c r="F16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -3434,7 +3434,7 @@
         <v>246</v>
       </c>
       <c r="F17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3460,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E18" t="s">
         <v>152</v>
@@ -3492,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E19" t="s">
         <v>243</v>
@@ -3524,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E20" t="s">
         <v>243</v>
@@ -3556,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E21" t="s">
         <v>243</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I23">
         <v>10</v>
@@ -3722,7 +3722,7 @@
         <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3780,13 +3780,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E28" t="s">
         <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G28">
         <v>-50</v>
@@ -3850,7 +3850,7 @@
         <v>118</v>
       </c>
       <c r="F30" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>245</v>
       </c>
       <c r="F33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3978,7 +3978,7 @@
         <v>246</v>
       </c>
       <c r="F34" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E35" t="s">
         <v>152</v>
@@ -4036,7 +4036,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E36" t="s">
         <v>243</v>
@@ -4068,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E37" t="s">
         <v>243</v>
@@ -4100,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E38" t="s">
         <v>243</v>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I40">
         <v>10</v>
@@ -4266,7 +4266,7 @@
         <v>92</v>
       </c>
       <c r="F43" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4324,13 +4324,13 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E45" t="s">
         <v>150</v>
       </c>
       <c r="F45" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G45">
         <v>-50</v>
@@ -4394,7 +4394,7 @@
         <v>118</v>
       </c>
       <c r="F47" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4490,7 +4490,7 @@
         <v>245</v>
       </c>
       <c r="F50" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         <v>246</v>
       </c>
       <c r="F51" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E52" t="s">
         <v>152</v>
@@ -4580,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E53" t="s">
         <v>243</v>
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I55">
         <v>10</v>
@@ -4746,7 +4746,7 @@
         <v>92</v>
       </c>
       <c r="F58" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -4804,13 +4804,13 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E60" t="s">
         <v>150</v>
       </c>
       <c r="F60" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G60">
         <v>-50</v>
@@ -4874,7 +4874,7 @@
         <v>118</v>
       </c>
       <c r="F62" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>245</v>
       </c>
       <c r="F65" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -5002,7 +5002,7 @@
         <v>246</v>
       </c>
       <c r="F66" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E67" t="s">
         <v>152</v>
@@ -5060,7 +5060,7 @@
   <dimension ref="A1:T153"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="L102" sqref="L102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5161,7 +5161,7 @@
         <v>457</v>
       </c>
       <c r="F2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -5217,7 +5217,7 @@
         <v>458</v>
       </c>
       <c r="F3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -5273,7 +5273,7 @@
         <v>459</v>
       </c>
       <c r="F4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -5329,7 +5329,7 @@
         <v>460</v>
       </c>
       <c r="F5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -5385,7 +5385,7 @@
         <v>461</v>
       </c>
       <c r="F6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -5441,7 +5441,7 @@
         <v>462</v>
       </c>
       <c r="F7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -5497,7 +5497,7 @@
         <v>463</v>
       </c>
       <c r="F8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -5553,7 +5553,7 @@
         <v>464</v>
       </c>
       <c r="F9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -5609,7 +5609,7 @@
         <v>465</v>
       </c>
       <c r="F10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -5665,7 +5665,7 @@
         <v>466</v>
       </c>
       <c r="F11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -5721,7 +5721,7 @@
         <v>467</v>
       </c>
       <c r="F12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -5777,7 +5777,7 @@
         <v>468</v>
       </c>
       <c r="F13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -5833,7 +5833,7 @@
         <v>457</v>
       </c>
       <c r="F14" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -5889,7 +5889,7 @@
         <v>458</v>
       </c>
       <c r="F15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -5945,7 +5945,7 @@
         <v>459</v>
       </c>
       <c r="F16" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -6001,7 +6001,7 @@
         <v>460</v>
       </c>
       <c r="F17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -6057,7 +6057,7 @@
         <v>461</v>
       </c>
       <c r="F18" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -6113,7 +6113,7 @@
         <v>462</v>
       </c>
       <c r="F19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -6169,7 +6169,7 @@
         <v>463</v>
       </c>
       <c r="F20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -6225,7 +6225,7 @@
         <v>464</v>
       </c>
       <c r="F21" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -6281,7 +6281,7 @@
         <v>465</v>
       </c>
       <c r="F22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -6337,7 +6337,7 @@
         <v>466</v>
       </c>
       <c r="F23" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -6393,7 +6393,7 @@
         <v>467</v>
       </c>
       <c r="F24" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -6449,7 +6449,7 @@
         <v>468</v>
       </c>
       <c r="F25" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -6505,7 +6505,7 @@
         <v>469</v>
       </c>
       <c r="F26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -6561,7 +6561,7 @@
         <v>470</v>
       </c>
       <c r="F27" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -6617,7 +6617,7 @@
         <v>471</v>
       </c>
       <c r="F28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -6673,7 +6673,7 @@
         <v>469</v>
       </c>
       <c r="F29" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -6729,7 +6729,7 @@
         <v>470</v>
       </c>
       <c r="F30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -6785,7 +6785,7 @@
         <v>471</v>
       </c>
       <c r="F31" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -9234,7 +9234,7 @@
         <v>439</v>
       </c>
       <c r="F74" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
@@ -9290,7 +9290,7 @@
         <v>481</v>
       </c>
       <c r="F75" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
@@ -9346,7 +9346,7 @@
         <v>482</v>
       </c>
       <c r="F76" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
@@ -9402,7 +9402,7 @@
         <v>483</v>
       </c>
       <c r="F77" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
@@ -9570,7 +9570,7 @@
         <v>435</v>
       </c>
       <c r="F80" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
@@ -10571,7 +10571,7 @@
         <v>165</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>5</v>
       </c>
       <c r="L99">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M99">
         <v>22</v>
@@ -10630,7 +10630,7 @@
         <v>423</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -10678,7 +10678,7 @@
         <v>170</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
@@ -10693,7 +10693,7 @@
         <v>5</v>
       </c>
       <c r="L101">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M101">
         <v>22</v>
@@ -10737,7 +10737,7 @@
         <v>423</v>
       </c>
       <c r="G102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -10786,7 +10786,7 @@
         <v>423</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>423</v>
       </c>
       <c r="G104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -10884,7 +10884,7 @@
         <v>423</v>
       </c>
       <c r="G105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -10933,7 +10933,7 @@
         <v>423</v>
       </c>
       <c r="G106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -10982,7 +10982,7 @@
         <v>423</v>
       </c>
       <c r="G107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -11031,7 +11031,7 @@
         <v>423</v>
       </c>
       <c r="G108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" t="b">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>423</v>
       </c>
       <c r="G109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
@@ -11129,7 +11129,7 @@
         <v>423</v>
       </c>
       <c r="G110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
@@ -11178,7 +11178,7 @@
         <v>114</v>
       </c>
       <c r="G111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" t="b">
         <v>0</v>
@@ -13117,7 +13117,7 @@
         <v>537</v>
       </c>
       <c r="F151" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
@@ -13262,8 +13262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13345,7 +13345,7 @@
         <v>455</v>
       </c>
       <c r="D2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -13359,11 +13359,11 @@
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>35</v>
@@ -13395,7 +13395,7 @@
         <v>454</v>
       </c>
       <c r="D3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -13409,11 +13409,11 @@
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
+      <c r="I3" s="3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3</v>
       </c>
       <c r="L3" t="s">
         <v>35</v>
@@ -13445,7 +13445,7 @@
         <v>453</v>
       </c>
       <c r="D4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -13459,11 +13459,11 @@
       <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>7</v>
-      </c>
-      <c r="J4">
-        <v>7</v>
+      <c r="I4" s="3">
+        <v>5</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5</v>
       </c>
       <c r="L4" t="s">
         <v>35</v>
@@ -13495,7 +13495,7 @@
         <v>452</v>
       </c>
       <c r="D5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -13509,11 +13509,11 @@
       <c r="H5" t="b">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
+      <c r="I5" s="3">
+        <v>6</v>
+      </c>
+      <c r="J5" s="3">
+        <v>6</v>
       </c>
       <c r="L5" t="s">
         <v>35</v>
@@ -13545,7 +13545,7 @@
         <v>455</v>
       </c>
       <c r="D6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -13559,11 +13559,11 @@
       <c r="H6" t="b">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>35</v>
@@ -13595,7 +13595,7 @@
         <v>454</v>
       </c>
       <c r="D7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -13609,11 +13609,11 @@
       <c r="H7" t="b">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
+      <c r="I7" s="3">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3</v>
       </c>
       <c r="L7" t="s">
         <v>35</v>
@@ -13645,7 +13645,7 @@
         <v>453</v>
       </c>
       <c r="D8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -13659,11 +13659,11 @@
       <c r="H8" t="b">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>7</v>
-      </c>
-      <c r="J8">
-        <v>7</v>
+      <c r="I8" s="3">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5</v>
       </c>
       <c r="L8" t="s">
         <v>35</v>
@@ -13695,7 +13695,7 @@
         <v>452</v>
       </c>
       <c r="D9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -13709,11 +13709,11 @@
       <c r="H9" t="b">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
+      <c r="I9" s="3">
+        <v>6</v>
+      </c>
+      <c r="J9" s="3">
+        <v>6</v>
       </c>
       <c r="L9" t="s">
         <v>35</v>
@@ -13745,7 +13745,7 @@
         <v>456</v>
       </c>
       <c r="D10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -13760,10 +13760,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J10">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="L10" t="s">
         <v>35</v>
@@ -13795,7 +13795,7 @@
         <v>426</v>
       </c>
       <c r="D11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -13810,10 +13810,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J11">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="L11" t="s">
         <v>35</v>
@@ -13859,11 +13859,11 @@
       <c r="H12" t="b">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>35</v>
@@ -13909,11 +13909,11 @@
       <c r="H13" t="b">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-      <c r="J13">
-        <v>4</v>
+      <c r="I13" s="3">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3</v>
       </c>
       <c r="L13" t="s">
         <v>35</v>
@@ -13959,11 +13959,11 @@
       <c r="H14" t="b">
         <v>0</v>
       </c>
-      <c r="I14">
-        <v>7</v>
-      </c>
-      <c r="J14">
-        <v>7</v>
+      <c r="I14" s="3">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5</v>
       </c>
       <c r="L14" t="s">
         <v>35</v>
@@ -14009,11 +14009,11 @@
       <c r="H15" t="b">
         <v>0</v>
       </c>
-      <c r="I15">
-        <v>10</v>
-      </c>
-      <c r="J15">
-        <v>10</v>
+      <c r="I15" s="3">
+        <v>6</v>
+      </c>
+      <c r="J15" s="3">
+        <v>6</v>
       </c>
       <c r="L15" t="s">
         <v>35</v>
@@ -14059,11 +14059,11 @@
       <c r="H16" t="b">
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>35</v>
@@ -14112,11 +14112,11 @@
       <c r="H17" t="b">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
-      <c r="J17">
-        <v>4</v>
+      <c r="I17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3</v>
       </c>
       <c r="L17" t="s">
         <v>35</v>
@@ -14165,11 +14165,11 @@
       <c r="H18" t="b">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>7</v>
-      </c>
-      <c r="J18">
-        <v>7</v>
+      <c r="I18" s="3">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5</v>
       </c>
       <c r="L18" t="s">
         <v>35</v>
@@ -14218,11 +14218,11 @@
       <c r="H19" t="b">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>10</v>
-      </c>
-      <c r="J19">
-        <v>10</v>
+      <c r="I19" s="3">
+        <v>6</v>
+      </c>
+      <c r="J19" s="3">
+        <v>6</v>
       </c>
       <c r="L19" t="s">
         <v>35</v>
@@ -14272,10 +14272,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J20">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L20" t="s">
         <v>35</v>
@@ -14322,10 +14322,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J21">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L21" t="s">
         <v>35</v>
@@ -14372,10 +14372,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L22" t="s">
         <v>35</v>
@@ -14407,7 +14407,7 @@
         <v>438</v>
       </c>
       <c r="D23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -14422,10 +14422,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J23">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="L23" t="s">
         <v>35</v>
@@ -14472,10 +14472,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J24">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L24" t="s">
         <v>35</v>
@@ -14525,10 +14525,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
         <v>40</v>
@@ -14563,7 +14563,7 @@
         <v>165</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -14575,7 +14575,10 @@
         <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>14</v>
       </c>
       <c r="K26">
         <v>21</v>
@@ -14613,7 +14616,7 @@
         <v>170</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -14626,6 +14629,9 @@
       </c>
       <c r="I27">
         <v>1</v>
+      </c>
+      <c r="J27">
+        <v>11</v>
       </c>
       <c r="K27">
         <v>21</v>
@@ -14663,7 +14669,7 @@
         <v>170</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -14675,7 +14681,10 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>14</v>
       </c>
       <c r="K28">
         <v>21</v>
@@ -14710,7 +14719,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="A17" sqref="A17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15654,7 +15663,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C32" t="s">
         <v>384</v>
@@ -15895,18 +15904,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15929,6 +15938,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{985D8399-A071-4822-87D9-C2DF6320BB4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24F429AA-8564-4E9A-81C4-E2167E53561A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -15943,12 +15960,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{985D8399-A071-4822-87D9-C2DF6320BB4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Info/Info.xlsx
+++ b/Info/Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nms198\Git\ToOLTuBES\Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A614C7FA-3463-4DC6-9D16-A343E97C10BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4A34EA-FF8A-4396-82AB-B32680E7139A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setup" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="608">
   <si>
     <t>Slim</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>BES_C1__V</t>
-  </si>
-  <si>
-    <t>twodash</t>
   </si>
   <si>
     <t>BES_C2__V</t>
@@ -1857,9 +1854,6 @@
     <t>C:/Users/nms198/Google Drive/ToOLTuBES/LAB/Data Files/NWL_audit_data/Data/</t>
   </si>
   <si>
-    <t>C:/Users/nms198/Google Drive/BEWISE_shared/Skid_Logging/Data_PreApr18/</t>
-  </si>
-  <si>
     <t>C:/Users/nms198/Google Drive/BEWISE_shared/Skid_Logging/Data_Skid_1+2/</t>
   </si>
   <si>
@@ -1876,6 +1870,9 @@
   </si>
   <si>
     <t>C:/Users/nms198/Google Drive/ToOLTuBESv2/LAB/ToOLTuBES sensor/Events/Events_info.txt</t>
+  </si>
+  <si>
+    <t>longdashdot</t>
   </si>
 </sst>
 </file>
@@ -2457,23 +2454,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" t="s">
         <v>247</v>
-      </c>
-      <c r="B1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" t="s">
         <v>251</v>
-      </c>
-      <c r="B2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B3" s="2">
         <v>43620.543946759259</v>
@@ -2481,7 +2478,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2492,10 +2489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2515,28 +2512,28 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" t="s">
         <v>241</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>242</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" t="s">
         <v>243</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>245</v>
       </c>
-      <c r="F1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G1" t="s">
-        <v>246</v>
-      </c>
       <c r="H1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -2562,13 +2559,13 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2594,10 +2591,10 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -2620,13 +2617,13 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -2634,54 +2631,51 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G6" t="s">
-        <v>339</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2692,44 +2686,21 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>605</v>
+        <v>604</v>
+      </c>
+      <c r="F7" t="s">
+        <v>606</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>338</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>258</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>606</v>
-      </c>
-      <c r="F8" t="s">
-        <v>608</v>
-      </c>
-      <c r="G8" t="s">
-        <v>339</v>
-      </c>
-      <c r="H8">
         <v>0</v>
       </c>
     </row>
@@ -2757,28 +2728,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" t="s">
         <v>239</v>
       </c>
-      <c r="B1" t="s">
-        <v>240</v>
-      </c>
       <c r="C1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D1" t="s">
         <v>542</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>543</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>544</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>545</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>546</v>
-      </c>
-      <c r="H1" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -2843,7 +2814,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -2852,7 +2823,7 @@
         <v>120</v>
       </c>
       <c r="H5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2875,7 +2846,7 @@
         <v>43621.543946759259</v>
       </c>
       <c r="H6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -2905,34 +2876,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1" t="s">
         <v>540</v>
-      </c>
-      <c r="C1" t="s">
-        <v>541</v>
       </c>
       <c r="D1" t="s">
         <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" t="s">
         <v>230</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>231</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>232</v>
       </c>
-      <c r="I1" t="s">
-        <v>233</v>
-      </c>
       <c r="J1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,13 +2917,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2978,13 +2949,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3010,13 +2981,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3042,13 +3013,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3074,13 +3045,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3106,13 +3077,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3138,13 +3109,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3170,13 +3141,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -3202,13 +3173,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -3234,13 +3205,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G11">
         <v>-50</v>
@@ -3266,13 +3237,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -3298,13 +3269,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -3330,13 +3301,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -3351,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="Q14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -3397,13 +3368,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -3429,13 +3400,13 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3461,13 +3432,13 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F18" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -3493,13 +3464,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F19" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3525,13 +3496,13 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F20" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3557,13 +3528,13 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F21" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3589,13 +3560,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3621,13 +3592,13 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F23" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -3653,13 +3624,13 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F24" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3685,13 +3656,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3717,13 +3688,13 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3749,13 +3720,13 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3781,13 +3752,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G28">
         <v>-50</v>
@@ -3813,13 +3784,13 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G29">
         <v>4</v>
@@ -3845,13 +3816,13 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F30" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3877,13 +3848,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F31" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3909,13 +3880,13 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3941,13 +3912,13 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F33" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3973,13 +3944,13 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F34" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -4005,13 +3976,13 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F35" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -4037,13 +4008,13 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F36" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -4069,13 +4040,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F37" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -4101,13 +4072,13 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F38" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -4133,13 +4104,13 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F39" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4165,13 +4136,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F40" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -4197,13 +4168,13 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F41" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -4229,13 +4200,13 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F42" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4261,13 +4232,13 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F43" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4293,13 +4264,13 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4325,13 +4296,13 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F45" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G45">
         <v>-50</v>
@@ -4357,13 +4328,13 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -4389,13 +4360,13 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F47" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4421,13 +4392,13 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F48" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4453,13 +4424,13 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4485,13 +4456,13 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F50" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4517,13 +4488,13 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F51" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4549,13 +4520,13 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F52" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4581,13 +4552,13 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F53" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4613,13 +4584,13 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F54" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -4645,13 +4616,13 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F55" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -4677,13 +4648,13 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E56" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F56" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -4709,13 +4680,13 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F57" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -4741,13 +4712,13 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F58" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -4773,13 +4744,13 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -4805,13 +4776,13 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F60" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G60">
         <v>-50</v>
@@ -4837,13 +4808,13 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G61">
         <v>4</v>
@@ -4869,13 +4840,13 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F62" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -4901,13 +4872,13 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F63" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -4933,13 +4904,13 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -4965,13 +4936,13 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F65" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -4997,13 +4968,13 @@
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F66" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -5029,13 +5000,13 @@
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F67" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -5060,8 +5031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T153"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L102" sqref="L102"/>
+    <sheetView topLeftCell="C49" workbookViewId="0">
+      <selection activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5085,84 +5056,84 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" t="s">
         <v>253</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>254</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>255</v>
-      </c>
-      <c r="E1" t="s">
-        <v>256</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="G1" t="s">
+        <v>530</v>
+      </c>
+      <c r="H1" t="s">
+        <v>533</v>
+      </c>
+      <c r="I1" t="s">
         <v>531</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>532</v>
+      </c>
+      <c r="K1" t="s">
+        <v>371</v>
+      </c>
+      <c r="L1" t="s">
+        <v>537</v>
+      </c>
+      <c r="M1" t="s">
+        <v>536</v>
+      </c>
+      <c r="N1" t="s">
+        <v>538</v>
+      </c>
+      <c r="O1" t="s">
         <v>534</v>
       </c>
-      <c r="I1" t="s">
-        <v>532</v>
-      </c>
-      <c r="J1" t="s">
-        <v>533</v>
-      </c>
-      <c r="K1" t="s">
-        <v>372</v>
-      </c>
-      <c r="L1" t="s">
-        <v>538</v>
-      </c>
-      <c r="M1" t="s">
-        <v>537</v>
-      </c>
-      <c r="N1" t="s">
-        <v>539</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>535</v>
       </c>
-      <c r="P1" t="s">
-        <v>536</v>
-      </c>
       <c r="Q1" t="s">
+        <v>549</v>
+      </c>
+      <c r="R1" t="s">
         <v>550</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>551</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>552</v>
-      </c>
-      <c r="T1" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -5203,22 +5174,22 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -5259,22 +5230,22 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -5315,22 +5286,22 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -5371,22 +5342,22 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -5427,22 +5398,22 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -5483,22 +5454,22 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -5539,22 +5510,22 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -5595,22 +5566,22 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -5631,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>36</v>
+        <v>607</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
@@ -5651,22 +5622,22 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -5687,7 +5658,7 @@
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>36</v>
+        <v>607</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
@@ -5707,22 +5678,22 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -5743,7 +5714,7 @@
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>36</v>
+        <v>607</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
@@ -5763,22 +5734,22 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F13" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -5799,7 +5770,7 @@
         <v>6</v>
       </c>
       <c r="N13" t="s">
-        <v>36</v>
+        <v>607</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
@@ -5819,22 +5790,22 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F14" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -5875,22 +5846,22 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F15" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -5931,22 +5902,22 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -5987,22 +5958,22 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -6043,22 +6014,22 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -6099,22 +6070,22 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F19" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -6155,22 +6126,22 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F20" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -6211,22 +6182,22 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -6267,22 +6238,22 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F22" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -6303,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>36</v>
+        <v>607</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
@@ -6323,22 +6294,22 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -6359,7 +6330,7 @@
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>36</v>
+        <v>607</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
@@ -6379,22 +6350,22 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F24" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -6415,7 +6386,7 @@
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>36</v>
+        <v>607</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
@@ -6435,22 +6406,22 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -6471,7 +6442,7 @@
         <v>6</v>
       </c>
       <c r="N25" t="s">
-        <v>36</v>
+        <v>607</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
@@ -6491,22 +6462,22 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F26" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -6547,22 +6518,22 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F27" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -6603,22 +6574,22 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F28" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -6659,22 +6630,22 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F29" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -6715,22 +6686,22 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F30" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -6771,22 +6742,22 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E31" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F31" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -6827,22 +6798,22 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" t="s">
+        <v>556</v>
+      </c>
+      <c r="F32" t="s">
         <v>126</v>
-      </c>
-      <c r="E32" t="s">
-        <v>557</v>
-      </c>
-      <c r="F32" t="s">
-        <v>127</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
@@ -6883,22 +6854,22 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -6939,22 +6910,22 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E34" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -6995,22 +6966,22 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E35" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -7051,22 +7022,22 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D36" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" t="s">
+        <v>560</v>
+      </c>
+      <c r="F36" t="s">
         <v>126</v>
-      </c>
-      <c r="E36" t="s">
-        <v>561</v>
-      </c>
-      <c r="F36" t="s">
-        <v>127</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -7107,22 +7078,22 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -7163,22 +7134,22 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E38" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -7219,22 +7190,22 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E39" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -7275,22 +7246,22 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B40" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" t="s">
+        <v>564</v>
+      </c>
+      <c r="F40" t="s">
         <v>126</v>
-      </c>
-      <c r="E40" t="s">
-        <v>565</v>
-      </c>
-      <c r="F40" t="s">
-        <v>127</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -7311,7 +7282,7 @@
         <v>20</v>
       </c>
       <c r="N40" t="s">
-        <v>36</v>
+        <v>607</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
@@ -7331,22 +7302,22 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E41" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -7367,7 +7338,7 @@
         <v>23</v>
       </c>
       <c r="N41" t="s">
-        <v>36</v>
+        <v>607</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
@@ -7387,22 +7358,22 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E42" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -7423,7 +7394,7 @@
         <v>25</v>
       </c>
       <c r="N42" t="s">
-        <v>36</v>
+        <v>607</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
@@ -7443,22 +7414,22 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E43" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -7479,7 +7450,7 @@
         <v>26</v>
       </c>
       <c r="N43" t="s">
-        <v>36</v>
+        <v>607</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
@@ -7499,22 +7470,22 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B44" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E44" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
@@ -7558,22 +7529,22 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E45" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
@@ -7617,22 +7588,22 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B46" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
@@ -7676,22 +7647,22 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E47" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
@@ -7735,22 +7706,22 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E48" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -7794,22 +7765,22 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B49" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E49" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
@@ -7853,22 +7824,22 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B50" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E50" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
@@ -7912,22 +7883,22 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E51" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
@@ -7971,22 +7942,22 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E52" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
@@ -8007,7 +7978,7 @@
         <v>20</v>
       </c>
       <c r="N52" t="s">
-        <v>36</v>
+        <v>607</v>
       </c>
       <c r="O52">
         <v>4</v>
@@ -8030,22 +8001,22 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E53" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
@@ -8066,7 +8037,7 @@
         <v>23</v>
       </c>
       <c r="N53" t="s">
-        <v>36</v>
+        <v>607</v>
       </c>
       <c r="O53">
         <v>3</v>
@@ -8089,22 +8060,22 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B54" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E54" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
@@ -8125,7 +8096,7 @@
         <v>25</v>
       </c>
       <c r="N54" t="s">
-        <v>36</v>
+        <v>607</v>
       </c>
       <c r="O54">
         <v>2</v>
@@ -8148,22 +8119,22 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B55" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E55" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
@@ -8184,7 +8155,7 @@
         <v>26</v>
       </c>
       <c r="N55" t="s">
-        <v>36</v>
+        <v>607</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -8207,22 +8178,22 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E56" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F56" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -8263,22 +8234,22 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B57" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E57" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F57" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -8319,22 +8290,22 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B58" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E58" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
@@ -8378,22 +8349,22 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B59" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E59" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
@@ -8437,22 +8408,22 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B60" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E60" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
@@ -8492,22 +8463,22 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E61" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F61" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
@@ -8548,22 +8519,22 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B62" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F62" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
@@ -8604,22 +8575,22 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B63" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E63" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F63" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -8660,22 +8631,22 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B64" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E64" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F64" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
@@ -8716,22 +8687,22 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B65" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E65" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F65" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -8772,22 +8743,22 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B66" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E66" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
@@ -8828,22 +8799,22 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B67" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F67" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
@@ -8884,22 +8855,22 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B68" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E68" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
@@ -8940,22 +8911,22 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C69" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D69" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E69" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F69" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -8996,22 +8967,22 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E70" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
@@ -9052,22 +9023,22 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B71" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D71" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" t="s">
+        <v>468</v>
+      </c>
+      <c r="F71" t="s">
         <v>138</v>
-      </c>
-      <c r="E71" t="s">
-        <v>469</v>
-      </c>
-      <c r="F71" t="s">
-        <v>139</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
@@ -9108,22 +9079,22 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B72" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D72" t="s">
+        <v>137</v>
+      </c>
+      <c r="E72" t="s">
+        <v>469</v>
+      </c>
+      <c r="F72" t="s">
         <v>138</v>
-      </c>
-      <c r="E72" t="s">
-        <v>470</v>
-      </c>
-      <c r="F72" t="s">
-        <v>139</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
@@ -9164,22 +9135,22 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B73" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D73" t="s">
+        <v>137</v>
+      </c>
+      <c r="E73" t="s">
+        <v>470</v>
+      </c>
+      <c r="F73" t="s">
         <v>138</v>
-      </c>
-      <c r="E73" t="s">
-        <v>471</v>
-      </c>
-      <c r="F73" t="s">
-        <v>139</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
@@ -9220,22 +9191,22 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B74" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E74" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F74" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
@@ -9276,22 +9247,22 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B75" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E75" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F75" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
@@ -9332,22 +9303,22 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B76" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C76" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E76" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F76" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
@@ -9388,22 +9359,22 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B77" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E77" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F77" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
@@ -9444,22 +9415,22 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B78" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" t="s">
         <v>105</v>
       </c>
-      <c r="C78" t="s">
-        <v>106</v>
-      </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E78" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
@@ -9500,22 +9471,22 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B79" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" t="s">
         <v>107</v>
       </c>
-      <c r="C79" t="s">
-        <v>108</v>
-      </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E79" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
@@ -9556,22 +9527,22 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B80" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" t="s">
         <v>110</v>
       </c>
-      <c r="C80" t="s">
-        <v>111</v>
-      </c>
       <c r="D80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E80" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F80" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
@@ -9612,22 +9583,22 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B81" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E81" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
@@ -9671,22 +9642,22 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B82" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E82" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
@@ -9730,22 +9701,22 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B83" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E83" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
@@ -9789,22 +9760,22 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B84" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E84" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
@@ -9851,19 +9822,19 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
+        <v>180</v>
+      </c>
+      <c r="C85" t="s">
         <v>181</v>
       </c>
-      <c r="C85" t="s">
-        <v>182</v>
-      </c>
       <c r="D85" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E85" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
@@ -9905,19 +9876,19 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" t="s">
         <v>183</v>
       </c>
-      <c r="C86" t="s">
-        <v>184</v>
-      </c>
       <c r="D86" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E86" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F86" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -9959,19 +9930,19 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
+        <v>184</v>
+      </c>
+      <c r="C87" t="s">
         <v>185</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>185</v>
+      </c>
+      <c r="E87" t="s">
+        <v>421</v>
+      </c>
+      <c r="F87" t="s">
         <v>186</v>
-      </c>
-      <c r="D87" t="s">
-        <v>186</v>
-      </c>
-      <c r="E87" t="s">
-        <v>422</v>
-      </c>
-      <c r="F87" t="s">
-        <v>187</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
@@ -10013,19 +9984,19 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
+        <v>187</v>
+      </c>
+      <c r="C88" t="s">
         <v>188</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>189</v>
       </c>
-      <c r="D88" t="s">
-        <v>190</v>
-      </c>
       <c r="E88" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F88" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
@@ -10067,19 +10038,19 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C89" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E89" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F89" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
@@ -10116,19 +10087,19 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C90" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D90" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E90" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
@@ -10165,19 +10136,19 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C91" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D91" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E91" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F91" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
@@ -10214,19 +10185,19 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C92" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E92" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
@@ -10263,19 +10234,19 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C93" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E93" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F93" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -10312,19 +10283,19 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C94" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D94" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E94" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F94" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
@@ -10361,19 +10332,19 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C95" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D95" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E95" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F95" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
@@ -10410,19 +10381,19 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C96" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D96" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E96" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F96" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
@@ -10459,19 +10430,19 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C97" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D97" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E97" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F97" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
@@ -10508,19 +10479,19 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C98" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E98" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F98" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
@@ -10557,19 +10528,19 @@
         <v>5</v>
       </c>
       <c r="B99" t="s">
+        <v>153</v>
+      </c>
+      <c r="C99" t="s">
         <v>154</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
+        <v>154</v>
+      </c>
+      <c r="E99" t="s">
+        <v>489</v>
+      </c>
+      <c r="F99" t="s">
         <v>155</v>
-      </c>
-      <c r="D99" t="s">
-        <v>155</v>
-      </c>
-      <c r="E99" t="s">
-        <v>490</v>
-      </c>
-      <c r="F99" t="s">
-        <v>156</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
@@ -10593,7 +10564,7 @@
         <v>22</v>
       </c>
       <c r="N99" t="s">
-        <v>36</v>
+        <v>607</v>
       </c>
       <c r="P99" t="b">
         <v>1</v>
@@ -10616,19 +10587,19 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100" t="s">
         <v>157</v>
       </c>
-      <c r="C100" t="s">
-        <v>158</v>
-      </c>
       <c r="D100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E100" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F100" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
@@ -10664,19 +10635,19 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
+        <v>158</v>
+      </c>
+      <c r="C101" t="s">
         <v>159</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
+        <v>159</v>
+      </c>
+      <c r="E101" t="s">
+        <v>490</v>
+      </c>
+      <c r="F101" t="s">
         <v>160</v>
-      </c>
-      <c r="D101" t="s">
-        <v>160</v>
-      </c>
-      <c r="E101" t="s">
-        <v>491</v>
-      </c>
-      <c r="F101" t="s">
-        <v>161</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
@@ -10700,7 +10671,7 @@
         <v>22</v>
       </c>
       <c r="N101" t="s">
-        <v>36</v>
+        <v>607</v>
       </c>
       <c r="P101" t="b">
         <v>1</v>
@@ -10723,19 +10694,19 @@
         <v>5</v>
       </c>
       <c r="B102" t="s">
+        <v>161</v>
+      </c>
+      <c r="C102" t="s">
         <v>162</v>
       </c>
-      <c r="C102" t="s">
-        <v>163</v>
-      </c>
       <c r="D102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E102" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F102" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
@@ -10772,19 +10743,19 @@
         <v>5</v>
       </c>
       <c r="B103" t="s">
+        <v>163</v>
+      </c>
+      <c r="C103" t="s">
         <v>164</v>
       </c>
-      <c r="C103" t="s">
-        <v>165</v>
-      </c>
       <c r="D103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E103" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F103" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
@@ -10821,19 +10792,19 @@
         <v>5</v>
       </c>
       <c r="B104" t="s">
+        <v>165</v>
+      </c>
+      <c r="C104" t="s">
         <v>166</v>
       </c>
-      <c r="C104" t="s">
-        <v>167</v>
-      </c>
       <c r="D104" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E104" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F104" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
@@ -10870,19 +10841,19 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
+        <v>167</v>
+      </c>
+      <c r="C105" t="s">
         <v>168</v>
       </c>
-      <c r="C105" t="s">
-        <v>169</v>
-      </c>
       <c r="D105" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E105" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F105" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
@@ -10919,19 +10890,19 @@
         <v>5</v>
       </c>
       <c r="B106" t="s">
+        <v>169</v>
+      </c>
+      <c r="C106" t="s">
         <v>170</v>
       </c>
-      <c r="C106" t="s">
-        <v>171</v>
-      </c>
       <c r="D106" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E106" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F106" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
@@ -10968,19 +10939,19 @@
         <v>5</v>
       </c>
       <c r="B107" t="s">
+        <v>171</v>
+      </c>
+      <c r="C107" t="s">
         <v>172</v>
       </c>
-      <c r="C107" t="s">
-        <v>173</v>
-      </c>
       <c r="D107" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E107" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F107" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
@@ -11017,19 +10988,19 @@
         <v>5</v>
       </c>
       <c r="B108" t="s">
+        <v>173</v>
+      </c>
+      <c r="C108" t="s">
         <v>174</v>
       </c>
-      <c r="C108" t="s">
-        <v>175</v>
-      </c>
       <c r="D108" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E108" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F108" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
@@ -11066,19 +11037,19 @@
         <v>5</v>
       </c>
       <c r="B109" t="s">
+        <v>175</v>
+      </c>
+      <c r="C109" t="s">
         <v>176</v>
       </c>
-      <c r="C109" t="s">
-        <v>177</v>
-      </c>
       <c r="D109" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E109" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F109" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
@@ -11115,19 +11086,19 @@
         <v>5</v>
       </c>
       <c r="B110" t="s">
+        <v>177</v>
+      </c>
+      <c r="C110" t="s">
         <v>178</v>
       </c>
-      <c r="C110" t="s">
-        <v>179</v>
-      </c>
       <c r="D110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E110" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F110" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
@@ -11164,19 +11135,19 @@
         <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C111" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D111" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E111" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F111" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
@@ -11200,7 +11171,7 @@
         <v>22</v>
       </c>
       <c r="N111" t="s">
-        <v>36</v>
+        <v>607</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
@@ -11223,19 +11194,19 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
+        <v>144</v>
+      </c>
+      <c r="C112" t="s">
         <v>145</v>
       </c>
-      <c r="C112" t="s">
-        <v>146</v>
-      </c>
       <c r="D112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E112" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F112" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
@@ -11254,7 +11225,7 @@
       </c>
       <c r="L112" s="3"/>
       <c r="N112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
@@ -11277,19 +11248,19 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
+        <v>147</v>
+      </c>
+      <c r="C113" t="s">
         <v>148</v>
       </c>
-      <c r="C113" t="s">
-        <v>149</v>
-      </c>
       <c r="D113" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E113" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F113" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
@@ -11308,7 +11279,7 @@
       </c>
       <c r="L113" s="3"/>
       <c r="N113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P113" t="b">
         <v>1</v>
@@ -11331,19 +11302,19 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
+        <v>149</v>
+      </c>
+      <c r="C114" t="s">
         <v>150</v>
       </c>
-      <c r="C114" t="s">
-        <v>151</v>
-      </c>
       <c r="D114" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E114" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F114" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
@@ -11362,7 +11333,7 @@
       </c>
       <c r="L114" s="3"/>
       <c r="N114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P114" t="b">
         <v>1</v>
@@ -11385,19 +11356,19 @@
         <v>3</v>
       </c>
       <c r="B115" t="s">
+        <v>151</v>
+      </c>
+      <c r="C115" t="s">
         <v>152</v>
       </c>
-      <c r="C115" t="s">
-        <v>153</v>
-      </c>
       <c r="D115" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E115" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F115" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
@@ -11416,7 +11387,7 @@
       </c>
       <c r="L115" s="3"/>
       <c r="N115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P115" t="b">
         <v>1</v>
@@ -11436,22 +11407,22 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B116" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C116" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D116" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E116" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F116" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
@@ -11495,22 +11466,22 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C117" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D117" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E117" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F117" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
@@ -11544,22 +11515,22 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B118" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C118" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D118" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E118" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F118" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
@@ -11593,22 +11564,22 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B119" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C119" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D119" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E119" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F119" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
@@ -11642,22 +11613,22 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B120" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C120" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D120" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E120" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F120" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
@@ -11691,22 +11662,22 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B121" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C121" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D121" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E121" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F121" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
@@ -11740,22 +11711,22 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B122" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C122" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D122" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E122" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F122" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
@@ -11787,22 +11758,22 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B123" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C123" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D123" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E123" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F123" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
@@ -11834,22 +11805,22 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C124" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D124" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E124" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F124" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
@@ -11881,22 +11852,22 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B125" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C125" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D125" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E125" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F125" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
@@ -11928,22 +11899,22 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B126" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C126" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D126" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E126" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F126" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
@@ -11975,22 +11946,22 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C127" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D127" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E127" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F127" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
@@ -12022,22 +11993,22 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B128" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C128" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D128" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E128" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
@@ -12069,22 +12040,22 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B129" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C129" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D129" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E129" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
@@ -12116,22 +12087,22 @@
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B130" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C130" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D130" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E130" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
@@ -12163,22 +12134,22 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B131" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C131" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D131" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E131" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
@@ -12210,22 +12181,22 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B132" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C132" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D132" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E132" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
@@ -12257,22 +12228,22 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B133" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C133" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D133" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E133" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
@@ -12304,22 +12275,22 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B134" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C134" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D134" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E134" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F134" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
@@ -12351,22 +12322,22 @@
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B135" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C135" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D135" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E135" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F135" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
@@ -12398,22 +12369,22 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B136" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C136" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D136" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E136" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F136" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
@@ -12445,22 +12416,22 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B137" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C137" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D137" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E137" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F137" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
@@ -12492,22 +12463,22 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B138" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C138" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D138" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E138" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F138" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
@@ -12539,22 +12510,22 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B139" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C139" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D139" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E139" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F139" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
@@ -12586,22 +12557,22 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C140" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D140" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E140" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F140" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
@@ -12633,22 +12604,22 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B141" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C141" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D141" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E141" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F141" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
@@ -12680,22 +12651,22 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B142" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C142" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D142" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E142" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F142" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
@@ -12727,22 +12698,22 @@
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B143" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C143" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D143" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E143" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F143" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
@@ -12774,22 +12745,22 @@
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B144" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C144" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D144" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E144" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F144" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
@@ -12821,22 +12792,22 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B145" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C145" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D145" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E145" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F145" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
@@ -12868,22 +12839,22 @@
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B146" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C146" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D146" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E146" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F146" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
@@ -12915,22 +12886,22 @@
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B147" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C147" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D147" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E147" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F147" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
@@ -12962,22 +12933,22 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B148" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C148" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D148" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E148" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F148" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
@@ -13009,22 +12980,22 @@
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B149" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C149" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D149" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E149" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F149" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
@@ -13056,22 +13027,22 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B150" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C150" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D150" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E150" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F150" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
@@ -13103,22 +13074,22 @@
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B151" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C151" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D151" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E151" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F151" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
@@ -13150,22 +13121,22 @@
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B152" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C152" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D152" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E152" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F152" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
@@ -13197,22 +13168,22 @@
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B153" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C153" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D153" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E153" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F153" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
@@ -13263,7 +13234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -13281,72 +13252,72 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" t="s">
         <v>255</v>
-      </c>
-      <c r="C1" t="s">
-        <v>256</v>
       </c>
       <c r="D1" t="s">
         <v>15</v>
       </c>
       <c r="E1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G1" t="s">
         <v>531</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>532</v>
+      </c>
+      <c r="I1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J1" t="s">
+        <v>537</v>
+      </c>
+      <c r="K1" t="s">
+        <v>536</v>
+      </c>
+      <c r="L1" t="s">
+        <v>538</v>
+      </c>
+      <c r="M1" t="s">
         <v>534</v>
       </c>
-      <c r="G1" t="s">
-        <v>532</v>
-      </c>
-      <c r="H1" t="s">
-        <v>533</v>
-      </c>
-      <c r="I1" t="s">
-        <v>372</v>
-      </c>
-      <c r="J1" t="s">
-        <v>538</v>
-      </c>
-      <c r="K1" t="s">
-        <v>537</v>
-      </c>
-      <c r="L1" t="s">
-        <v>539</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>535</v>
       </c>
-      <c r="N1" t="s">
-        <v>536</v>
-      </c>
       <c r="O1" t="s">
+        <v>549</v>
+      </c>
+      <c r="P1" t="s">
         <v>550</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>551</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>552</v>
-      </c>
-      <c r="R1" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -13387,16 +13358,16 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -13437,16 +13408,16 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -13487,16 +13458,16 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -13537,16 +13508,16 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -13587,16 +13558,16 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -13637,16 +13608,16 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -13687,16 +13658,16 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -13737,16 +13708,16 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -13787,16 +13758,16 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -13837,16 +13808,16 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>571</v>
+      </c>
+      <c r="D12" t="s">
         <v>126</v>
-      </c>
-      <c r="C12" t="s">
-        <v>572</v>
-      </c>
-      <c r="D12" t="s">
-        <v>127</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -13887,16 +13858,16 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -13937,16 +13908,16 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -13987,16 +13958,16 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -14037,16 +14008,16 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" t="s">
+        <v>445</v>
+      </c>
+      <c r="D16" t="s">
         <v>131</v>
-      </c>
-      <c r="C16" t="s">
-        <v>446</v>
-      </c>
-      <c r="D16" t="s">
-        <v>132</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -14090,16 +14061,16 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -14143,16 +14114,16 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -14196,16 +14167,16 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -14249,16 +14220,16 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -14299,16 +14270,16 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" t="s">
+        <v>431</v>
+      </c>
+      <c r="D21" t="s">
         <v>138</v>
-      </c>
-      <c r="C21" t="s">
-        <v>432</v>
-      </c>
-      <c r="D21" t="s">
-        <v>139</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -14349,16 +14320,16 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -14399,16 +14370,16 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D23" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -14449,16 +14420,16 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -14505,13 +14476,13 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -14555,13 +14526,13 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -14608,13 +14579,13 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
@@ -14661,13 +14632,13 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -14731,31 +14702,31 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" t="s">
         <v>366</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>367</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="J1" s="3"/>
     </row>
@@ -14764,10 +14735,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D2">
         <v>213.9999999999998</v>
@@ -14794,10 +14765,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D3">
         <v>255</v>
@@ -14824,10 +14795,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D4">
         <v>187.99999999999991</v>
@@ -14854,10 +14825,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D5">
         <v>43.999999999999964</v>
@@ -14884,10 +14855,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D6">
         <v>22.999999999999989</v>
@@ -14914,10 +14885,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D7">
         <v>30.999999999999901</v>
@@ -14944,10 +14915,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D8">
         <v>147.99999999999997</v>
@@ -14974,10 +14945,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D9">
         <v>226.99999999999989</v>
@@ -15004,10 +14975,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D10">
         <v>139.99999999999991</v>
@@ -15034,10 +15005,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D11">
         <v>126.99999999999987</v>
@@ -15064,10 +15035,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D12" s="3">
         <v>255</v>
@@ -15094,10 +15065,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D13" s="3">
         <v>255</v>
@@ -15124,10 +15095,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D14" s="3">
         <v>218.99999999999983</v>
@@ -15154,10 +15125,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D15" s="3">
         <v>152</v>
@@ -15184,10 +15155,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D16" s="3">
         <v>157.99999999999977</v>
@@ -15214,10 +15185,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D17" s="3">
         <v>173.99999999999986</v>
@@ -15244,10 +15215,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D18" s="3">
         <v>196.99999999999994</v>
@@ -15274,10 +15245,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D19" s="3">
         <v>246.99999999999997</v>
@@ -15304,10 +15275,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D20" s="3">
         <v>195.99999999999994</v>
@@ -15334,10 +15305,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D21" s="3">
         <v>198.99999999999997</v>
@@ -15364,10 +15335,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D22">
         <v>137</v>
@@ -15394,10 +15365,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D23">
         <v>218</v>
@@ -15424,10 +15395,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D24">
         <v>139</v>
@@ -15454,10 +15425,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D25">
         <v>27</v>
@@ -15484,10 +15455,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D26">
         <v>7</v>
@@ -15514,10 +15485,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D27">
         <v>13</v>
@@ -15544,10 +15515,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D28">
         <v>125</v>
@@ -15574,10 +15545,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D29">
         <v>213</v>
@@ -15604,10 +15575,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C30" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D30">
         <v>100</v>
@@ -15634,10 +15605,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D31">
         <v>91</v>
@@ -15664,10 +15635,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D32">
         <v>0</v>

--- a/Info/Info.xlsx
+++ b/Info/Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nms198\Git\ToOLTuBES\Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4A34EA-FF8A-4396-82AB-B32680E7139A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AEEB54-9657-48F2-AE97-AC77D9BAA7F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setup" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="610">
   <si>
     <t>Slim</t>
   </si>
@@ -469,9 +469,6 @@
   </si>
   <si>
     <t>WU_Temp</t>
-  </si>
-  <si>
-    <t>dotdash</t>
   </si>
   <si>
     <t>PER_ENVIRONMENT_13401_River Level</t>
@@ -1665,9 +1662,6 @@
     <t>fill</t>
   </si>
   <si>
-    <t>line_type</t>
-  </si>
-  <si>
     <t>row</t>
   </si>
   <si>
@@ -1873,6 +1867,18 @@
   </si>
   <si>
     <t>longdashdot</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>dash</t>
+  </si>
+  <si>
+    <t>dashdot</t>
+  </si>
+  <si>
+    <t>diamond</t>
   </si>
 </sst>
 </file>
@@ -2454,23 +2460,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" t="s">
         <v>246</v>
-      </c>
-      <c r="B1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" t="s">
         <v>250</v>
-      </c>
-      <c r="B2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3" s="2">
         <v>43620.543946759259</v>
@@ -2478,7 +2484,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2512,28 +2518,28 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" t="s">
         <v>240</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>241</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" t="s">
         <v>242</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>244</v>
       </c>
-      <c r="F1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G1" t="s">
-        <v>245</v>
-      </c>
       <c r="H1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -2559,13 +2565,13 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2591,10 +2597,10 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -2617,10 +2623,10 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -2643,10 +2649,10 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2657,7 +2663,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2669,7 +2675,7 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -2680,7 +2686,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2692,13 +2698,13 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
+        <v>602</v>
+      </c>
+      <c r="F7" t="s">
         <v>604</v>
       </c>
-      <c r="F7" t="s">
-        <v>606</v>
-      </c>
       <c r="G7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2728,28 +2734,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" t="s">
         <v>238</v>
       </c>
-      <c r="B1" t="s">
-        <v>239</v>
-      </c>
       <c r="C1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E1" t="s">
         <v>541</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>542</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>543</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>544</v>
-      </c>
-      <c r="G1" t="s">
-        <v>545</v>
-      </c>
-      <c r="H1" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -2814,7 +2820,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -2823,7 +2829,7 @@
         <v>120</v>
       </c>
       <c r="H5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2846,7 +2852,7 @@
         <v>43621.543946759259</v>
       </c>
       <c r="H6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -2858,8 +2864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2876,34 +2882,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D1" t="s">
         <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" t="s">
         <v>229</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>230</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>231</v>
       </c>
-      <c r="I1" t="s">
-        <v>232</v>
-      </c>
       <c r="J1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,13 +2923,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2949,13 +2955,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2981,13 +2987,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3013,13 +3019,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3045,19 +3051,19 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I6">
         <v>10</v>
@@ -3077,13 +3083,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3115,7 +3121,7 @@
         <v>138</v>
       </c>
       <c r="F8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3141,13 +3147,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E9" t="s">
         <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -3205,13 +3211,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E11" t="s">
         <v>140</v>
       </c>
       <c r="F11" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G11">
         <v>-50</v>
@@ -3275,7 +3281,7 @@
         <v>108</v>
       </c>
       <c r="F13" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -3307,7 +3313,7 @@
         <v>126</v>
       </c>
       <c r="F14" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -3322,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="Q14" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3374,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F16" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -3400,13 +3406,13 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F17" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3432,13 +3438,13 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E18" t="s">
         <v>142</v>
       </c>
       <c r="F18" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -3464,13 +3470,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F19" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3496,13 +3502,13 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F20" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3528,13 +3534,13 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F21" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3560,13 +3566,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F22" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3592,19 +3598,19 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F23" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I23">
         <v>10</v>
@@ -3624,13 +3630,13 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F24" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3662,7 +3668,7 @@
         <v>138</v>
       </c>
       <c r="F25" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3688,13 +3694,13 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E26" t="s">
         <v>82</v>
       </c>
       <c r="F26" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3752,13 +3758,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E28" t="s">
         <v>140</v>
       </c>
       <c r="F28" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G28">
         <v>-50</v>
@@ -3822,7 +3828,7 @@
         <v>108</v>
       </c>
       <c r="F30" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3854,7 +3860,7 @@
         <v>126</v>
       </c>
       <c r="F31" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3912,13 +3918,13 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F33" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3944,13 +3950,13 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F34" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3976,13 +3982,13 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E35" t="s">
         <v>142</v>
       </c>
       <c r="F35" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -4008,13 +4014,13 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F36" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -4040,13 +4046,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F37" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -4072,13 +4078,13 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F38" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -4104,13 +4110,13 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F39" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -4136,19 +4142,19 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F40" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I40">
         <v>10</v>
@@ -4168,13 +4174,13 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F41" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -4206,7 +4212,7 @@
         <v>138</v>
       </c>
       <c r="F42" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4232,13 +4238,13 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E43" t="s">
         <v>82</v>
       </c>
       <c r="F43" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4296,13 +4302,13 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E45" t="s">
         <v>140</v>
       </c>
       <c r="F45" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G45">
         <v>-50</v>
@@ -4366,7 +4372,7 @@
         <v>108</v>
       </c>
       <c r="F47" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -4398,7 +4404,7 @@
         <v>126</v>
       </c>
       <c r="F48" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4456,13 +4462,13 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F50" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4488,13 +4494,13 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F51" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4520,13 +4526,13 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E52" t="s">
         <v>142</v>
       </c>
       <c r="F52" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4552,13 +4558,13 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F53" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4584,13 +4590,13 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F54" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -4616,19 +4622,19 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F55" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I55">
         <v>10</v>
@@ -4648,13 +4654,13 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E56" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F56" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -4686,7 +4692,7 @@
         <v>138</v>
       </c>
       <c r="F57" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -4712,13 +4718,13 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E58" t="s">
         <v>82</v>
       </c>
       <c r="F58" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -4776,13 +4782,13 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E60" t="s">
         <v>140</v>
       </c>
       <c r="F60" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G60">
         <v>-50</v>
@@ -4846,7 +4852,7 @@
         <v>108</v>
       </c>
       <c r="F62" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -4878,7 +4884,7 @@
         <v>126</v>
       </c>
       <c r="F63" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -4936,13 +4942,13 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F65" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -4968,13 +4974,13 @@
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F66" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -5000,13 +5006,13 @@
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E67" t="s">
         <v>142</v>
       </c>
       <c r="F67" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -5031,8 +5037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T153"/>
   <sheetViews>
-    <sheetView topLeftCell="C49" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M98" sqref="M98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5056,72 +5062,72 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" t="s">
         <v>252</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>253</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>254</v>
-      </c>
-      <c r="E1" t="s">
-        <v>255</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="G1" t="s">
+        <v>529</v>
+      </c>
+      <c r="H1" t="s">
+        <v>532</v>
+      </c>
+      <c r="I1" t="s">
         <v>530</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>531</v>
+      </c>
+      <c r="K1" t="s">
+        <v>370</v>
+      </c>
+      <c r="L1" t="s">
+        <v>536</v>
+      </c>
+      <c r="M1" t="s">
+        <v>535</v>
+      </c>
+      <c r="N1" t="s">
+        <v>607</v>
+      </c>
+      <c r="O1" t="s">
         <v>533</v>
       </c>
-      <c r="I1" t="s">
-        <v>531</v>
-      </c>
-      <c r="J1" t="s">
-        <v>532</v>
-      </c>
-      <c r="K1" t="s">
-        <v>371</v>
-      </c>
-      <c r="L1" t="s">
-        <v>537</v>
-      </c>
-      <c r="M1" t="s">
-        <v>536</v>
-      </c>
-      <c r="N1" t="s">
-        <v>538</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>534</v>
       </c>
-      <c r="P1" t="s">
-        <v>535</v>
-      </c>
       <c r="Q1" t="s">
+        <v>547</v>
+      </c>
+      <c r="R1" t="s">
+        <v>548</v>
+      </c>
+      <c r="S1" t="s">
         <v>549</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>550</v>
-      </c>
-      <c r="S1" t="s">
-        <v>551</v>
-      </c>
-      <c r="T1" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -5130,10 +5136,10 @@
         <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -5174,10 +5180,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -5186,10 +5192,10 @@
         <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -5230,10 +5236,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -5242,10 +5248,10 @@
         <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -5286,10 +5292,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -5298,10 +5304,10 @@
         <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -5342,10 +5348,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -5354,10 +5360,10 @@
         <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -5378,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
@@ -5398,10 +5404,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -5410,10 +5416,10 @@
         <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -5434,7 +5440,7 @@
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
@@ -5454,10 +5460,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -5466,10 +5472,10 @@
         <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F8" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -5490,7 +5496,7 @@
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
@@ -5510,10 +5516,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -5522,10 +5528,10 @@
         <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F9" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -5546,7 +5552,7 @@
         <v>6</v>
       </c>
       <c r="N9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
@@ -5566,10 +5572,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -5578,10 +5584,10 @@
         <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -5602,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>607</v>
+        <v>26</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
@@ -5622,10 +5628,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -5634,10 +5640,10 @@
         <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -5658,7 +5664,7 @@
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>607</v>
+        <v>26</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
@@ -5678,10 +5684,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -5690,10 +5696,10 @@
         <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F12" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -5714,7 +5720,7 @@
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>607</v>
+        <v>26</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
@@ -5734,10 +5740,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -5746,10 +5752,10 @@
         <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F13" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -5770,7 +5776,7 @@
         <v>6</v>
       </c>
       <c r="N13" t="s">
-        <v>607</v>
+        <v>26</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
@@ -5790,10 +5796,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -5802,10 +5808,10 @@
         <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F14" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -5846,10 +5852,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -5858,10 +5864,10 @@
         <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F15" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -5902,10 +5908,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -5914,10 +5920,10 @@
         <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F16" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -5958,10 +5964,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
@@ -5970,10 +5976,10 @@
         <v>122</v>
       </c>
       <c r="E17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F17" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -6014,10 +6020,10 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -6026,10 +6032,10 @@
         <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F18" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -6050,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
@@ -6070,10 +6076,10 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
@@ -6082,10 +6088,10 @@
         <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F19" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -6106,7 +6112,7 @@
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
@@ -6126,10 +6132,10 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C20" t="s">
         <v>45</v>
@@ -6138,10 +6144,10 @@
         <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F20" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -6162,7 +6168,7 @@
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
@@ -6182,10 +6188,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C21" t="s">
         <v>46</v>
@@ -6194,10 +6200,10 @@
         <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F21" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -6218,7 +6224,7 @@
         <v>6</v>
       </c>
       <c r="N21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
@@ -6238,10 +6244,10 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C22" t="s">
         <v>47</v>
@@ -6250,10 +6256,10 @@
         <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F22" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -6274,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>607</v>
+        <v>26</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
@@ -6294,10 +6300,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C23" t="s">
         <v>48</v>
@@ -6306,10 +6312,10 @@
         <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F23" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -6330,7 +6336,7 @@
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>607</v>
+        <v>26</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
@@ -6350,10 +6356,10 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C24" t="s">
         <v>49</v>
@@ -6362,10 +6368,10 @@
         <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F24" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -6386,7 +6392,7 @@
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>607</v>
+        <v>26</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
@@ -6406,10 +6412,10 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C25" t="s">
         <v>50</v>
@@ -6418,10 +6424,10 @@
         <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F25" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -6442,7 +6448,7 @@
         <v>6</v>
       </c>
       <c r="N25" t="s">
-        <v>607</v>
+        <v>26</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
@@ -6462,10 +6468,10 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C26" t="s">
         <v>51</v>
@@ -6474,10 +6480,10 @@
         <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F26" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -6518,10 +6524,10 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C27" t="s">
         <v>52</v>
@@ -6530,10 +6536,10 @@
         <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F27" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -6574,10 +6580,10 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C28" t="s">
         <v>53</v>
@@ -6586,10 +6592,10 @@
         <v>123</v>
       </c>
       <c r="E28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F28" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -6630,10 +6636,10 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C29" t="s">
         <v>54</v>
@@ -6642,10 +6648,10 @@
         <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F29" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -6686,10 +6692,10 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C30" t="s">
         <v>55</v>
@@ -6698,10 +6704,10 @@
         <v>124</v>
       </c>
       <c r="E30" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F30" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -6742,10 +6748,10 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C31" t="s">
         <v>56</v>
@@ -6754,10 +6760,10 @@
         <v>124</v>
       </c>
       <c r="E31" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F31" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -6798,10 +6804,10 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C32" t="s">
         <v>57</v>
@@ -6810,7 +6816,7 @@
         <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F32" t="s">
         <v>126</v>
@@ -6854,10 +6860,10 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C33" t="s">
         <v>58</v>
@@ -6866,7 +6872,7 @@
         <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F33" t="s">
         <v>126</v>
@@ -6910,10 +6916,10 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C34" t="s">
         <v>59</v>
@@ -6922,7 +6928,7 @@
         <v>128</v>
       </c>
       <c r="E34" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F34" t="s">
         <v>126</v>
@@ -6966,10 +6972,10 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C35" t="s">
         <v>60</v>
@@ -6978,7 +6984,7 @@
         <v>129</v>
       </c>
       <c r="E35" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F35" t="s">
         <v>126</v>
@@ -7022,10 +7028,10 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C36" t="s">
         <v>61</v>
@@ -7034,7 +7040,7 @@
         <v>125</v>
       </c>
       <c r="E36" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F36" t="s">
         <v>126</v>
@@ -7078,10 +7084,10 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C37" t="s">
         <v>62</v>
@@ -7090,7 +7096,7 @@
         <v>127</v>
       </c>
       <c r="E37" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F37" t="s">
         <v>126</v>
@@ -7134,10 +7140,10 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
@@ -7146,7 +7152,7 @@
         <v>128</v>
       </c>
       <c r="E38" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F38" t="s">
         <v>126</v>
@@ -7190,10 +7196,10 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B39" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C39" t="s">
         <v>64</v>
@@ -7202,7 +7208,7 @@
         <v>129</v>
       </c>
       <c r="E39" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F39" t="s">
         <v>126</v>
@@ -7246,10 +7252,10 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C40" t="s">
         <v>65</v>
@@ -7258,7 +7264,7 @@
         <v>125</v>
       </c>
       <c r="E40" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F40" t="s">
         <v>126</v>
@@ -7282,7 +7288,7 @@
         <v>20</v>
       </c>
       <c r="N40" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
@@ -7302,10 +7308,10 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C41" t="s">
         <v>66</v>
@@ -7314,7 +7320,7 @@
         <v>127</v>
       </c>
       <c r="E41" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F41" t="s">
         <v>126</v>
@@ -7338,7 +7344,7 @@
         <v>23</v>
       </c>
       <c r="N41" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
@@ -7358,10 +7364,10 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C42" t="s">
         <v>67</v>
@@ -7370,7 +7376,7 @@
         <v>128</v>
       </c>
       <c r="E42" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F42" t="s">
         <v>126</v>
@@ -7394,7 +7400,7 @@
         <v>25</v>
       </c>
       <c r="N42" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
@@ -7414,10 +7420,10 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -7426,7 +7432,7 @@
         <v>129</v>
       </c>
       <c r="E43" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F43" t="s">
         <v>126</v>
@@ -7450,7 +7456,7 @@
         <v>26</v>
       </c>
       <c r="N43" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
@@ -7470,10 +7476,10 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C44" t="s">
         <v>69</v>
@@ -7482,7 +7488,7 @@
         <v>69</v>
       </c>
       <c r="E44" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F44" t="s">
         <v>131</v>
@@ -7529,10 +7535,10 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B45" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C45" t="s">
         <v>70</v>
@@ -7541,7 +7547,7 @@
         <v>70</v>
       </c>
       <c r="E45" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F45" t="s">
         <v>131</v>
@@ -7588,10 +7594,10 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C46" t="s">
         <v>71</v>
@@ -7600,7 +7606,7 @@
         <v>71</v>
       </c>
       <c r="E46" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F46" t="s">
         <v>131</v>
@@ -7647,10 +7653,10 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C47" t="s">
         <v>72</v>
@@ -7659,7 +7665,7 @@
         <v>72</v>
       </c>
       <c r="E47" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F47" t="s">
         <v>131</v>
@@ -7706,10 +7712,10 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C48" t="s">
         <v>73</v>
@@ -7718,7 +7724,7 @@
         <v>73</v>
       </c>
       <c r="E48" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F48" t="s">
         <v>131</v>
@@ -7765,10 +7771,10 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B49" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C49" t="s">
         <v>74</v>
@@ -7777,7 +7783,7 @@
         <v>74</v>
       </c>
       <c r="E49" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F49" t="s">
         <v>131</v>
@@ -7824,10 +7830,10 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B50" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C50" t="s">
         <v>75</v>
@@ -7836,7 +7842,7 @@
         <v>75</v>
       </c>
       <c r="E50" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F50" t="s">
         <v>131</v>
@@ -7883,10 +7889,10 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C51" t="s">
         <v>76</v>
@@ -7895,7 +7901,7 @@
         <v>76</v>
       </c>
       <c r="E51" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F51" t="s">
         <v>131</v>
@@ -7942,10 +7948,10 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B52" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C52" t="s">
         <v>77</v>
@@ -7954,7 +7960,7 @@
         <v>77</v>
       </c>
       <c r="E52" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F52" t="s">
         <v>131</v>
@@ -7978,7 +7984,7 @@
         <v>20</v>
       </c>
       <c r="N52" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="O52">
         <v>4</v>
@@ -8001,10 +8007,10 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B53" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C53" t="s">
         <v>78</v>
@@ -8013,7 +8019,7 @@
         <v>78</v>
       </c>
       <c r="E53" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F53" t="s">
         <v>131</v>
@@ -8037,7 +8043,7 @@
         <v>23</v>
       </c>
       <c r="N53" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="O53">
         <v>3</v>
@@ -8060,10 +8066,10 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B54" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C54" t="s">
         <v>79</v>
@@ -8072,7 +8078,7 @@
         <v>79</v>
       </c>
       <c r="E54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F54" t="s">
         <v>131</v>
@@ -8096,7 +8102,7 @@
         <v>25</v>
       </c>
       <c r="N54" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="O54">
         <v>2</v>
@@ -8119,10 +8125,10 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B55" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C55" t="s">
         <v>80</v>
@@ -8131,7 +8137,7 @@
         <v>80</v>
       </c>
       <c r="E55" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F55" t="s">
         <v>131</v>
@@ -8155,7 +8161,7 @@
         <v>26</v>
       </c>
       <c r="N55" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -8178,10 +8184,10 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B56" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C56" t="s">
         <v>81</v>
@@ -8190,10 +8196,10 @@
         <v>81</v>
       </c>
       <c r="E56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F56" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -8234,10 +8240,10 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B57" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C57" t="s">
         <v>83</v>
@@ -8246,10 +8252,10 @@
         <v>83</v>
       </c>
       <c r="E57" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F57" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -8290,10 +8296,10 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B58" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C58" t="s">
         <v>84</v>
@@ -8302,7 +8308,7 @@
         <v>84</v>
       </c>
       <c r="E58" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F58" t="s">
         <v>135</v>
@@ -8349,10 +8355,10 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B59" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C59" t="s">
         <v>85</v>
@@ -8361,7 +8367,7 @@
         <v>85</v>
       </c>
       <c r="E59" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F59" t="s">
         <v>135</v>
@@ -8408,10 +8414,10 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C60" t="s">
         <v>86</v>
@@ -8420,7 +8426,7 @@
         <v>86</v>
       </c>
       <c r="E60" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F60" t="s">
         <v>135</v>
@@ -8463,10 +8469,10 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C61" t="s">
         <v>87</v>
@@ -8475,10 +8481,10 @@
         <v>87</v>
       </c>
       <c r="E61" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F61" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
@@ -8519,10 +8525,10 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B62" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C62" t="s">
         <v>88</v>
@@ -8531,10 +8537,10 @@
         <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F62" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
@@ -8575,10 +8581,10 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B63" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C63" t="s">
         <v>89</v>
@@ -8587,10 +8593,10 @@
         <v>136</v>
       </c>
       <c r="E63" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F63" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -8631,10 +8637,10 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B64" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C64" t="s">
         <v>90</v>
@@ -8643,10 +8649,10 @@
         <v>136</v>
       </c>
       <c r="E64" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F64" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
@@ -8687,10 +8693,10 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C65" t="s">
         <v>91</v>
@@ -8699,10 +8705,10 @@
         <v>136</v>
       </c>
       <c r="E65" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F65" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -8743,10 +8749,10 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B66" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C66" t="s">
         <v>92</v>
@@ -8755,10 +8761,10 @@
         <v>92</v>
       </c>
       <c r="E66" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F66" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
@@ -8799,10 +8805,10 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B67" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C67" t="s">
         <v>93</v>
@@ -8811,10 +8817,10 @@
         <v>93</v>
       </c>
       <c r="E67" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F67" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
@@ -8855,10 +8861,10 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B68" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C68" t="s">
         <v>94</v>
@@ -8867,7 +8873,7 @@
         <v>139</v>
       </c>
       <c r="E68" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F68" t="s">
         <v>138</v>
@@ -8911,10 +8917,10 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C69" t="s">
         <v>95</v>
@@ -8923,7 +8929,7 @@
         <v>139</v>
       </c>
       <c r="E69" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F69" t="s">
         <v>138</v>
@@ -8967,10 +8973,10 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B70" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C70" t="s">
         <v>96</v>
@@ -8979,7 +8985,7 @@
         <v>139</v>
       </c>
       <c r="E70" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F70" t="s">
         <v>138</v>
@@ -9023,10 +9029,10 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B71" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C71" t="s">
         <v>97</v>
@@ -9035,7 +9041,7 @@
         <v>137</v>
       </c>
       <c r="E71" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F71" t="s">
         <v>138</v>
@@ -9079,10 +9085,10 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B72" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C72" t="s">
         <v>98</v>
@@ -9091,7 +9097,7 @@
         <v>137</v>
       </c>
       <c r="E72" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F72" t="s">
         <v>138</v>
@@ -9135,10 +9141,10 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B73" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C73" t="s">
         <v>99</v>
@@ -9147,7 +9153,7 @@
         <v>137</v>
       </c>
       <c r="E73" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F73" t="s">
         <v>138</v>
@@ -9191,10 +9197,10 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B74" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C74" t="s">
         <v>100</v>
@@ -9203,10 +9209,10 @@
         <v>100</v>
       </c>
       <c r="E74" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F74" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
@@ -9247,10 +9253,10 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B75" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C75" t="s">
         <v>101</v>
@@ -9259,10 +9265,10 @@
         <v>141</v>
       </c>
       <c r="E75" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F75" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
@@ -9303,10 +9309,10 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B76" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C76" t="s">
         <v>102</v>
@@ -9315,10 +9321,10 @@
         <v>141</v>
       </c>
       <c r="E76" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F76" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
@@ -9359,10 +9365,10 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B77" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C77" t="s">
         <v>103</v>
@@ -9371,10 +9377,10 @@
         <v>141</v>
       </c>
       <c r="E77" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F77" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
@@ -9415,7 +9421,7 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B78" t="s">
         <v>104</v>
@@ -9427,7 +9433,7 @@
         <v>105</v>
       </c>
       <c r="E78" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F78" t="s">
         <v>104</v>
@@ -9471,7 +9477,7 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B79" t="s">
         <v>106</v>
@@ -9483,7 +9489,7 @@
         <v>107</v>
       </c>
       <c r="E79" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F79" t="s">
         <v>106</v>
@@ -9527,7 +9533,7 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B80" t="s">
         <v>109</v>
@@ -9539,10 +9545,10 @@
         <v>110</v>
       </c>
       <c r="E80" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F80" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
@@ -9583,10 +9589,10 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B81" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C81" t="s">
         <v>111</v>
@@ -9595,7 +9601,7 @@
         <v>111</v>
       </c>
       <c r="E81" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F81" t="s">
         <v>142</v>
@@ -9642,10 +9648,10 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B82" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C82" t="s">
         <v>112</v>
@@ -9654,7 +9660,7 @@
         <v>112</v>
       </c>
       <c r="E82" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F82" t="s">
         <v>142</v>
@@ -9701,10 +9707,10 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B83" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C83" t="s">
         <v>113</v>
@@ -9713,7 +9719,7 @@
         <v>113</v>
       </c>
       <c r="E83" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F83" t="s">
         <v>142</v>
@@ -9760,10 +9766,10 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B84" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C84" t="s">
         <v>114</v>
@@ -9772,7 +9778,7 @@
         <v>114</v>
       </c>
       <c r="E84" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F84" t="s">
         <v>142</v>
@@ -9822,16 +9828,16 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
+        <v>179</v>
+      </c>
+      <c r="C85" t="s">
         <v>180</v>
       </c>
-      <c r="C85" t="s">
-        <v>181</v>
-      </c>
       <c r="D85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E85" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F85" t="s">
         <v>104</v>
@@ -9876,19 +9882,19 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
+        <v>181</v>
+      </c>
+      <c r="C86" t="s">
         <v>182</v>
       </c>
-      <c r="C86" t="s">
-        <v>183</v>
-      </c>
       <c r="D86" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E86" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F86" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -9930,19 +9936,19 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" t="s">
         <v>184</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>184</v>
+      </c>
+      <c r="E87" t="s">
+        <v>420</v>
+      </c>
+      <c r="F87" t="s">
         <v>185</v>
-      </c>
-      <c r="D87" t="s">
-        <v>185</v>
-      </c>
-      <c r="E87" t="s">
-        <v>421</v>
-      </c>
-      <c r="F87" t="s">
-        <v>186</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
@@ -9984,19 +9990,19 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" t="s">
         <v>187</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>188</v>
       </c>
-      <c r="D88" t="s">
-        <v>189</v>
-      </c>
       <c r="E88" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F88" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
@@ -10038,19 +10044,19 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C89" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E89" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F89" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
@@ -10087,19 +10093,19 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C90" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D90" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E90" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F90" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
@@ -10136,19 +10142,19 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C91" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D91" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E91" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F91" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
@@ -10185,19 +10191,19 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C92" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E92" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F92" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
@@ -10234,19 +10240,19 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C93" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E93" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F93" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -10283,19 +10289,19 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C94" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D94" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E94" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
@@ -10332,19 +10338,19 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C95" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D95" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E95" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F95" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
@@ -10381,19 +10387,19 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C96" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D96" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E96" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F96" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
@@ -10430,19 +10436,19 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C97" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D97" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E97" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
@@ -10479,19 +10485,19 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C98" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D98" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E98" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
@@ -10528,19 +10534,19 @@
         <v>5</v>
       </c>
       <c r="B99" t="s">
+        <v>152</v>
+      </c>
+      <c r="C99" t="s">
         <v>153</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
+        <v>153</v>
+      </c>
+      <c r="E99" t="s">
+        <v>488</v>
+      </c>
+      <c r="F99" t="s">
         <v>154</v>
-      </c>
-      <c r="D99" t="s">
-        <v>154</v>
-      </c>
-      <c r="E99" t="s">
-        <v>489</v>
-      </c>
-      <c r="F99" t="s">
-        <v>155</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
@@ -10560,11 +10566,11 @@
       <c r="L99">
         <v>15</v>
       </c>
-      <c r="M99">
-        <v>22</v>
+      <c r="M99" t="s">
+        <v>609</v>
       </c>
       <c r="N99" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="P99" t="b">
         <v>1</v>
@@ -10587,19 +10593,19 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
+        <v>155</v>
+      </c>
+      <c r="C100" t="s">
         <v>156</v>
       </c>
-      <c r="C100" t="s">
-        <v>157</v>
-      </c>
       <c r="D100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E100" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F100" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
@@ -10635,19 +10641,19 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
+        <v>157</v>
+      </c>
+      <c r="C101" t="s">
         <v>158</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
+        <v>158</v>
+      </c>
+      <c r="E101" t="s">
+        <v>489</v>
+      </c>
+      <c r="F101" t="s">
         <v>159</v>
-      </c>
-      <c r="D101" t="s">
-        <v>159</v>
-      </c>
-      <c r="E101" t="s">
-        <v>490</v>
-      </c>
-      <c r="F101" t="s">
-        <v>160</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
@@ -10667,11 +10673,11 @@
       <c r="L101">
         <v>15</v>
       </c>
-      <c r="M101">
-        <v>22</v>
+      <c r="M101" t="s">
+        <v>609</v>
       </c>
       <c r="N101" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="P101" t="b">
         <v>1</v>
@@ -10694,19 +10700,19 @@
         <v>5</v>
       </c>
       <c r="B102" t="s">
+        <v>160</v>
+      </c>
+      <c r="C102" t="s">
         <v>161</v>
       </c>
-      <c r="C102" t="s">
-        <v>162</v>
-      </c>
       <c r="D102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E102" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F102" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
@@ -10743,19 +10749,19 @@
         <v>5</v>
       </c>
       <c r="B103" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103" t="s">
         <v>163</v>
       </c>
-      <c r="C103" t="s">
-        <v>164</v>
-      </c>
       <c r="D103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E103" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F103" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
@@ -10792,19 +10798,19 @@
         <v>5</v>
       </c>
       <c r="B104" t="s">
+        <v>164</v>
+      </c>
+      <c r="C104" t="s">
         <v>165</v>
       </c>
-      <c r="C104" t="s">
-        <v>166</v>
-      </c>
       <c r="D104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E104" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F104" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
@@ -10841,19 +10847,19 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
+        <v>166</v>
+      </c>
+      <c r="C105" t="s">
         <v>167</v>
       </c>
-      <c r="C105" t="s">
-        <v>168</v>
-      </c>
       <c r="D105" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E105" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F105" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
@@ -10890,19 +10896,19 @@
         <v>5</v>
       </c>
       <c r="B106" t="s">
+        <v>168</v>
+      </c>
+      <c r="C106" t="s">
         <v>169</v>
       </c>
-      <c r="C106" t="s">
-        <v>170</v>
-      </c>
       <c r="D106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E106" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F106" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
@@ -10939,19 +10945,19 @@
         <v>5</v>
       </c>
       <c r="B107" t="s">
+        <v>170</v>
+      </c>
+      <c r="C107" t="s">
         <v>171</v>
       </c>
-      <c r="C107" t="s">
-        <v>172</v>
-      </c>
       <c r="D107" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E107" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F107" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
@@ -10988,19 +10994,19 @@
         <v>5</v>
       </c>
       <c r="B108" t="s">
+        <v>172</v>
+      </c>
+      <c r="C108" t="s">
         <v>173</v>
       </c>
-      <c r="C108" t="s">
-        <v>174</v>
-      </c>
       <c r="D108" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E108" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F108" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
@@ -11037,19 +11043,19 @@
         <v>5</v>
       </c>
       <c r="B109" t="s">
+        <v>174</v>
+      </c>
+      <c r="C109" t="s">
         <v>175</v>
       </c>
-      <c r="C109" t="s">
-        <v>176</v>
-      </c>
       <c r="D109" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E109" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F109" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
@@ -11086,19 +11092,19 @@
         <v>5</v>
       </c>
       <c r="B110" t="s">
+        <v>176</v>
+      </c>
+      <c r="C110" t="s">
         <v>177</v>
       </c>
-      <c r="C110" t="s">
-        <v>178</v>
-      </c>
       <c r="D110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E110" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F110" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
@@ -11138,13 +11144,13 @@
         <v>104</v>
       </c>
       <c r="C111" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D111" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E111" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F111" t="s">
         <v>104</v>
@@ -11165,13 +11171,13 @@
         <v>5</v>
       </c>
       <c r="L111">
-        <v>13</v>
-      </c>
-      <c r="M111">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="M111" t="s">
+        <v>609</v>
       </c>
       <c r="N111" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
@@ -11203,10 +11209,10 @@
         <v>145</v>
       </c>
       <c r="E112" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F112" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
@@ -11225,7 +11231,7 @@
       </c>
       <c r="L112" s="3"/>
       <c r="N112" t="s">
-        <v>146</v>
+        <v>608</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
@@ -11248,19 +11254,19 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
+        <v>146</v>
+      </c>
+      <c r="C113" t="s">
         <v>147</v>
       </c>
-      <c r="C113" t="s">
-        <v>148</v>
-      </c>
       <c r="D113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E113" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F113" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
@@ -11279,7 +11285,7 @@
       </c>
       <c r="L113" s="3"/>
       <c r="N113" t="s">
-        <v>146</v>
+        <v>608</v>
       </c>
       <c r="P113" t="b">
         <v>1</v>
@@ -11302,19 +11308,19 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
+        <v>148</v>
+      </c>
+      <c r="C114" t="s">
         <v>149</v>
       </c>
-      <c r="C114" t="s">
-        <v>150</v>
-      </c>
       <c r="D114" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E114" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F114" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
@@ -11333,7 +11339,7 @@
       </c>
       <c r="L114" s="3"/>
       <c r="N114" t="s">
-        <v>146</v>
+        <v>608</v>
       </c>
       <c r="P114" t="b">
         <v>1</v>
@@ -11356,19 +11362,19 @@
         <v>3</v>
       </c>
       <c r="B115" t="s">
+        <v>150</v>
+      </c>
+      <c r="C115" t="s">
         <v>151</v>
       </c>
-      <c r="C115" t="s">
-        <v>152</v>
-      </c>
       <c r="D115" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E115" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F115" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
@@ -11387,7 +11393,7 @@
       </c>
       <c r="L115" s="3"/>
       <c r="N115" t="s">
-        <v>146</v>
+        <v>608</v>
       </c>
       <c r="P115" t="b">
         <v>1</v>
@@ -11407,22 +11413,22 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B116" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C116" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D116" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E116" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F116" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
@@ -11466,22 +11472,22 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B117" t="s">
         <v>81</v>
       </c>
       <c r="C117" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D117" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E117" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F117" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
@@ -11515,22 +11521,22 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B118" t="s">
         <v>84</v>
       </c>
       <c r="C118" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D118" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E118" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F118" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
@@ -11564,22 +11570,22 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B119" t="s">
         <v>86</v>
       </c>
       <c r="C119" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D119" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E119" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F119" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
@@ -11613,22 +11619,22 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B120" t="s">
         <v>85</v>
       </c>
       <c r="C120" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D120" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E120" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F120" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
@@ -11662,22 +11668,22 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B121" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C121" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D121" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E121" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F121" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
@@ -11711,19 +11717,19 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B122" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C122" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D122" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E122" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F122" t="s">
         <v>131</v>
@@ -11758,19 +11764,19 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B123" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C123" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D123" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E123" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F123" t="s">
         <v>131</v>
@@ -11805,19 +11811,19 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C124" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D124" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E124" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F124" t="s">
         <v>131</v>
@@ -11852,19 +11858,19 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B125" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C125" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D125" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E125" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F125" t="s">
         <v>131</v>
@@ -11899,19 +11905,19 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B126" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C126" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D126" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E126" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F126" t="s">
         <v>131</v>
@@ -11946,19 +11952,19 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B127" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C127" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D127" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E127" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F127" t="s">
         <v>131</v>
@@ -11993,19 +11999,19 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B128" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C128" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D128" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E128" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F128" t="s">
         <v>131</v>
@@ -12040,19 +12046,19 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B129" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C129" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D129" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E129" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F129" t="s">
         <v>131</v>
@@ -12087,19 +12093,19 @@
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B130" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C130" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D130" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E130" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F130" t="s">
         <v>131</v>
@@ -12134,19 +12140,19 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B131" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C131" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D131" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E131" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F131" t="s">
         <v>131</v>
@@ -12181,19 +12187,19 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B132" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C132" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D132" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E132" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F132" t="s">
         <v>131</v>
@@ -12228,19 +12234,19 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B133" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C133" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D133" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E133" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F133" t="s">
         <v>131</v>
@@ -12275,19 +12281,19 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B134" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C134" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D134" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E134" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F134" t="s">
         <v>126</v>
@@ -12322,19 +12328,19 @@
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B135" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C135" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D135" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E135" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F135" t="s">
         <v>126</v>
@@ -12369,19 +12375,19 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B136" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C136" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D136" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E136" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F136" t="s">
         <v>126</v>
@@ -12416,19 +12422,19 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B137" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C137" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D137" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E137" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F137" t="s">
         <v>126</v>
@@ -12463,19 +12469,19 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B138" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C138" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D138" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E138" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F138" t="s">
         <v>126</v>
@@ -12510,19 +12516,19 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B139" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C139" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D139" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E139" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F139" t="s">
         <v>126</v>
@@ -12557,19 +12563,19 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C140" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D140" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E140" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F140" t="s">
         <v>126</v>
@@ -12604,19 +12610,19 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B141" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C141" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D141" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E141" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F141" t="s">
         <v>126</v>
@@ -12651,19 +12657,19 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B142" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C142" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D142" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E142" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F142" t="s">
         <v>126</v>
@@ -12698,19 +12704,19 @@
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B143" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C143" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D143" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E143" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F143" t="s">
         <v>126</v>
@@ -12745,19 +12751,19 @@
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B144" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C144" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D144" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E144" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F144" t="s">
         <v>126</v>
@@ -12792,19 +12798,19 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B145" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C145" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D145" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E145" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F145" t="s">
         <v>126</v>
@@ -12839,22 +12845,22 @@
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B146" t="s">
         <v>87</v>
       </c>
       <c r="C146" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D146" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E146" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F146" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
@@ -12886,19 +12892,19 @@
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B147" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C147" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D147" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E147" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F147" t="s">
         <v>142</v>
@@ -12933,19 +12939,19 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B148" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C148" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D148" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E148" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F148" t="s">
         <v>142</v>
@@ -12980,19 +12986,19 @@
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B149" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C149" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D149" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E149" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F149" t="s">
         <v>142</v>
@@ -13027,19 +13033,19 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B150" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C150" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D150" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E150" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F150" t="s">
         <v>142</v>
@@ -13074,22 +13080,22 @@
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B151" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C151" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D151" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E151" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F151" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
@@ -13121,22 +13127,22 @@
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B152" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C152" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D152" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E152" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F152" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
@@ -13168,22 +13174,22 @@
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B153" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C153" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D153" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E153" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F153" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
@@ -13234,8 +13240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13252,72 +13258,72 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" t="s">
         <v>254</v>
-      </c>
-      <c r="C1" t="s">
-        <v>255</v>
       </c>
       <c r="D1" t="s">
         <v>15</v>
       </c>
       <c r="E1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F1" t="s">
+        <v>532</v>
+      </c>
+      <c r="G1" t="s">
         <v>530</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>531</v>
+      </c>
+      <c r="I1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J1" t="s">
+        <v>536</v>
+      </c>
+      <c r="K1" t="s">
+        <v>535</v>
+      </c>
+      <c r="L1" t="s">
+        <v>607</v>
+      </c>
+      <c r="M1" t="s">
         <v>533</v>
       </c>
-      <c r="G1" t="s">
-        <v>531</v>
-      </c>
-      <c r="H1" t="s">
-        <v>532</v>
-      </c>
-      <c r="I1" t="s">
-        <v>371</v>
-      </c>
-      <c r="J1" t="s">
-        <v>537</v>
-      </c>
-      <c r="K1" t="s">
-        <v>536</v>
-      </c>
-      <c r="L1" t="s">
-        <v>538</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>534</v>
       </c>
-      <c r="N1" t="s">
-        <v>535</v>
-      </c>
       <c r="O1" t="s">
+        <v>547</v>
+      </c>
+      <c r="P1" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q1" t="s">
         <v>549</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>550</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>551</v>
-      </c>
-      <c r="R1" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
         <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -13358,16 +13364,16 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
         <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -13408,16 +13414,16 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
         <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -13458,16 +13464,16 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
         <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -13508,16 +13514,16 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
         <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -13558,16 +13564,16 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
         <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -13608,16 +13614,16 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B8" t="s">
         <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D8" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -13658,16 +13664,16 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
         <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D9" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -13708,16 +13714,16 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
         <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D10" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -13758,16 +13764,16 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B11" t="s">
         <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D11" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -13808,13 +13814,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B12" t="s">
         <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D12" t="s">
         <v>126</v>
@@ -13858,13 +13864,13 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B13" t="s">
         <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D13" t="s">
         <v>126</v>
@@ -13908,13 +13914,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B14" t="s">
         <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D14" t="s">
         <v>126</v>
@@ -13958,13 +13964,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B15" t="s">
         <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D15" t="s">
         <v>126</v>
@@ -14008,13 +14014,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B16" t="s">
         <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D16" t="s">
         <v>131</v>
@@ -14061,13 +14067,13 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B17" t="s">
         <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D17" t="s">
         <v>131</v>
@@ -14114,13 +14120,13 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B18" t="s">
         <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D18" t="s">
         <v>131</v>
@@ -14167,13 +14173,13 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B19" t="s">
         <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D19" t="s">
         <v>131</v>
@@ -14220,16 +14226,16 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B20" t="s">
         <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -14270,13 +14276,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B21" t="s">
         <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D21" t="s">
         <v>138</v>
@@ -14320,13 +14326,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B22" t="s">
         <v>139</v>
       </c>
       <c r="C22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D22" t="s">
         <v>138</v>
@@ -14370,16 +14376,16 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s">
         <v>141</v>
       </c>
       <c r="C23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D23" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -14420,13 +14426,13 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s">
         <v>143</v>
       </c>
       <c r="C24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D24" t="s">
         <v>142</v>
@@ -14476,13 +14482,13 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -14526,13 +14532,13 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -14552,8 +14558,8 @@
       <c r="J26">
         <v>14</v>
       </c>
-      <c r="K26">
-        <v>21</v>
+      <c r="K26" t="s">
+        <v>606</v>
       </c>
       <c r="L26" t="s">
         <v>26</v>
@@ -14579,13 +14585,13 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
@@ -14600,13 +14606,13 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27">
-        <v>11</v>
-      </c>
-      <c r="K27">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="K27" t="s">
+        <v>606</v>
       </c>
       <c r="L27" t="s">
         <v>26</v>
@@ -14632,13 +14638,13 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C28" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -14653,13 +14659,13 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>14</v>
-      </c>
-      <c r="K28">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="K28" t="s">
+        <v>606</v>
       </c>
       <c r="L28" t="s">
         <v>26</v>
@@ -14702,31 +14708,31 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E1" t="s">
         <v>365</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>366</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="J1" s="3"/>
     </row>
@@ -14735,10 +14741,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D2">
         <v>213.9999999999998</v>
@@ -14765,10 +14771,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D3">
         <v>255</v>
@@ -14795,10 +14801,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D4">
         <v>187.99999999999991</v>
@@ -14825,10 +14831,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D5">
         <v>43.999999999999964</v>
@@ -14855,10 +14861,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D6">
         <v>22.999999999999989</v>
@@ -14885,10 +14891,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D7">
         <v>30.999999999999901</v>
@@ -14915,10 +14921,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D8">
         <v>147.99999999999997</v>
@@ -14945,10 +14951,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D9">
         <v>226.99999999999989</v>
@@ -14975,10 +14981,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D10">
         <v>139.99999999999991</v>
@@ -15005,10 +15011,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D11">
         <v>126.99999999999987</v>
@@ -15035,10 +15041,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D12" s="3">
         <v>255</v>
@@ -15065,10 +15071,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D13" s="3">
         <v>255</v>
@@ -15095,10 +15101,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D14" s="3">
         <v>218.99999999999983</v>
@@ -15125,10 +15131,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D15" s="3">
         <v>152</v>
@@ -15155,10 +15161,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D16" s="3">
         <v>157.99999999999977</v>
@@ -15185,10 +15191,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D17" s="3">
         <v>173.99999999999986</v>
@@ -15215,10 +15221,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D18" s="3">
         <v>196.99999999999994</v>
@@ -15245,10 +15251,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D19" s="3">
         <v>246.99999999999997</v>
@@ -15275,10 +15281,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D20" s="3">
         <v>195.99999999999994</v>
@@ -15305,10 +15311,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D21" s="3">
         <v>198.99999999999997</v>
@@ -15335,10 +15341,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D22">
         <v>137</v>
@@ -15365,10 +15371,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D23">
         <v>218</v>
@@ -15395,10 +15401,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D24">
         <v>139</v>
@@ -15425,10 +15431,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D25">
         <v>27</v>
@@ -15455,10 +15461,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D26">
         <v>7</v>
@@ -15485,10 +15491,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D27">
         <v>13</v>
@@ -15515,10 +15521,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D28">
         <v>125</v>
@@ -15545,10 +15551,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D29">
         <v>213</v>
@@ -15575,10 +15581,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D30">
         <v>100</v>
@@ -15605,10 +15611,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D31">
         <v>91</v>
@@ -15635,10 +15641,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -15667,21 +15673,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100983CA113FD3DE849936E610BB0BA65BB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="219e2d0d25f1c7dcecf6ea1ad6d45ac0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="75aa8e05-1f40-4a55-97cf-096775f63a7d" xmlns:ns4="c8ed7201-aa74-4219-b068-ce108ea8c5d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="719f9bc1c175b59cc8afcdde64e7182e" ns3:_="" ns4:_="">
     <xsd:import namespace="75aa8e05-1f40-4a55-97cf-096775f63a7d"/>
@@ -15890,32 +15881,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24F429AA-8564-4E9A-81C4-E2167E53561A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c8ed7201-aa74-4219-b068-ce108ea8c5d8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="75aa8e05-1f40-4a55-97cf-096775f63a7d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{985D8399-A071-4822-87D9-C2DF6320BB4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F60B9C7-E153-401A-BDEA-AEEC941471A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15932,4 +15913,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{985D8399-A071-4822-87D9-C2DF6320BB4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24F429AA-8564-4E9A-81C4-E2167E53561A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c8ed7201-aa74-4219-b068-ce108ea8c5d8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="75aa8e05-1f40-4a55-97cf-096775f63a7d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Info/Info.xlsx
+++ b/Info/Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nms198\Git\ToOLTuBES\Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AEEB54-9657-48F2-AE97-AC77D9BAA7F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FD6FD3-8B7A-4F91-8A21-AF1A5E456864}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setup" sheetId="9" r:id="rId1"/>
@@ -21,17 +21,23 @@
     <sheet name="parameters_ave" sheetId="7" r:id="rId6"/>
     <sheet name="colours" sheetId="10" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="618">
   <si>
     <t>Slim</t>
   </si>
@@ -1879,6 +1885,30 @@
   </si>
   <si>
     <t>diamond</t>
+  </si>
+  <si>
+    <t>refresh_hours</t>
+  </si>
+  <si>
+    <t>png_width</t>
+  </si>
+  <si>
+    <t>png_height</t>
+  </si>
+  <si>
+    <t>pdf_width</t>
+  </si>
+  <si>
+    <t>pdf_height</t>
+  </si>
+  <si>
+    <t>html_fig_width</t>
+  </si>
+  <si>
+    <t>html_height_width</t>
+  </si>
+  <si>
+    <t>last_fig_x</t>
   </si>
 </sst>
 </file>
@@ -2446,10 +2476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2485,6 +2515,14 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2717,10 +2755,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2730,9 +2768,15 @@
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>237</v>
       </c>
@@ -2757,8 +2801,29 @@
       <c r="H1" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>611</v>
+      </c>
+      <c r="J1" t="s">
+        <v>612</v>
+      </c>
+      <c r="K1" t="s">
+        <v>613</v>
+      </c>
+      <c r="L1" t="s">
+        <v>614</v>
+      </c>
+      <c r="M1" t="s">
+        <v>615</v>
+      </c>
+      <c r="N1" t="s">
+        <v>616</v>
+      </c>
+      <c r="O1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2777,8 +2842,29 @@
       <c r="H2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>4000</v>
+      </c>
+      <c r="J2">
+        <v>2250</v>
+      </c>
+      <c r="K2">
+        <v>3507</v>
+      </c>
+      <c r="L2">
+        <v>2481</v>
+      </c>
+      <c r="M2">
+        <v>98</v>
+      </c>
+      <c r="N2">
+        <v>20</v>
+      </c>
+      <c r="O2">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2797,8 +2883,29 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>4000</v>
+      </c>
+      <c r="J3">
+        <v>2250</v>
+      </c>
+      <c r="K3">
+        <v>3507</v>
+      </c>
+      <c r="L3">
+        <v>2481</v>
+      </c>
+      <c r="M3">
+        <v>98</v>
+      </c>
+      <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2814,8 +2921,29 @@
       <c r="H4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>4000</v>
+      </c>
+      <c r="J4">
+        <v>2250</v>
+      </c>
+      <c r="K4">
+        <v>3507</v>
+      </c>
+      <c r="L4">
+        <v>2481</v>
+      </c>
+      <c r="M4">
+        <v>98</v>
+      </c>
+      <c r="N4">
+        <v>20</v>
+      </c>
+      <c r="O4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2831,8 +2959,29 @@
       <c r="H5" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>4000</v>
+      </c>
+      <c r="J5">
+        <v>2250</v>
+      </c>
+      <c r="K5">
+        <v>3507</v>
+      </c>
+      <c r="L5">
+        <v>2481</v>
+      </c>
+      <c r="M5">
+        <v>98</v>
+      </c>
+      <c r="N5">
+        <v>20</v>
+      </c>
+      <c r="O5">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2854,9 +3003,31 @@
       <c r="H6" t="s">
         <v>545</v>
       </c>
+      <c r="I6">
+        <v>4000</v>
+      </c>
+      <c r="J6">
+        <v>2250</v>
+      </c>
+      <c r="K6">
+        <v>3507</v>
+      </c>
+      <c r="L6">
+        <v>2481</v>
+      </c>
+      <c r="M6">
+        <v>98</v>
+      </c>
+      <c r="N6">
+        <v>20</v>
+      </c>
+      <c r="O6">
+        <v>1.25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2864,7 +3035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>

--- a/Info/Info.xlsx
+++ b/Info/Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nms198\Git\ToOLTuBES\Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FD6FD3-8B7A-4F91-8A21-AF1A5E456864}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B376A406-ACE3-48C6-BEAC-1797B674C710}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setup" sheetId="9" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="620">
   <si>
     <t>Slim</t>
   </si>
@@ -1909,6 +1909,12 @@
   </si>
   <si>
     <t>last_fig_x</t>
+  </si>
+  <si>
+    <t>dpi</t>
+  </si>
+  <si>
+    <t>font_size</t>
   </si>
 </sst>
 </file>
@@ -2755,10 +2761,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2776,7 +2782,7 @@
     <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>237</v>
       </c>
@@ -2822,8 +2828,14 @@
       <c r="O1" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2843,16 +2855,16 @@
         <v>18</v>
       </c>
       <c r="I2">
-        <v>4000</v>
+        <v>1280</v>
       </c>
       <c r="J2">
-        <v>2250</v>
+        <v>720</v>
       </c>
       <c r="K2">
-        <v>3507</v>
+        <v>794</v>
       </c>
       <c r="L2">
-        <v>2481</v>
+        <v>1123</v>
       </c>
       <c r="M2">
         <v>98</v>
@@ -2863,8 +2875,14 @@
       <c r="O2">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <v>300</v>
+      </c>
+      <c r="Q2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2884,16 +2902,16 @@
         <v>20</v>
       </c>
       <c r="I3">
-        <v>4000</v>
+        <v>1280</v>
       </c>
       <c r="J3">
-        <v>2250</v>
+        <v>720</v>
       </c>
       <c r="K3">
-        <v>3507</v>
+        <v>794</v>
       </c>
       <c r="L3">
-        <v>2481</v>
+        <v>1123</v>
       </c>
       <c r="M3">
         <v>98</v>
@@ -2904,8 +2922,14 @@
       <c r="O3">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <v>300</v>
+      </c>
+      <c r="Q3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2922,16 +2946,16 @@
         <v>22</v>
       </c>
       <c r="I4">
-        <v>4000</v>
+        <v>1280</v>
       </c>
       <c r="J4">
-        <v>2250</v>
+        <v>720</v>
       </c>
       <c r="K4">
-        <v>3507</v>
+        <v>794</v>
       </c>
       <c r="L4">
-        <v>2481</v>
+        <v>1123</v>
       </c>
       <c r="M4">
         <v>98</v>
@@ -2942,8 +2966,14 @@
       <c r="O4">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>300</v>
+      </c>
+      <c r="Q4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2960,16 +2990,16 @@
         <v>552</v>
       </c>
       <c r="I5">
-        <v>4000</v>
+        <v>1280</v>
       </c>
       <c r="J5">
-        <v>2250</v>
+        <v>720</v>
       </c>
       <c r="K5">
-        <v>3507</v>
+        <v>794</v>
       </c>
       <c r="L5">
-        <v>2481</v>
+        <v>1123</v>
       </c>
       <c r="M5">
         <v>98</v>
@@ -2980,8 +3010,14 @@
       <c r="O5">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>300</v>
+      </c>
+      <c r="Q5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3004,16 +3040,16 @@
         <v>545</v>
       </c>
       <c r="I6">
-        <v>4000</v>
+        <v>1280</v>
       </c>
       <c r="J6">
-        <v>2250</v>
+        <v>720</v>
       </c>
       <c r="K6">
-        <v>3507</v>
+        <v>794</v>
       </c>
       <c r="L6">
-        <v>2481</v>
+        <v>1123</v>
       </c>
       <c r="M6">
         <v>98</v>
@@ -3023,6 +3059,12 @@
       </c>
       <c r="O6">
         <v>1.25</v>
+      </c>
+      <c r="P6">
+        <v>300</v>
+      </c>
+      <c r="Q6">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3035,8 +3077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3105,9 +3147,6 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>40</v>
-      </c>
       <c r="I2">
         <v>10</v>
       </c>
@@ -3137,9 +3176,6 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>40</v>
-      </c>
       <c r="I3">
         <v>10</v>
       </c>
@@ -3169,9 +3205,6 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>40</v>
-      </c>
       <c r="I4">
         <v>10</v>
       </c>
@@ -3201,9 +3234,6 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>600</v>
-      </c>
       <c r="I5">
         <v>10</v>
       </c>
@@ -3233,9 +3263,6 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>500</v>
-      </c>
       <c r="I6">
         <v>10</v>
       </c>
@@ -3265,9 +3292,6 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>60</v>
-      </c>
       <c r="I7">
         <v>10</v>
       </c>
@@ -3297,9 +3321,6 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>150</v>
-      </c>
       <c r="I8">
         <v>8</v>
       </c>
@@ -3329,9 +3350,6 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>30</v>
-      </c>
       <c r="I9">
         <v>8</v>
       </c>
@@ -3390,12 +3408,6 @@
       <c r="F11" t="s">
         <v>580</v>
       </c>
-      <c r="G11">
-        <v>-50</v>
-      </c>
-      <c r="H11">
-        <v>50</v>
-      </c>
       <c r="I11">
         <v>10</v>
       </c>
@@ -3457,9 +3469,6 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>2500</v>
-      </c>
       <c r="I13">
         <v>10</v>
       </c>
@@ -3587,9 +3596,6 @@
       </c>
       <c r="G17">
         <v>0</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
       </c>
       <c r="I17">
         <v>10</v>
